--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="6330" windowWidth="14340" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="4260" windowWidth="14745" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="5"/>
@@ -12,12 +12,11 @@
     <sheet name="updates" r:id="rId3" sheetId="7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="474">
   <si>
     <t>Ankit</t>
   </si>
@@ -1324,6 +1323,9 @@
     <t>ankitgoel06@gmail.com</t>
   </si>
   <si>
+    <t>s96508992311111</t>
+  </si>
+  <si>
     <t>WOMEN,MEN,KIDS,BEAUTY,HOMEWARE,BRANDS,GIFTS,DISCOVER,OFFERS,FIRST CITIZEN</t>
   </si>
   <si>
@@ -1336,6 +1338,21 @@
     <t>cxxzg@gmail.com</t>
   </si>
   <si>
+    <t>sdczaz@gmail.com</t>
+  </si>
+  <si>
+    <t>gcfdzax@gmail.com</t>
+  </si>
+  <si>
+    <t>sfhsxazy@gmail.com</t>
+  </si>
+  <si>
+    <t>cdxwzfd@gmail.com</t>
+  </si>
+  <si>
+    <t>s965089923111111</t>
+  </si>
+  <si>
     <t>xgczaf@gmail.com</t>
   </si>
   <si>
@@ -1405,22 +1422,22 @@
     <t>SS_CheckOut_GuestUser_OrderUsingWallets_All</t>
   </si>
   <si>
-    <t>s96508992312</t>
-  </si>
-  <si>
-    <t>s965089923123</t>
-  </si>
-  <si>
-    <t>sddfgfz@gmail.com</t>
-  </si>
-  <si>
-    <t>ggfzax@gmail.com</t>
-  </si>
-  <si>
-    <t>fgbazy@gmail.com</t>
-  </si>
-  <si>
-    <t>dsfghfd@gmail.com</t>
+    <t>SS_CheckOut_GuestUser_EmptyField</t>
+  </si>
+  <si>
+    <t>SS_CartPage_Public_Verify_Edit_Cart_Sameproduct_Functionality</t>
+  </si>
+  <si>
+    <t>Boots</t>
+  </si>
+  <si>
+    <t>SS_ItemDelete_OneItem_CheckOut</t>
+  </si>
+  <si>
+    <t>SS_CheckOut_NewAddress_Clinique</t>
+  </si>
+  <si>
+    <t>BRANDS</t>
   </si>
 </sst>
 </file>
@@ -2044,13 +2061,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH281"/>
+  <dimension ref="A1:CH282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C146" xSplit="1" ySplit="1"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B107" xSplit="1" ySplit="1"/>
       <selection activeCell="B1" pane="topRight" sqref="B1"/>
       <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="A150" pane="bottomRight" sqref="A150"/>
+      <selection activeCell="A116" pane="bottomRight" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4388,7 +4405,7 @@
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -4479,7 +4496,7 @@
         <v>362</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -6296,7 +6313,7 @@
         <v>264</v>
       </c>
       <c r="AD43" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AE43" s="1" t="s">
         <v>384</v>
@@ -9748,7 +9765,7 @@
         <v>433</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -9793,7 +9810,7 @@
       <c r="AS78" s="1"/>
       <c r="AT78" s="1"/>
       <c r="AU78" s="27" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="AV78" s="1"/>
       <c r="AW78" s="1"/>
@@ -13655,28 +13672,28 @@
     </row>
     <row r="116" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>123</v>
+        <v>472</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C116" s="28" t="s">
+      <c r="C116" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D116" s="27" t="s">
+      <c r="D116" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="2" t="s">
-        <v>52</v>
+        <v>473</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>322</v>
+        <v>5</v>
       </c>
       <c r="I116" s="1"/>
       <c r="J116" s="2" t="s">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="K116" t="s">
         <v>1</v>
@@ -13730,21 +13747,12 @@
       <c r="AX116" s="1"/>
       <c r="AY116" s="1"/>
       <c r="AZ116" s="1"/>
-      <c r="BA116" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BB116" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD116" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE116" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF116" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="BA116" s="1"/>
+      <c r="BB116" s="1"/>
+      <c r="BC116" s="1"/>
+      <c r="BD116" s="1"/>
+      <c r="BE116" s="1"/>
+      <c r="BF116" s="1"/>
       <c r="BG116" s="1"/>
       <c r="BH116" s="1"/>
       <c r="BI116" s="1"/>
@@ -13777,7 +13785,7 @@
     </row>
     <row r="117" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>362</v>
@@ -13853,18 +13861,21 @@
       <c r="AY117" s="1"/>
       <c r="AZ117" s="1"/>
       <c r="BA117" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BB117" s="1"/>
-      <c r="BC117" s="1"/>
-      <c r="BD117" s="1"/>
-      <c r="BE117" s="1"/>
-      <c r="BF117" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG117" s="4" t="s">
-        <v>131</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="BB117" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE117" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF117" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG117" s="1"/>
       <c r="BH117" s="1"/>
       <c r="BI117" s="1"/>
       <c r="BJ117" s="1"/>
@@ -13896,7 +13907,7 @@
     </row>
     <row r="118" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>387</v>
+        <v>129</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>362</v>
@@ -14015,7 +14026,7 @@
     </row>
     <row r="119" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>362</v>
@@ -14077,12 +14088,8 @@
       <c r="AK119" s="1"/>
       <c r="AL119" s="1"/>
       <c r="AM119" s="1"/>
-      <c r="AN119" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AO119" s="1" t="s">
-        <v>390</v>
-      </c>
+      <c r="AN119" s="1"/>
+      <c r="AO119" s="1"/>
       <c r="AP119" s="1"/>
       <c r="AQ119" s="1"/>
       <c r="AR119" s="1"/>
@@ -14111,14 +14118,10 @@
       <c r="BI119" s="1"/>
       <c r="BJ119" s="1"/>
       <c r="BK119" s="1"/>
-      <c r="BL119" s="1" t="s">
-        <v>393</v>
-      </c>
+      <c r="BL119" s="1"/>
       <c r="BM119" s="1"/>
       <c r="BN119" s="1"/>
-      <c r="BO119" s="1" t="s">
-        <v>394</v>
-      </c>
+      <c r="BO119" s="1"/>
       <c r="BP119" s="1"/>
       <c r="BQ119" s="1"/>
       <c r="BR119" s="1"/>
@@ -14142,7 +14145,7 @@
     </row>
     <row r="120" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>362</v>
@@ -14269,7 +14272,7 @@
     </row>
     <row r="121" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>362</v>
@@ -14396,16 +14399,16 @@
     </row>
     <row r="122" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>359</v>
+      <c r="C122" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D122" s="27" t="s">
+        <v>2</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -14413,7 +14416,7 @@
         <v>52</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>410</v>
+        <v>322</v>
       </c>
       <c r="I122" s="1"/>
       <c r="J122" s="2" t="s">
@@ -14523,16 +14526,16 @@
     </row>
     <row r="123" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C123" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D123" s="27" t="s">
-        <v>2</v>
+      <c r="C123" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -14540,7 +14543,7 @@
         <v>52</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>322</v>
+        <v>410</v>
       </c>
       <c r="I123" s="1"/>
       <c r="J123" s="2" t="s">
@@ -14650,7 +14653,7 @@
     </row>
     <row r="124" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>362</v>
@@ -14777,7 +14780,7 @@
     </row>
     <row r="125" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>362</v>
@@ -14904,7 +14907,7 @@
     </row>
     <row r="126" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>362</v>
@@ -15031,7 +15034,7 @@
     </row>
     <row r="127" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>362</v>
@@ -15158,7 +15161,7 @@
     </row>
     <row r="128" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>362</v>
@@ -15213,10 +15216,9 @@
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
       <c r="AF128" s="1"/>
-      <c r="AG128" s="1">
-        <v>324353454</v>
-      </c>
+      <c r="AG128" s="1"/>
       <c r="AH128" s="1"/>
+      <c r="AI128" s="1"/>
       <c r="AJ128" s="1"/>
       <c r="AK128" s="1"/>
       <c r="AL128" s="1"/>
@@ -15286,7 +15288,7 @@
     </row>
     <row r="129" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>362</v>
@@ -15341,11 +15343,10 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
       <c r="AF129" s="1"/>
-      <c r="AG129" s="1"/>
+      <c r="AG129" s="1">
+        <v>324353454</v>
+      </c>
       <c r="AH129" s="1"/>
-      <c r="AI129" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="AJ129" s="1"/>
       <c r="AK129" s="1"/>
       <c r="AL129" s="1"/>
@@ -15415,7 +15416,7 @@
     </row>
     <row r="130" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>362</v>
@@ -15472,13 +15473,13 @@
       <c r="AF130" s="1"/>
       <c r="AG130" s="1"/>
       <c r="AH130" s="1"/>
-      <c r="AI130" s="1"/>
+      <c r="AI130" s="1" t="s">
+        <v>421</v>
+      </c>
       <c r="AJ130" s="1"/>
       <c r="AK130" s="1"/>
       <c r="AL130" s="1"/>
-      <c r="AM130" s="26" t="s">
-        <v>420</v>
-      </c>
+      <c r="AM130" s="1"/>
       <c r="AN130" s="1" t="s">
         <v>389</v>
       </c>
@@ -15544,7 +15545,7 @@
     </row>
     <row r="131" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>362</v>
@@ -15603,11 +15604,11 @@
       <c r="AH131" s="1"/>
       <c r="AI131" s="1"/>
       <c r="AJ131" s="1"/>
-      <c r="AK131" s="1" t="s">
-        <v>419</v>
-      </c>
+      <c r="AK131" s="1"/>
       <c r="AL131" s="1"/>
-      <c r="AM131" s="1"/>
+      <c r="AM131" s="26" t="s">
+        <v>420</v>
+      </c>
       <c r="AN131" s="1" t="s">
         <v>389</v>
       </c>
@@ -15673,7 +15674,7 @@
     </row>
     <row r="132" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>362</v>
@@ -15732,7 +15733,9 @@
       <c r="AH132" s="1"/>
       <c r="AI132" s="1"/>
       <c r="AJ132" s="1"/>
-      <c r="AK132" s="1"/>
+      <c r="AK132" s="1" t="s">
+        <v>419</v>
+      </c>
       <c r="AL132" s="1"/>
       <c r="AM132" s="1"/>
       <c r="AN132" s="1" t="s">
@@ -15800,7 +15803,7 @@
     </row>
     <row r="133" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>362</v>
@@ -15927,7 +15930,7 @@
     </row>
     <row r="134" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>362</v>
@@ -16054,7 +16057,7 @@
     </row>
     <row r="135" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>362</v>
@@ -16308,7 +16311,7 @@
     </row>
     <row r="137" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>362</v>
@@ -16435,7 +16438,7 @@
     </row>
     <row r="138" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>362</v>
@@ -16562,7 +16565,7 @@
     </row>
     <row r="139" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>362</v>
@@ -16689,13 +16692,13 @@
     </row>
     <row r="140" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C140" s="26" t="s">
-        <v>403</v>
+      <c r="C140" s="28" t="s">
+        <v>434</v>
       </c>
       <c r="D140" s="27" t="s">
         <v>2</v>
@@ -16816,7 +16819,7 @@
     </row>
     <row r="141" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>362</v>
@@ -16833,7 +16836,7 @@
         <v>52</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>410</v>
+        <v>322</v>
       </c>
       <c r="I141" s="1"/>
       <c r="J141" s="2" t="s">
@@ -16943,13 +16946,13 @@
     </row>
     <row r="142" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C142" s="28" t="s">
-        <v>434</v>
+      <c r="C142" s="26" t="s">
+        <v>403</v>
       </c>
       <c r="D142" s="27" t="s">
         <v>2</v>
@@ -16960,7 +16963,7 @@
         <v>52</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>322</v>
+        <v>410</v>
       </c>
       <c r="I142" s="1"/>
       <c r="J142" s="2" t="s">
@@ -17070,7 +17073,7 @@
     </row>
     <row r="143" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>362</v>
@@ -17197,7 +17200,7 @@
     </row>
     <row r="144" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>133</v>
+        <v>392</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>362</v>
@@ -17259,8 +17262,12 @@
       <c r="AK144" s="1"/>
       <c r="AL144" s="1"/>
       <c r="AM144" s="1"/>
-      <c r="AN144" s="1"/>
-      <c r="AO144" s="1"/>
+      <c r="AN144" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AO144" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="AP144" s="1"/>
       <c r="AQ144" s="1"/>
       <c r="AR144" s="1"/>
@@ -17273,30 +17280,30 @@
       <c r="AY144" s="1"/>
       <c r="AZ144" s="1"/>
       <c r="BA144" s="1" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="BB144" s="1"/>
       <c r="BC144" s="1"/>
       <c r="BD144" s="1"/>
       <c r="BE144" s="1"/>
-      <c r="BF144" s="1"/>
-      <c r="BG144" s="1"/>
-      <c r="BH144" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BI144" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BJ144" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK144" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="BL144" s="1"/>
+      <c r="BF144" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG144" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH144" s="1"/>
+      <c r="BI144" s="1"/>
+      <c r="BJ144" s="1"/>
+      <c r="BK144" s="1"/>
+      <c r="BL144" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="BM144" s="1"/>
       <c r="BN144" s="1"/>
-      <c r="BO144" s="1"/>
+      <c r="BO144" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="BP144" s="1"/>
       <c r="BQ144" s="1"/>
       <c r="BR144" s="1"/>
@@ -17320,16 +17327,16 @@
     </row>
     <row r="145" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>334</v>
+        <v>133</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C145" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="D145" s="26" t="s">
-        <v>359</v>
+      <c r="C145" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D145" s="27" t="s">
+        <v>2</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -17405,16 +17412,16 @@
       <c r="BF145" s="1"/>
       <c r="BG145" s="1"/>
       <c r="BH145" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BI145" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="BJ145" t="s">
-        <v>338</v>
+        <v>134</v>
+      </c>
+      <c r="BI145" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ145" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="BK145" s="1" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="BL145" s="1"/>
       <c r="BM145" s="1"/>
@@ -17428,39 +17435,31 @@
       <c r="BU145" s="1"/>
       <c r="BV145" s="1"/>
       <c r="BW145" s="1"/>
-      <c r="BX145" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BY145" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="BZ145" t="s">
-        <v>340</v>
-      </c>
-      <c r="CA145" s="1" t="s">
-        <v>341</v>
-      </c>
+      <c r="BX145" s="1"/>
+      <c r="BY145" s="1"/>
+      <c r="BZ145" s="1"/>
+      <c r="CA145" s="1"/>
       <c r="CB145" s="1"/>
       <c r="CC145" s="1"/>
       <c r="CD145" s="1"/>
       <c r="CE145" s="1"/>
       <c r="CF145" s="1"/>
       <c r="CG145" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="146" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>135</v>
+        <v>334</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C146" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D146" s="27" t="s">
-        <v>2</v>
+      <c r="C146" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="D146" s="26" t="s">
+        <v>359</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -17527,25 +17526,26 @@
       <c r="AY146" s="1"/>
       <c r="AZ146" s="1"/>
       <c r="BA146" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BB146" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD146" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE146" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF146" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="BB146" s="1"/>
+      <c r="BC146" s="1"/>
+      <c r="BD146" s="1"/>
+      <c r="BE146" s="1"/>
+      <c r="BF146" s="1"/>
       <c r="BG146" s="1"/>
-      <c r="BH146" s="1"/>
-      <c r="BI146" s="1"/>
-      <c r="BJ146" s="1"/>
-      <c r="BK146" s="1"/>
+      <c r="BH146" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI146" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="BJ146" t="s">
+        <v>338</v>
+      </c>
+      <c r="BK146" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="BL146" s="1"/>
       <c r="BM146" s="1"/>
       <c r="BN146" s="1"/>
@@ -17558,10 +17558,18 @@
       <c r="BU146" s="1"/>
       <c r="BV146" s="1"/>
       <c r="BW146" s="1"/>
-      <c r="BX146" s="1"/>
-      <c r="BY146" s="1"/>
-      <c r="BZ146" s="1"/>
-      <c r="CA146" s="1"/>
+      <c r="BX146" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BY146" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="BZ146" t="s">
+        <v>340</v>
+      </c>
+      <c r="CA146" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="CB146" s="1"/>
       <c r="CC146" s="1"/>
       <c r="CD146" s="1"/>
@@ -17573,7 +17581,7 @@
     </row>
     <row r="147" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>362</v>
@@ -17649,18 +17657,21 @@
       <c r="AY147" s="1"/>
       <c r="AZ147" s="1"/>
       <c r="BA147" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BB147" s="1"/>
-      <c r="BC147" s="1"/>
-      <c r="BD147" s="1"/>
-      <c r="BE147" s="1"/>
-      <c r="BF147" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG147" s="4" t="s">
-        <v>131</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="BB147" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD147" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE147" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF147" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG147" s="1"/>
       <c r="BH147" s="1"/>
       <c r="BI147" s="1"/>
       <c r="BJ147" s="1"/>
@@ -17687,12 +17698,12 @@
       <c r="CE147" s="1"/>
       <c r="CF147" s="1"/>
       <c r="CG147" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="148" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>362</v>
@@ -17767,25 +17778,23 @@
       <c r="AX148" s="1"/>
       <c r="AY148" s="1"/>
       <c r="AZ148" s="1"/>
-      <c r="BA148" s="1"/>
+      <c r="BA148" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="BB148" s="1"/>
       <c r="BC148" s="1"/>
       <c r="BD148" s="1"/>
       <c r="BE148" s="1"/>
-      <c r="BF148" s="1"/>
-      <c r="BG148" s="1"/>
-      <c r="BH148" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BI148" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BJ148" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK148" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="BF148" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG148" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH148" s="1"/>
+      <c r="BI148" s="1"/>
+      <c r="BJ148" s="1"/>
+      <c r="BK148" s="1"/>
       <c r="BL148" s="1"/>
       <c r="BM148" s="1"/>
       <c r="BN148" s="1"/>
@@ -17813,13 +17822,13 @@
     </row>
     <row r="149" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>326</v>
+      <c r="C149" s="28" t="s">
+        <v>434</v>
       </c>
       <c r="D149" s="27" t="s">
         <v>2</v>
@@ -17888,26 +17897,25 @@
       <c r="AX149" s="1"/>
       <c r="AY149" s="1"/>
       <c r="AZ149" s="1"/>
-      <c r="BA149" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BB149" s="4" t="s">
+      <c r="BA149" s="1"/>
+      <c r="BB149" s="1"/>
+      <c r="BC149" s="1"/>
+      <c r="BD149" s="1"/>
+      <c r="BE149" s="1"/>
+      <c r="BF149" s="1"/>
+      <c r="BG149" s="1"/>
+      <c r="BH149" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI149" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="BD149" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE149" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF149" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="BG149" s="1"/>
-      <c r="BH149" s="1"/>
-      <c r="BI149" s="1"/>
-      <c r="BJ149" s="1"/>
-      <c r="BK149" s="1"/>
+      <c r="BJ149" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="BK149" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="BL149" s="1"/>
       <c r="BM149" s="1"/>
       <c r="BN149" s="1"/>
@@ -17935,7 +17943,7 @@
     </row>
     <row r="150" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>362</v>
@@ -17943,7 +17951,9 @@
       <c r="C150" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D150" s="1"/>
+      <c r="D150" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="2" t="s">
@@ -18009,18 +18019,21 @@
       <c r="AY150" s="1"/>
       <c r="AZ150" s="1"/>
       <c r="BA150" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BB150" s="1"/>
-      <c r="BC150" s="1"/>
-      <c r="BD150" s="1"/>
-      <c r="BE150" s="1"/>
-      <c r="BF150" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG150" s="4" t="s">
-        <v>131</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="BB150" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD150" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE150" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF150" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG150" s="1"/>
       <c r="BH150" s="1"/>
       <c r="BI150" s="1"/>
       <c r="BJ150" s="1"/>
@@ -18052,17 +18065,15 @@
     </row>
     <row r="151" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>385</v>
+        <v>142</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C151" s="26" t="s">
-        <v>386</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="C151" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="2" t="s">
@@ -18147,9 +18158,7 @@
       <c r="BL151" s="1"/>
       <c r="BM151" s="1"/>
       <c r="BN151" s="1"/>
-      <c r="BO151" s="1" t="s">
-        <v>394</v>
-      </c>
+      <c r="BO151" s="1"/>
       <c r="BP151" s="1"/>
       <c r="BQ151" s="1"/>
       <c r="BR151" s="1"/>
@@ -18168,12 +18177,12 @@
       <c r="CE151" s="1"/>
       <c r="CF151" s="1"/>
       <c r="CG151" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="152" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>362</v>
@@ -18265,9 +18274,7 @@
       <c r="BI152" s="1"/>
       <c r="BJ152" s="1"/>
       <c r="BK152" s="1"/>
-      <c r="BL152" s="1" t="s">
-        <v>393</v>
-      </c>
+      <c r="BL152" s="1"/>
       <c r="BM152" s="1"/>
       <c r="BN152" s="1"/>
       <c r="BO152" s="1" t="s">
@@ -18296,7 +18303,7 @@
     </row>
     <row r="153" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>362</v>
@@ -18393,7 +18400,9 @@
       </c>
       <c r="BM153" s="1"/>
       <c r="BN153" s="1"/>
-      <c r="BO153" s="1"/>
+      <c r="BO153" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="BP153" s="1"/>
       <c r="BQ153" s="1"/>
       <c r="BR153" s="1"/>
@@ -18417,16 +18426,16 @@
     </row>
     <row r="154" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>143</v>
+        <v>397</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D154" s="27" t="s">
-        <v>2</v>
+      <c r="C154" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -18492,26 +18501,26 @@
       <c r="AX154" s="1"/>
       <c r="AY154" s="1"/>
       <c r="AZ154" s="1"/>
-      <c r="BA154" s="1"/>
+      <c r="BA154" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="BB154" s="1"/>
       <c r="BC154" s="1"/>
       <c r="BD154" s="1"/>
       <c r="BE154" s="1"/>
-      <c r="BF154" s="1"/>
-      <c r="BG154" s="1"/>
-      <c r="BH154" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BI154" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BJ154" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK154" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="BL154" s="1"/>
+      <c r="BF154" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG154" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH154" s="1"/>
+      <c r="BI154" s="1"/>
+      <c r="BJ154" s="1"/>
+      <c r="BK154" s="1"/>
+      <c r="BL154" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="BM154" s="1"/>
       <c r="BN154" s="1"/>
       <c r="BO154" s="1"/>
@@ -18533,26 +18542,24 @@
       <c r="CE154" s="1"/>
       <c r="CF154" s="1"/>
       <c r="CG154" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="155" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C155" s="26" t="s">
-        <v>464</v>
+      <c r="C155" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="D155" s="27" t="s">
         <v>2</v>
       </c>
       <c r="E155" s="1"/>
-      <c r="F155" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="F155" s="1"/>
       <c r="G155" s="2" t="s">
         <v>52</v>
       </c>
@@ -18584,9 +18591,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
-      <c r="V155" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="V155" s="1"/>
       <c r="W155" s="1"/>
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
@@ -18597,19 +18602,13 @@
       <c r="AD155" s="1"/>
       <c r="AE155" s="1"/>
       <c r="AF155" s="1"/>
-      <c r="AG155" s="1" t="s">
-        <v>424</v>
-      </c>
+      <c r="AG155" s="1"/>
       <c r="AH155" s="1"/>
-      <c r="AI155" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AI155" s="1"/>
       <c r="AJ155" s="1"/>
       <c r="AK155" s="1"/>
       <c r="AL155" s="1"/>
-      <c r="AM155" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="AM155" s="1"/>
       <c r="AN155" s="1"/>
       <c r="AO155" s="1"/>
       <c r="AP155" s="1"/>
@@ -18623,26 +18622,25 @@
       <c r="AX155" s="1"/>
       <c r="AY155" s="1"/>
       <c r="AZ155" s="1"/>
-      <c r="BA155" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BB155" s="4" t="s">
+      <c r="BA155" s="1"/>
+      <c r="BB155" s="1"/>
+      <c r="BC155" s="1"/>
+      <c r="BD155" s="1"/>
+      <c r="BE155" s="1"/>
+      <c r="BF155" s="1"/>
+      <c r="BG155" s="1"/>
+      <c r="BH155" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI155" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="BD155" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE155" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF155" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BG155" s="1"/>
-      <c r="BH155" s="1"/>
-      <c r="BI155" s="1"/>
-      <c r="BJ155" s="1"/>
-      <c r="BK155" s="1"/>
+      <c r="BJ155" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="BK155" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="BL155" s="1"/>
       <c r="BM155" s="1"/>
       <c r="BN155" s="1"/>
@@ -18670,13 +18668,13 @@
     </row>
     <row r="156" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="D156" s="27" t="s">
         <v>2</v>
@@ -18756,18 +18754,21 @@
       <c r="AY156" s="1"/>
       <c r="AZ156" s="1"/>
       <c r="BA156" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BB156" s="1"/>
-      <c r="BC156" s="1"/>
-      <c r="BD156" s="1"/>
-      <c r="BE156" s="1"/>
-      <c r="BF156" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG156" s="4" t="s">
-        <v>146</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="BB156" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD156" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE156" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF156" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG156" s="1"/>
       <c r="BH156" s="1"/>
       <c r="BI156" s="1"/>
       <c r="BJ156" s="1"/>
@@ -18799,13 +18800,13 @@
     </row>
     <row r="157" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="D157" s="27" t="s">
         <v>2</v>
@@ -18884,25 +18885,23 @@
       <c r="AX157" s="1"/>
       <c r="AY157" s="1"/>
       <c r="AZ157" s="1"/>
-      <c r="BA157" s="1"/>
+      <c r="BA157" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="BB157" s="1"/>
       <c r="BC157" s="1"/>
       <c r="BD157" s="1"/>
       <c r="BE157" s="1"/>
-      <c r="BF157" s="1"/>
-      <c r="BG157" s="1"/>
-      <c r="BH157" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BI157" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BJ157" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK157" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="BF157" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG157" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH157" s="1"/>
+      <c r="BI157" s="1"/>
+      <c r="BJ157" s="1"/>
+      <c r="BK157" s="1"/>
       <c r="BL157" s="1"/>
       <c r="BM157" s="1"/>
       <c r="BN157" s="1"/>
@@ -18925,18 +18924,18 @@
       <c r="CE157" s="1"/>
       <c r="CF157" s="1"/>
       <c r="CG157" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="158" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>309</v>
+        <v>148</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="D158" s="27" t="s">
         <v>2</v>
@@ -19016,15 +19015,24 @@
       <c r="AY158" s="1"/>
       <c r="AZ158" s="1"/>
       <c r="BA158" s="1"/>
-      <c r="BB158" s="4"/>
-      <c r="BD158" s="2"/>
-      <c r="BE158" s="3"/>
-      <c r="BF158" s="2"/>
+      <c r="BB158" s="1"/>
+      <c r="BC158" s="1"/>
+      <c r="BD158" s="1"/>
+      <c r="BE158" s="1"/>
+      <c r="BF158" s="1"/>
       <c r="BG158" s="1"/>
-      <c r="BH158" s="1"/>
-      <c r="BI158" s="1"/>
-      <c r="BJ158" s="1"/>
-      <c r="BK158" s="1"/>
+      <c r="BH158" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BI158" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ158" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="BK158" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="BL158" s="1"/>
       <c r="BM158" s="1"/>
       <c r="BN158" s="1"/>
@@ -19047,36 +19055,60 @@
       <c r="CE158" s="1"/>
       <c r="CF158" s="1"/>
       <c r="CG158" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="159" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A159" s="9" t="s">
-        <v>237</v>
+      <c r="A159" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
+      <c r="C159" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="D159" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
+      <c r="F159" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
-      <c r="M159" s="1"/>
-      <c r="N159" s="1"/>
+      <c r="J159" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="K159" t="s">
+        <v>1</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M159" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="O159" s="1"/>
-      <c r="P159" s="1"/>
+      <c r="P159" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
-      <c r="V159" s="1"/>
+      <c r="V159" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
@@ -19087,13 +19119,19 @@
       <c r="AD159" s="1"/>
       <c r="AE159" s="1"/>
       <c r="AF159" s="1"/>
-      <c r="AG159" s="1"/>
+      <c r="AG159" s="1" t="s">
+        <v>424</v>
+      </c>
       <c r="AH159" s="1"/>
-      <c r="AI159" s="1"/>
+      <c r="AI159" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ159" s="1"/>
       <c r="AK159" s="1"/>
       <c r="AL159" s="1"/>
-      <c r="AM159" s="1"/>
+      <c r="AM159" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AN159" s="1"/>
       <c r="AO159" s="1"/>
       <c r="AP159" s="1"/>
@@ -19108,14 +19146,13 @@
       <c r="AY159" s="1"/>
       <c r="AZ159" s="1"/>
       <c r="BA159" s="1"/>
-      <c r="BB159" s="1"/>
-      <c r="BC159" s="1"/>
-      <c r="BD159" s="1"/>
-      <c r="BE159" s="1"/>
-      <c r="BF159" s="1"/>
+      <c r="BB159" s="4"/>
+      <c r="BD159" s="2"/>
+      <c r="BE159" s="3"/>
+      <c r="BF159" s="2"/>
       <c r="BG159" s="1"/>
       <c r="BH159" s="1"/>
-      <c r="BI159" s="11"/>
+      <c r="BI159" s="1"/>
       <c r="BJ159" s="1"/>
       <c r="BK159" s="1"/>
       <c r="BL159" s="1"/>
@@ -19139,66 +19176,36 @@
       <c r="CD159" s="1"/>
       <c r="CE159" s="1"/>
       <c r="CF159" s="1"/>
-      <c r="CG159" s="1"/>
+      <c r="CG159" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="160" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>245</v>
+      <c r="A160" s="9" t="s">
+        <v>237</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C160" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="D160" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="J160" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="K160" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="L160" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="M160" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N160" s="1" t="s">
-        <v>232</v>
-      </c>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
       <c r="O160" s="1"/>
-      <c r="P160" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q160" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="R160" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="S160" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="T160" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="U160" s="1" t="s">
-        <v>243</v>
-      </c>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+      <c r="T160" s="1"/>
+      <c r="U160" s="1"/>
       <c r="V160" s="1"/>
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
@@ -19210,9 +19217,7 @@
       <c r="AD160" s="1"/>
       <c r="AE160" s="1"/>
       <c r="AF160" s="1"/>
-      <c r="AG160" s="1" t="s">
-        <v>348</v>
-      </c>
+      <c r="AG160" s="1"/>
       <c r="AH160" s="1"/>
       <c r="AI160" s="1"/>
       <c r="AJ160" s="1"/>
@@ -19232,21 +19237,12 @@
       <c r="AX160" s="1"/>
       <c r="AY160" s="1"/>
       <c r="AZ160" s="1"/>
-      <c r="BA160" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BB160" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD160" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE160" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF160" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="BA160" s="1"/>
+      <c r="BB160" s="1"/>
+      <c r="BC160" s="1"/>
+      <c r="BD160" s="1"/>
+      <c r="BE160" s="1"/>
+      <c r="BF160" s="1"/>
       <c r="BG160" s="1"/>
       <c r="BH160" s="1"/>
       <c r="BI160" s="11"/>
@@ -19272,14 +19268,12 @@
       <c r="CC160" s="1"/>
       <c r="CD160" s="1"/>
       <c r="CE160" s="1"/>
-      <c r="CF160" s="18"/>
-      <c r="CG160" t="s">
-        <v>361</v>
-      </c>
+      <c r="CF160" s="1"/>
+      <c r="CG160" s="1"/>
     </row>
     <row r="161" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>362</v>
@@ -19293,22 +19287,22 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3" t="s">
-        <v>5</v>
+        <v>238</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>285</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>377</v>
+        <v>312</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="M161" s="2" t="s">
         <v>27</v>
@@ -19347,7 +19341,7 @@
       <c r="AE161" s="1"/>
       <c r="AF161" s="1"/>
       <c r="AG161" s="1" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="AH161" s="1"/>
       <c r="AI161" s="1"/>
@@ -19410,37 +19404,41 @@
       <c r="CE161" s="1"/>
       <c r="CF161" s="18"/>
       <c r="CG161" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="162" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C162" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D162" s="11" t="s">
         <v>359</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="1"/>
+      <c r="G162" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="I162" s="1" t="s">
         <v>285</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="M162" s="2" t="s">
         <v>27</v>
@@ -19479,7 +19477,7 @@
       <c r="AE162" s="1"/>
       <c r="AF162" s="1"/>
       <c r="AG162" s="1" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="AH162" s="1"/>
       <c r="AI162" s="1"/>
@@ -19500,12 +19498,21 @@
       <c r="AX162" s="1"/>
       <c r="AY162" s="1"/>
       <c r="AZ162" s="1"/>
-      <c r="BA162" s="1"/>
-      <c r="BB162" s="1"/>
-      <c r="BC162" s="12"/>
-      <c r="BD162" s="1"/>
-      <c r="BE162" s="1"/>
-      <c r="BF162" s="1"/>
+      <c r="BA162" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BB162" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD162" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE162" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF162" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="BG162" s="1"/>
       <c r="BH162" s="1"/>
       <c r="BI162" s="11"/>
@@ -19538,44 +19545,38 @@
     </row>
     <row r="163" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C163" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="D163" s="27" t="s">
-        <v>2</v>
+      <c r="C163" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>359</v>
       </c>
       <c r="E163" s="3"/>
-      <c r="F163" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="1"/>
       <c r="I163" s="1" t="s">
         <v>285</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>371</v>
+        <v>312</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>367</v>
+        <v>27</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>368</v>
+        <v>232</v>
       </c>
       <c r="O163" s="1"/>
       <c r="P163" s="1" t="s">
@@ -19608,7 +19609,7 @@
       <c r="AE163" s="1"/>
       <c r="AF163" s="1"/>
       <c r="AG163" s="1" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="AH163" s="1"/>
       <c r="AI163" s="1"/>
@@ -19666,20 +19667,22 @@
       </c>
     </row>
     <row r="164" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A164" s="7" t="s">
-        <v>249</v>
+      <c r="A164" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C164" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>359</v>
+      <c r="C164" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="D164" s="27" t="s">
+        <v>2</v>
       </c>
       <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
+      <c r="F164" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="G164" s="3" t="s">
         <v>238</v>
       </c>
@@ -19690,19 +19693,19 @@
         <v>285</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>313</v>
+        <v>370</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>27</v>
+        <v>367</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>232</v>
+        <v>368</v>
       </c>
       <c r="O164" s="1"/>
       <c r="P164" s="1" t="s">
@@ -19735,7 +19738,7 @@
       <c r="AE164" s="1"/>
       <c r="AF164" s="1"/>
       <c r="AG164" s="1" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="AH164" s="1"/>
       <c r="AI164" s="1"/>
@@ -19756,21 +19759,12 @@
       <c r="AX164" s="1"/>
       <c r="AY164" s="1"/>
       <c r="AZ164" s="1"/>
-      <c r="BA164" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BB164" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD164" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE164" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF164" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="BA164" s="1"/>
+      <c r="BB164" s="1"/>
+      <c r="BC164" s="12"/>
+      <c r="BD164" s="1"/>
+      <c r="BE164" s="1"/>
+      <c r="BF164" s="1"/>
       <c r="BG164" s="1"/>
       <c r="BH164" s="1"/>
       <c r="BI164" s="11"/>
@@ -19803,21 +19797,25 @@
     </row>
     <row r="165" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C165" s="28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>359</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="1"/>
+      <c r="G165" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="I165" s="1" t="s">
         <v>285</v>
       </c>
@@ -19935,13 +19933,13 @@
     </row>
     <row r="166" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C166" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D166" s="11" t="s">
         <v>359</v>
@@ -20067,38 +20065,32 @@
     </row>
     <row r="167" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C167" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="D167" s="27" t="s">
-        <v>2</v>
+      <c r="C167" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>359</v>
       </c>
       <c r="E167" s="3"/>
-      <c r="F167" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="1"/>
       <c r="I167" s="1" t="s">
         <v>285</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>241</v>
+        <v>313</v>
       </c>
       <c r="M167" s="2" t="s">
         <v>27</v>
@@ -20137,7 +20129,7 @@
       <c r="AE167" s="1"/>
       <c r="AF167" s="1"/>
       <c r="AG167" s="1" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="AH167" s="1"/>
       <c r="AI167" s="1"/>
@@ -20189,14 +20181,14 @@
       <c r="BT167" s="1"/>
       <c r="BU167" s="1"/>
       <c r="BV167" s="1"/>
-      <c r="BW167" s="12"/>
-      <c r="BX167" s="12"/>
-      <c r="BY167" s="12"/>
-      <c r="BZ167" s="12"/>
-      <c r="CA167" s="12"/>
-      <c r="CB167" s="12"/>
-      <c r="CC167" s="12"/>
-      <c r="CD167" s="12"/>
+      <c r="BW167" s="1"/>
+      <c r="BX167" s="1"/>
+      <c r="BY167" s="1"/>
+      <c r="BZ167" s="1"/>
+      <c r="CA167" s="1"/>
+      <c r="CB167" s="1"/>
+      <c r="CC167" s="1"/>
+      <c r="CD167" s="1"/>
       <c r="CE167" s="1"/>
       <c r="CF167" s="18"/>
       <c r="CG167" t="s">
@@ -20205,38 +20197,64 @@
     </row>
     <row r="168" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C168" s="28" t="s">
-        <v>434</v>
+      <c r="C168" s="26" t="s">
+        <v>439</v>
       </c>
       <c r="D168" s="27" t="s">
         <v>2</v>
       </c>
       <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
+      <c r="F168" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="G168" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H168" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
-      <c r="K168" s="2"/>
-      <c r="L168" s="1"/>
-      <c r="M168" s="2"/>
-      <c r="N168" s="1"/>
+        <v>238</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M168" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="O168" s="1"/>
-      <c r="P168" s="1"/>
-      <c r="Q168" s="11"/>
-      <c r="R168" s="10"/>
-      <c r="S168" s="10"/>
-      <c r="T168" s="1"/>
-      <c r="U168" s="1"/>
+      <c r="P168" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q168" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="R168" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="S168" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="T168" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="U168" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="V168" s="1"/>
       <c r="W168" s="1"/>
       <c r="X168" s="1"/>
@@ -20248,7 +20266,9 @@
       <c r="AD168" s="1"/>
       <c r="AE168" s="1"/>
       <c r="AF168" s="1"/>
-      <c r="AG168" s="1"/>
+      <c r="AG168" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AH168" s="1"/>
       <c r="AI168" s="1"/>
       <c r="AJ168" s="1"/>
@@ -20268,18 +20288,24 @@
       <c r="AX168" s="1"/>
       <c r="AY168" s="1"/>
       <c r="AZ168" s="1"/>
-      <c r="BA168" s="1"/>
-      <c r="BB168" s="4"/>
-      <c r="BD168" s="2"/>
-      <c r="BE168" s="3"/>
-      <c r="BF168" s="2"/>
+      <c r="BA168" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BB168" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD168" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE168" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF168" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="BG168" s="1"/>
-      <c r="BH168" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="BI168" s="11" t="s">
-        <v>349</v>
-      </c>
+      <c r="BH168" s="1"/>
+      <c r="BI168" s="11"/>
       <c r="BJ168" s="1"/>
       <c r="BK168" s="1"/>
       <c r="BL168" s="1"/>
@@ -20304,18 +20330,18 @@
       <c r="CE168" s="1"/>
       <c r="CF168" s="18"/>
       <c r="CG168" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="169" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>326</v>
+      <c r="C169" s="28" t="s">
+        <v>434</v>
       </c>
       <c r="D169" s="27" t="s">
         <v>2</v>
@@ -20329,28 +20355,16 @@
         <v>58</v>
       </c>
       <c r="I169" s="1"/>
-      <c r="J169" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="K169" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L169" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M169" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N169" s="1" t="s">
-        <v>232</v>
-      </c>
+      <c r="J169" s="1"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="1"/>
       <c r="O169" s="1"/>
-      <c r="P169" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="P169" s="1"/>
       <c r="Q169" s="11"/>
-      <c r="R169" s="1"/>
-      <c r="S169" s="1"/>
+      <c r="R169" s="10"/>
+      <c r="S169" s="10"/>
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
       <c r="V169" s="1"/>
@@ -20384,9 +20398,7 @@
       <c r="AX169" s="1"/>
       <c r="AY169" s="1"/>
       <c r="AZ169" s="1"/>
-      <c r="BA169" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="BA169" s="1"/>
       <c r="BB169" s="4"/>
       <c r="BD169" s="2"/>
       <c r="BE169" s="3"/>
@@ -20396,14 +20408,10 @@
         <v>282</v>
       </c>
       <c r="BI169" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="BJ169" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="BK169" s="1" t="s">
-        <v>350</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="BJ169" s="1"/>
+      <c r="BK169" s="1"/>
       <c r="BL169" s="1"/>
       <c r="BM169" s="1"/>
       <c r="BN169" s="1"/>
@@ -20429,9 +20437,9 @@
         <v>361</v>
       </c>
     </row>
-    <row ht="30" r="170" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>362</v>
@@ -20444,39 +20452,37 @@
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="G170" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I170" s="1"/>
       <c r="J170" s="2" t="s">
-        <v>289</v>
+        <v>424</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>290</v>
+        <v>1</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="M170" s="2"/>
-      <c r="N170" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="M170" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="O170" s="1"/>
-      <c r="P170" s="1"/>
-      <c r="Q170" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="R170" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="S170" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="T170" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="U170" s="1" t="s">
-        <v>293</v>
-      </c>
+      <c r="P170" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q170" s="11"/>
+      <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
+      <c r="T170" s="1"/>
+      <c r="U170" s="1"/>
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
@@ -20488,9 +20494,7 @@
       <c r="AD170" s="1"/>
       <c r="AE170" s="1"/>
       <c r="AF170" s="1"/>
-      <c r="AG170" s="1" t="s">
-        <v>286</v>
-      </c>
+      <c r="AG170" s="1"/>
       <c r="AH170" s="1"/>
       <c r="AI170" s="1"/>
       <c r="AJ170" s="1"/>
@@ -20510,20 +20514,28 @@
       <c r="AX170" s="1"/>
       <c r="AY170" s="1"/>
       <c r="AZ170" s="1"/>
-      <c r="BA170" s="1"/>
+      <c r="BA170" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="BB170" s="4"/>
       <c r="BD170" s="2"/>
       <c r="BE170" s="3"/>
       <c r="BF170" s="2"/>
       <c r="BG170" s="1"/>
-      <c r="BH170" s="1"/>
-      <c r="BI170" s="11"/>
-      <c r="BJ170" s="1"/>
-      <c r="BK170" s="1"/>
+      <c r="BH170" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BI170" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="BJ170" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="BK170" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="BL170" s="1"/>
-      <c r="BM170" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="BM170" s="1"/>
       <c r="BN170" s="1"/>
       <c r="BO170" s="1"/>
       <c r="BP170" s="1"/>
@@ -20548,51 +20560,53 @@
       </c>
     </row>
     <row ht="30" r="171" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>440</v>
+      <c r="A171" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D171" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D171" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H171" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="I171" s="1"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="J171" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K171" t="s">
-        <v>1</v>
+        <v>289</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M171" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N171" s="1" t="s">
-        <v>232</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M171" s="2"/>
+      <c r="N171" s="1"/>
       <c r="O171" s="1"/>
-      <c r="P171" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q171" s="1"/>
-      <c r="R171" s="1"/>
-      <c r="S171" s="1"/>
-      <c r="T171" s="1"/>
-      <c r="U171" s="1"/>
+      <c r="P171" s="1"/>
+      <c r="Q171" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="R171" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="S171" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="T171" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="U171" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
@@ -20604,7 +20618,9 @@
       <c r="AD171" s="1"/>
       <c r="AE171" s="1"/>
       <c r="AF171" s="1"/>
-      <c r="AG171" s="1"/>
+      <c r="AG171" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="AH171" s="1"/>
       <c r="AI171" s="1"/>
       <c r="AJ171" s="1"/>
@@ -20624,25 +20640,20 @@
       <c r="AX171" s="1"/>
       <c r="AY171" s="1"/>
       <c r="AZ171" s="1"/>
-      <c r="BA171" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="BB171" s="1"/>
-      <c r="BC171" s="1"/>
-      <c r="BD171" s="1"/>
-      <c r="BE171" s="1"/>
-      <c r="BF171" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="BG171" s="4" t="s">
-        <v>443</v>
-      </c>
+      <c r="BA171" s="1"/>
+      <c r="BB171" s="4"/>
+      <c r="BD171" s="2"/>
+      <c r="BE171" s="3"/>
+      <c r="BF171" s="2"/>
+      <c r="BG171" s="1"/>
       <c r="BH171" s="1"/>
-      <c r="BI171" s="1"/>
+      <c r="BI171" s="11"/>
       <c r="BJ171" s="1"/>
       <c r="BK171" s="1"/>
       <c r="BL171" s="1"/>
-      <c r="BM171" s="1"/>
+      <c r="BM171" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="BN171" s="1"/>
       <c r="BO171" s="1"/>
       <c r="BP171" s="1"/>
@@ -20652,23 +20663,23 @@
       <c r="BT171" s="1"/>
       <c r="BU171" s="1"/>
       <c r="BV171" s="1"/>
-      <c r="BW171" s="1"/>
-      <c r="BX171" s="1"/>
-      <c r="BY171" s="1"/>
-      <c r="BZ171" s="1"/>
-      <c r="CA171" s="1"/>
-      <c r="CB171" s="1"/>
-      <c r="CC171" s="1"/>
-      <c r="CD171" s="1"/>
+      <c r="BW171" s="12"/>
+      <c r="BX171" s="12"/>
+      <c r="BY171" s="12"/>
+      <c r="BZ171" s="12"/>
+      <c r="CA171" s="12"/>
+      <c r="CB171" s="12"/>
+      <c r="CC171" s="12"/>
+      <c r="CD171" s="12"/>
       <c r="CE171" s="1"/>
-      <c r="CF171" s="1"/>
+      <c r="CF171" s="18"/>
       <c r="CG171" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row ht="30" r="172" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>362</v>
@@ -20744,17 +20755,17 @@
       <c r="AY172" s="1"/>
       <c r="AZ172" s="1"/>
       <c r="BA172" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="BB172" s="1"/>
       <c r="BC172" s="1"/>
       <c r="BD172" s="1"/>
       <c r="BE172" s="1"/>
       <c r="BF172" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="BG172" s="4" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="BH172" s="1"/>
       <c r="BI172" s="1"/>
@@ -20787,7 +20798,7 @@
     </row>
     <row ht="30" r="173" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>362</v>
@@ -20863,17 +20874,17 @@
       <c r="AY173" s="1"/>
       <c r="AZ173" s="1"/>
       <c r="BA173" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="BB173" s="1"/>
       <c r="BC173" s="1"/>
       <c r="BD173" s="1"/>
       <c r="BE173" s="1"/>
       <c r="BF173" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="BG173" s="4" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="BH173" s="1"/>
       <c r="BI173" s="1"/>
@@ -20904,9 +20915,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="174" spans="1:85" x14ac:dyDescent="0.25">
+    <row ht="30" r="174" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>362</v>
@@ -20982,17 +20993,17 @@
       <c r="AY174" s="1"/>
       <c r="AZ174" s="1"/>
       <c r="BA174" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="BB174" s="1"/>
       <c r="BC174" s="1"/>
       <c r="BD174" s="1"/>
       <c r="BE174" s="1"/>
       <c r="BF174" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG174" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="BG174" s="4" t="s">
-        <v>443</v>
       </c>
       <c r="BH174" s="1"/>
       <c r="BI174" s="1"/>
@@ -21025,7 +21036,7 @@
     </row>
     <row r="175" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>362</v>
@@ -21101,17 +21112,17 @@
       <c r="AY175" s="1"/>
       <c r="AZ175" s="1"/>
       <c r="BA175" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="BB175" s="1"/>
       <c r="BC175" s="1"/>
       <c r="BD175" s="1"/>
       <c r="BE175" s="1"/>
       <c r="BF175" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="BG175" s="4" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="BH175" s="1"/>
       <c r="BI175" s="1"/>
@@ -21144,7 +21155,7 @@
     </row>
     <row r="176" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>362</v>
@@ -21220,17 +21231,17 @@
       <c r="AY176" s="1"/>
       <c r="AZ176" s="1"/>
       <c r="BA176" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="BB176" s="1"/>
       <c r="BC176" s="1"/>
       <c r="BD176" s="1"/>
       <c r="BE176" s="1"/>
       <c r="BF176" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="BG176" s="4" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="BH176" s="1"/>
       <c r="BI176" s="1"/>
@@ -21261,17 +21272,19 @@
         <v>363</v>
       </c>
     </row>
-    <row ht="30" r="177" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D177" s="1"/>
+        <v>434</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="2" t="s">
@@ -21337,17 +21350,17 @@
       <c r="AY177" s="1"/>
       <c r="AZ177" s="1"/>
       <c r="BA177" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="BB177" s="1"/>
       <c r="BC177" s="1"/>
       <c r="BD177" s="1"/>
       <c r="BE177" s="1"/>
       <c r="BF177" s="1" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="BG177" s="4" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="BH177" s="1"/>
       <c r="BI177" s="1"/>
@@ -21380,7 +21393,7 @@
     </row>
     <row ht="30" r="178" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>362</v>
@@ -21454,17 +21467,17 @@
       <c r="AY178" s="1"/>
       <c r="AZ178" s="1"/>
       <c r="BA178" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="BB178" s="1"/>
       <c r="BC178" s="1"/>
       <c r="BD178" s="1"/>
       <c r="BE178" s="1"/>
       <c r="BF178" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="BG178" s="4" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="BH178" s="1"/>
       <c r="BI178" s="1"/>
@@ -21497,7 +21510,7 @@
     </row>
     <row ht="30" r="179" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>362</v>
@@ -21571,17 +21584,17 @@
       <c r="AY179" s="1"/>
       <c r="AZ179" s="1"/>
       <c r="BA179" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="BB179" s="1"/>
       <c r="BC179" s="1"/>
       <c r="BD179" s="1"/>
       <c r="BE179" s="1"/>
       <c r="BF179" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="BG179" s="4" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="BH179" s="1"/>
       <c r="BI179" s="1"/>
@@ -21612,9 +21625,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="180" spans="1:85" x14ac:dyDescent="0.25">
+    <row ht="30" r="180" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>362</v>
@@ -21688,17 +21701,17 @@
       <c r="AY180" s="1"/>
       <c r="AZ180" s="1"/>
       <c r="BA180" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="BB180" s="1"/>
       <c r="BC180" s="1"/>
       <c r="BD180" s="1"/>
       <c r="BE180" s="1"/>
       <c r="BF180" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="BG180" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="BG180" s="4" t="s">
-        <v>443</v>
       </c>
       <c r="BH180" s="1"/>
       <c r="BI180" s="1"/>
@@ -21731,7 +21744,7 @@
     </row>
     <row r="181" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>362</v>
@@ -21805,17 +21818,17 @@
       <c r="AY181" s="1"/>
       <c r="AZ181" s="1"/>
       <c r="BA181" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="BB181" s="1"/>
       <c r="BC181" s="1"/>
       <c r="BD181" s="1"/>
       <c r="BE181" s="1"/>
       <c r="BF181" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="BG181" s="4" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="BH181" s="1"/>
       <c r="BI181" s="1"/>
@@ -21848,7 +21861,7 @@
     </row>
     <row r="182" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>362</v>
@@ -21922,17 +21935,17 @@
       <c r="AY182" s="1"/>
       <c r="AZ182" s="1"/>
       <c r="BA182" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="BB182" s="1"/>
       <c r="BC182" s="1"/>
       <c r="BD182" s="1"/>
       <c r="BE182" s="1"/>
       <c r="BF182" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="BG182" s="4" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="BH182" s="1"/>
       <c r="BI182" s="1"/>
@@ -21960,22 +21973,20 @@
       <c r="CE182" s="1"/>
       <c r="CF182" s="1"/>
       <c r="CG182" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="183" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="2" t="s">
@@ -22041,14 +22052,18 @@
       <c r="AY183" s="1"/>
       <c r="AZ183" s="1"/>
       <c r="BA183" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="BB183" s="1"/>
       <c r="BC183" s="1"/>
       <c r="BD183" s="1"/>
       <c r="BE183" s="1"/>
-      <c r="BF183" s="1"/>
-      <c r="BG183" s="4"/>
+      <c r="BF183" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="BG183" s="4" t="s">
+        <v>449</v>
+      </c>
       <c r="BH183" s="1"/>
       <c r="BI183" s="1"/>
       <c r="BJ183" s="1"/>
@@ -22075,20 +22090,22 @@
       <c r="CE183" s="1"/>
       <c r="CF183" s="1"/>
       <c r="CG183" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="184" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D184" s="1"/>
+        <v>434</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="2" t="s">
@@ -22154,15 +22171,13 @@
       <c r="AY184" s="1"/>
       <c r="AZ184" s="1"/>
       <c r="BA184" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="BB184" s="1"/>
       <c r="BC184" s="1"/>
       <c r="BD184" s="1"/>
       <c r="BE184" s="1"/>
-      <c r="BF184" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="BF184" s="1"/>
       <c r="BG184" s="4"/>
       <c r="BH184" s="1"/>
       <c r="BI184" s="1"/>
@@ -22194,22 +22209,44 @@
       </c>
     </row>
     <row r="185" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A185" s="7"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
+      <c r="A185" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
+      <c r="G185" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
-      <c r="K185" s="1"/>
-      <c r="L185" s="1"/>
-      <c r="M185" s="1"/>
-      <c r="N185" s="1"/>
+      <c r="J185" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K185" t="s">
+        <v>1</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M185" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="O185" s="1"/>
-      <c r="P185" s="1"/>
+      <c r="P185" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
@@ -22246,15 +22283,19 @@
       <c r="AX185" s="1"/>
       <c r="AY185" s="1"/>
       <c r="AZ185" s="1"/>
-      <c r="BA185" s="1"/>
+      <c r="BA185" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="BB185" s="1"/>
       <c r="BC185" s="1"/>
       <c r="BD185" s="1"/>
       <c r="BE185" s="1"/>
-      <c r="BF185" s="1"/>
-      <c r="BG185" s="1"/>
+      <c r="BF185" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG185" s="4"/>
       <c r="BH185" s="1"/>
-      <c r="BI185" s="11"/>
+      <c r="BI185" s="1"/>
       <c r="BJ185" s="1"/>
       <c r="BK185" s="1"/>
       <c r="BL185" s="1"/>
@@ -22278,25 +22319,49 @@
       <c r="CD185" s="1"/>
       <c r="CE185" s="1"/>
       <c r="CF185" s="1"/>
-      <c r="CG185" s="1"/>
+      <c r="CG185" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="186" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A186" s="7"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
+      <c r="A186" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
+      <c r="G186" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
-      <c r="K186" s="1"/>
-      <c r="L186" s="1"/>
-      <c r="M186" s="1"/>
-      <c r="N186" s="1"/>
+      <c r="J186" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K186" t="s">
+        <v>1</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M186" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N186" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="O186" s="1"/>
-      <c r="P186" s="1"/>
+      <c r="P186" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
@@ -22333,15 +22398,21 @@
       <c r="AX186" s="1"/>
       <c r="AY186" s="1"/>
       <c r="AZ186" s="1"/>
-      <c r="BA186" s="1"/>
+      <c r="BA186" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="BB186" s="1"/>
       <c r="BC186" s="1"/>
       <c r="BD186" s="1"/>
       <c r="BE186" s="1"/>
-      <c r="BF186" s="1"/>
-      <c r="BG186" s="1"/>
+      <c r="BF186" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG186" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="BH186" s="1"/>
-      <c r="BI186" s="11"/>
+      <c r="BI186" s="1"/>
       <c r="BJ186" s="1"/>
       <c r="BK186" s="1"/>
       <c r="BL186" s="1"/>
@@ -22365,17 +22436,27 @@
       <c r="CD186" s="1"/>
       <c r="CE186" s="1"/>
       <c r="CF186" s="1"/>
-      <c r="CG186" s="1"/>
+      <c r="CG186" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="187" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A187" s="7"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
+      <c r="A187" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C187" s="11"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
+      <c r="G187" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>470</v>
+      </c>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
@@ -22451,26 +22532,50 @@
       <c r="CC187" s="1"/>
       <c r="CD187" s="1"/>
       <c r="CE187" s="1"/>
-      <c r="CF187" s="1"/>
-      <c r="CG187" s="1"/>
+      <c r="CF187" s="18"/>
+      <c r="CG187" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="188" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A188" s="7"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="11"/>
+      <c r="A188" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
+      <c r="G188" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>470</v>
+      </c>
       <c r="I188" s="1"/>
-      <c r="J188" s="1"/>
-      <c r="K188" s="1"/>
-      <c r="L188" s="1"/>
-      <c r="M188" s="1"/>
-      <c r="N188" s="1"/>
+      <c r="J188" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K188" t="s">
+        <v>1</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M188" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="O188" s="1"/>
-      <c r="P188" s="1"/>
+      <c r="P188" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
       <c r="S188" s="1"/>
@@ -22513,9 +22618,9 @@
       <c r="BD188" s="1"/>
       <c r="BE188" s="1"/>
       <c r="BF188" s="1"/>
-      <c r="BG188" s="1"/>
+      <c r="BG188" s="4"/>
       <c r="BH188" s="1"/>
-      <c r="BI188" s="11"/>
+      <c r="BI188" s="1"/>
       <c r="BJ188" s="1"/>
       <c r="BK188" s="1"/>
       <c r="BL188" s="1"/>
@@ -22539,7 +22644,9 @@
       <c r="CD188" s="1"/>
       <c r="CE188" s="1"/>
       <c r="CF188" s="1"/>
-      <c r="CG188" s="1"/>
+      <c r="CG188" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="189" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
@@ -24282,91 +24389,91 @@
       <c r="CG208" s="1"/>
     </row>
     <row r="209" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A209" s="8"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2"/>
-      <c r="I209" s="2"/>
-      <c r="J209" s="2"/>
-      <c r="K209" s="2"/>
-      <c r="L209" s="2"/>
-      <c r="M209" s="2"/>
-      <c r="N209" s="2"/>
-      <c r="O209" s="2"/>
-      <c r="P209" s="2"/>
-      <c r="Q209" s="2"/>
-      <c r="R209" s="2"/>
-      <c r="S209" s="2"/>
-      <c r="T209" s="2"/>
-      <c r="U209" s="2"/>
-      <c r="V209" s="2"/>
-      <c r="W209" s="2"/>
-      <c r="X209" s="2"/>
-      <c r="Y209" s="2"/>
-      <c r="Z209" s="2"/>
-      <c r="AA209" s="2"/>
-      <c r="AB209" s="2"/>
-      <c r="AC209" s="2"/>
-      <c r="AD209" s="2"/>
-      <c r="AE209" s="2"/>
-      <c r="AF209" s="2"/>
-      <c r="AG209" s="2"/>
-      <c r="AH209" s="2"/>
-      <c r="AI209" s="2"/>
-      <c r="AJ209" s="2"/>
-      <c r="AK209" s="2"/>
-      <c r="AL209" s="2"/>
-      <c r="AM209" s="2"/>
-      <c r="AN209" s="2"/>
-      <c r="AO209" s="2"/>
-      <c r="AP209" s="2"/>
-      <c r="AQ209" s="2"/>
-      <c r="AR209" s="2"/>
-      <c r="AS209" s="2"/>
-      <c r="AT209" s="2"/>
-      <c r="AU209" s="2"/>
-      <c r="AV209" s="2"/>
-      <c r="AW209" s="2"/>
-      <c r="AX209" s="2"/>
-      <c r="AY209" s="2"/>
-      <c r="AZ209" s="2"/>
-      <c r="BA209" s="2"/>
-      <c r="BB209" s="2"/>
-      <c r="BC209" s="2"/>
-      <c r="BD209" s="2"/>
-      <c r="BE209" s="2"/>
-      <c r="BF209" s="2"/>
-      <c r="BG209" s="2"/>
-      <c r="BH209" s="2"/>
-      <c r="BI209" s="3"/>
-      <c r="BJ209" s="2"/>
-      <c r="BK209" s="2"/>
-      <c r="BL209" s="2"/>
-      <c r="BM209" s="2"/>
-      <c r="BN209" s="2"/>
-      <c r="BO209" s="2"/>
-      <c r="BP209" s="2"/>
-      <c r="BQ209" s="2"/>
-      <c r="BR209" s="2"/>
-      <c r="BS209" s="2"/>
-      <c r="BT209" s="2"/>
-      <c r="BU209" s="2"/>
-      <c r="BV209" s="2"/>
-      <c r="BW209" s="2"/>
-      <c r="BX209" s="2"/>
-      <c r="BY209" s="2"/>
-      <c r="BZ209" s="2"/>
-      <c r="CA209" s="2"/>
-      <c r="CB209" s="2"/>
-      <c r="CC209" s="2"/>
-      <c r="CD209" s="2"/>
-      <c r="CE209" s="2"/>
-      <c r="CF209" s="2"/>
-      <c r="CG209" s="2"/>
+      <c r="A209" s="7"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+      <c r="P209" s="1"/>
+      <c r="Q209" s="1"/>
+      <c r="R209" s="1"/>
+      <c r="S209" s="1"/>
+      <c r="T209" s="1"/>
+      <c r="U209" s="1"/>
+      <c r="V209" s="1"/>
+      <c r="W209" s="1"/>
+      <c r="X209" s="1"/>
+      <c r="Y209" s="1"/>
+      <c r="Z209" s="1"/>
+      <c r="AA209" s="1"/>
+      <c r="AB209" s="1"/>
+      <c r="AC209" s="1"/>
+      <c r="AD209" s="1"/>
+      <c r="AE209" s="1"/>
+      <c r="AF209" s="1"/>
+      <c r="AG209" s="1"/>
+      <c r="AH209" s="1"/>
+      <c r="AI209" s="1"/>
+      <c r="AJ209" s="1"/>
+      <c r="AK209" s="1"/>
+      <c r="AL209" s="1"/>
+      <c r="AM209" s="1"/>
+      <c r="AN209" s="1"/>
+      <c r="AO209" s="1"/>
+      <c r="AP209" s="1"/>
+      <c r="AQ209" s="1"/>
+      <c r="AR209" s="1"/>
+      <c r="AS209" s="1"/>
+      <c r="AT209" s="1"/>
+      <c r="AU209" s="1"/>
+      <c r="AV209" s="1"/>
+      <c r="AW209" s="1"/>
+      <c r="AX209" s="1"/>
+      <c r="AY209" s="1"/>
+      <c r="AZ209" s="1"/>
+      <c r="BA209" s="1"/>
+      <c r="BB209" s="1"/>
+      <c r="BC209" s="1"/>
+      <c r="BD209" s="1"/>
+      <c r="BE209" s="1"/>
+      <c r="BF209" s="1"/>
+      <c r="BG209" s="1"/>
+      <c r="BH209" s="1"/>
+      <c r="BI209" s="11"/>
+      <c r="BJ209" s="1"/>
+      <c r="BK209" s="1"/>
+      <c r="BL209" s="1"/>
+      <c r="BM209" s="1"/>
+      <c r="BN209" s="1"/>
+      <c r="BO209" s="1"/>
+      <c r="BP209" s="1"/>
+      <c r="BQ209" s="1"/>
+      <c r="BR209" s="1"/>
+      <c r="BS209" s="1"/>
+      <c r="BT209" s="1"/>
+      <c r="BU209" s="1"/>
+      <c r="BV209" s="1"/>
+      <c r="BW209" s="1"/>
+      <c r="BX209" s="1"/>
+      <c r="BY209" s="1"/>
+      <c r="BZ209" s="1"/>
+      <c r="CA209" s="1"/>
+      <c r="CB209" s="1"/>
+      <c r="CC209" s="1"/>
+      <c r="CD209" s="1"/>
+      <c r="CE209" s="1"/>
+      <c r="CF209" s="1"/>
+      <c r="CG209" s="1"/>
     </row>
     <row r="210" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
@@ -29763,7 +29870,7 @@
       <c r="CG271" s="2"/>
     </row>
     <row r="272" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A272" s="2"/>
+      <c r="A272" s="8"/>
       <c r="B272" s="2"/>
       <c r="C272" s="3"/>
       <c r="D272" s="2"/>
@@ -30632,6 +30739,93 @@
       <c r="CF281" s="2"/>
       <c r="CG281" s="2"/>
     </row>
+    <row r="282" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A282" s="2"/>
+      <c r="B282" s="2"/>
+      <c r="C282" s="3"/>
+      <c r="D282" s="2"/>
+      <c r="E282" s="2"/>
+      <c r="F282" s="2"/>
+      <c r="G282" s="2"/>
+      <c r="H282" s="2"/>
+      <c r="I282" s="2"/>
+      <c r="J282" s="2"/>
+      <c r="K282" s="2"/>
+      <c r="L282" s="2"/>
+      <c r="M282" s="2"/>
+      <c r="N282" s="2"/>
+      <c r="O282" s="2"/>
+      <c r="P282" s="2"/>
+      <c r="Q282" s="2"/>
+      <c r="R282" s="2"/>
+      <c r="S282" s="2"/>
+      <c r="T282" s="2"/>
+      <c r="U282" s="2"/>
+      <c r="V282" s="2"/>
+      <c r="W282" s="2"/>
+      <c r="X282" s="2"/>
+      <c r="Y282" s="2"/>
+      <c r="Z282" s="2"/>
+      <c r="AA282" s="2"/>
+      <c r="AB282" s="2"/>
+      <c r="AC282" s="2"/>
+      <c r="AD282" s="2"/>
+      <c r="AE282" s="2"/>
+      <c r="AF282" s="2"/>
+      <c r="AG282" s="2"/>
+      <c r="AH282" s="2"/>
+      <c r="AI282" s="2"/>
+      <c r="AJ282" s="2"/>
+      <c r="AK282" s="2"/>
+      <c r="AL282" s="2"/>
+      <c r="AM282" s="2"/>
+      <c r="AN282" s="2"/>
+      <c r="AO282" s="2"/>
+      <c r="AP282" s="2"/>
+      <c r="AQ282" s="2"/>
+      <c r="AR282" s="2"/>
+      <c r="AS282" s="2"/>
+      <c r="AT282" s="2"/>
+      <c r="AU282" s="2"/>
+      <c r="AV282" s="2"/>
+      <c r="AW282" s="2"/>
+      <c r="AX282" s="2"/>
+      <c r="AY282" s="2"/>
+      <c r="AZ282" s="2"/>
+      <c r="BA282" s="2"/>
+      <c r="BB282" s="2"/>
+      <c r="BC282" s="2"/>
+      <c r="BD282" s="2"/>
+      <c r="BE282" s="2"/>
+      <c r="BF282" s="2"/>
+      <c r="BG282" s="2"/>
+      <c r="BH282" s="2"/>
+      <c r="BI282" s="3"/>
+      <c r="BJ282" s="2"/>
+      <c r="BK282" s="2"/>
+      <c r="BL282" s="2"/>
+      <c r="BM282" s="2"/>
+      <c r="BN282" s="2"/>
+      <c r="BO282" s="2"/>
+      <c r="BP282" s="2"/>
+      <c r="BQ282" s="2"/>
+      <c r="BR282" s="2"/>
+      <c r="BS282" s="2"/>
+      <c r="BT282" s="2"/>
+      <c r="BU282" s="2"/>
+      <c r="BV282" s="2"/>
+      <c r="BW282" s="2"/>
+      <c r="BX282" s="2"/>
+      <c r="BY282" s="2"/>
+      <c r="BZ282" s="2"/>
+      <c r="CA282" s="2"/>
+      <c r="CB282" s="2"/>
+      <c r="CC282" s="2"/>
+      <c r="CD282" s="2"/>
+      <c r="CE282" s="2"/>
+      <c r="CF282" s="2"/>
+      <c r="CG282" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink display="abc@test.com" r:id="rId1" ref="BM25"/>
@@ -30640,28 +30834,28 @@
     <hyperlink r:id="rId4" ref="C25"/>
     <hyperlink r:id="rId5" ref="C78"/>
     <hyperlink display="Ankit@12345" r:id="rId6" ref="AU78"/>
-    <hyperlink r:id="rId7" ref="C145"/>
-    <hyperlink display="Deepika@1234" r:id="rId8" ref="D145"/>
-    <hyperlink r:id="rId9" ref="C155"/>
-    <hyperlink r:id="rId10" ref="C156"/>
-    <hyperlink r:id="rId11" ref="C157"/>
-    <hyperlink r:id="rId12" ref="C158"/>
-    <hyperlink r:id="rId13" ref="C160"/>
-    <hyperlink r:id="rId14" ref="C151"/>
-    <hyperlink r:id="rId15" ref="C152"/>
-    <hyperlink r:id="rId16" ref="C153"/>
-    <hyperlink r:id="rId17" ref="C140"/>
-    <hyperlink r:id="rId18" ref="C141"/>
-    <hyperlink r:id="rId19" ref="AM130"/>
+    <hyperlink r:id="rId7" ref="C146"/>
+    <hyperlink display="Deepika@1234" r:id="rId8" ref="D146"/>
+    <hyperlink r:id="rId9" ref="C156"/>
+    <hyperlink r:id="rId10" ref="C157"/>
+    <hyperlink r:id="rId11" ref="C158"/>
+    <hyperlink r:id="rId12" ref="C159"/>
+    <hyperlink r:id="rId13" ref="C161"/>
+    <hyperlink r:id="rId14" ref="C152"/>
+    <hyperlink r:id="rId15" ref="C153"/>
+    <hyperlink r:id="rId16" ref="C154"/>
+    <hyperlink r:id="rId17" ref="C141"/>
+    <hyperlink r:id="rId18" ref="C142"/>
+    <hyperlink r:id="rId19" ref="AM131"/>
     <hyperlink r:id="rId20" ref="D11"/>
     <hyperlink r:id="rId21" ref="D83"/>
-    <hyperlink r:id="rId22" ref="C161"/>
-    <hyperlink r:id="rId23" ref="C162"/>
-    <hyperlink r:id="rId24" ref="C164"/>
-    <hyperlink r:id="rId25" ref="C165"/>
-    <hyperlink r:id="rId26" ref="C166"/>
-    <hyperlink r:id="rId27" ref="C163"/>
-    <hyperlink r:id="rId28" ref="C167"/>
+    <hyperlink r:id="rId22" ref="C162"/>
+    <hyperlink r:id="rId23" ref="C163"/>
+    <hyperlink r:id="rId24" ref="C165"/>
+    <hyperlink r:id="rId25" ref="C166"/>
+    <hyperlink r:id="rId26" ref="C167"/>
+    <hyperlink r:id="rId27" ref="C164"/>
+    <hyperlink r:id="rId28" ref="C168"/>
     <hyperlink display="Ankit@123" r:id="rId29" ref="D46:D47"/>
     <hyperlink display="Ankit@123" r:id="rId30" ref="D50:D52"/>
     <hyperlink r:id="rId31" ref="D54"/>
@@ -30676,21 +30870,20 @@
     <hyperlink display="Ankit@123" r:id="rId40" ref="D84:D97"/>
     <hyperlink r:id="rId41" ref="D106"/>
     <hyperlink display="Ankit@123" r:id="rId42" ref="D110:D112"/>
-    <hyperlink display="Ankit@123" r:id="rId43" ref="D114:D121"/>
-    <hyperlink display="Ankit@123" r:id="rId44" ref="D123:D144"/>
-    <hyperlink display="Ankit@123" r:id="rId45" ref="D146:D149"/>
-    <hyperlink display="Ankit@123" r:id="rId46" ref="D154:D158"/>
-    <hyperlink r:id="rId47" ref="D163"/>
-    <hyperlink display="Ankit@123" r:id="rId48" ref="D167:D170"/>
-    <hyperlink display="Ankit@123" r:id="rId49" ref="F155:F158"/>
-    <hyperlink r:id="rId50" ref="F163"/>
-    <hyperlink r:id="rId51" ref="F167"/>
+    <hyperlink display="Ankit@123" r:id="rId43" ref="D114:D122"/>
+    <hyperlink display="Ankit@123" r:id="rId44" ref="D124:D145"/>
+    <hyperlink display="Ankit@123" r:id="rId45" ref="D147:D150"/>
+    <hyperlink display="Ankit@123" r:id="rId46" ref="D155:D159"/>
+    <hyperlink r:id="rId47" ref="D164"/>
+    <hyperlink display="Ankit@123" r:id="rId48" ref="D168:D171"/>
+    <hyperlink display="Ankit@123" r:id="rId49" ref="F156:F159"/>
+    <hyperlink r:id="rId50" ref="F164"/>
+    <hyperlink r:id="rId51" ref="F168"/>
     <hyperlink r:id="rId52" ref="F66"/>
-    <hyperlink r:id="rId53" ref="C110"/>
-    <hyperlink display="Ankit@12345" r:id="rId54" ref="D78"/>
+    <hyperlink display="Ankit@12345" r:id="rId53" ref="D78"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId55"/>
+  <pageSetup orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
 

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="4260" windowWidth="14745" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="6210" windowWidth="14460" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="5"/>
@@ -12,11 +12,12 @@
     <sheet name="updates" r:id="rId3" sheetId="7"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="481">
   <si>
     <t>Ankit</t>
   </si>
@@ -1332,30 +1333,9 @@
     <t>501-1000</t>
   </si>
   <si>
-    <t>ss5xzafdx@gmail.com</t>
-  </si>
-  <si>
-    <t>cxxzg@gmail.com</t>
-  </si>
-  <si>
-    <t>sdczaz@gmail.com</t>
-  </si>
-  <si>
-    <t>gcfdzax@gmail.com</t>
-  </si>
-  <si>
-    <t>sfhsxazy@gmail.com</t>
-  </si>
-  <si>
-    <t>cdxwzfd@gmail.com</t>
-  </si>
-  <si>
     <t>s965089923111111</t>
   </si>
   <si>
-    <t>xgczaf@gmail.com</t>
-  </si>
-  <si>
     <t>SS_CheckOut_AlreadyLoginUser_OrderUsingWallets_freecharge</t>
   </si>
   <si>
@@ -1438,6 +1418,48 @@
   </si>
   <si>
     <t>BRANDS</t>
+  </si>
+  <si>
+    <t>sdczZSAaz@gmail.com</t>
+  </si>
+  <si>
+    <t>gcsazafdzax@gmail.com</t>
+  </si>
+  <si>
+    <t>sfhszsasxazy@gmail.com</t>
+  </si>
+  <si>
+    <t>cdxwsazfd@gmail.com</t>
+  </si>
+  <si>
+    <t>xgzsa@gmail.com</t>
+  </si>
+  <si>
+    <t>ss5dezfdx@gmail.com</t>
+  </si>
+  <si>
+    <t>csdAZAxzg@gmail.com</t>
+  </si>
+  <si>
+    <t>SS_PLP_Verify_L2L3_Refinements_Functionality</t>
+  </si>
+  <si>
+    <t>WOMEN</t>
+  </si>
+  <si>
+    <t>WESTERNWEAR</t>
+  </si>
+  <si>
+    <t>Dresses</t>
+  </si>
+  <si>
+    <t>Capris &amp; Shorts</t>
+  </si>
+  <si>
+    <t>SS_PLP_Verify_L2L3_Double_Functionality</t>
+  </si>
+  <si>
+    <t>Relevance,Popular,New,Discount,Price : Low,High</t>
   </si>
 </sst>
 </file>
@@ -2061,13 +2083,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH282"/>
+  <dimension ref="A1:CH284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B107" xSplit="1" ySplit="1"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B29" xSplit="1" ySplit="1"/>
       <selection activeCell="B1" pane="topRight" sqref="B1"/>
       <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="A116" pane="bottomRight" sqref="A116"/>
+      <selection activeCell="A34" pane="bottomRight" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4298,7 +4320,7 @@
       <c r="CE22" s="1"/>
       <c r="CF22" s="18"/>
       <c r="CG22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:85" x14ac:dyDescent="0.25">
@@ -4496,7 +4518,7 @@
         <v>362</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -4681,7 +4703,7 @@
       <c r="CE26" s="1"/>
       <c r="CF26" s="18"/>
       <c r="CG26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:85" x14ac:dyDescent="0.25">
@@ -4969,7 +4991,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="30" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="30" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>59</v>
       </c>
@@ -4986,7 +5008,9 @@
       <c r="H30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -5063,7 +5087,7 @@
       <c r="CE30" s="1"/>
       <c r="CF30" s="18"/>
       <c r="CG30" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:85" x14ac:dyDescent="0.25">
@@ -5366,7 +5390,7 @@
       <c r="CE33" s="1"/>
       <c r="CF33" s="18"/>
       <c r="CG33" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:85" x14ac:dyDescent="0.25">
@@ -5670,7 +5694,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="37" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="37" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>73</v>
       </c>
@@ -5768,12 +5792,12 @@
       <c r="CE37" s="1"/>
       <c r="CF37" s="18"/>
       <c r="CG37" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="38" spans="1:85" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="38" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>342</v>
+        <v>474</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>362</v>
@@ -5783,10 +5807,10 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>52</v>
+        <v>475</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>58</v>
+        <v>476</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -5808,9 +5832,11 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
+      <c r="AC38" s="1" t="s">
+        <v>477</v>
+      </c>
       <c r="AD38" s="1" t="s">
-        <v>5</v>
+        <v>478</v>
       </c>
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
@@ -5856,9 +5882,7 @@
       <c r="BT38" s="1"/>
       <c r="BU38" s="1"/>
       <c r="BV38" s="1"/>
-      <c r="BW38" s="1" t="s">
-        <v>343</v>
-      </c>
+      <c r="BW38" s="1"/>
       <c r="BX38" s="1"/>
       <c r="BY38" s="1"/>
       <c r="BZ38" s="1"/>
@@ -5872,9 +5896,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="39" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="39" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>74</v>
+        <v>479</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>362</v>
@@ -5884,10 +5908,10 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>52</v>
+        <v>475</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>58</v>
+        <v>476</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -5909,8 +5933,12 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
+      <c r="AC39" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD39" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
@@ -5969,9 +5997,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="40" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>362</v>
@@ -6007,7 +6035,9 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
+      <c r="AD40" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
@@ -6052,7 +6082,9 @@
       <c r="BT40" s="1"/>
       <c r="BU40" s="1"/>
       <c r="BV40" s="1"/>
-      <c r="BW40" s="1"/>
+      <c r="BW40" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="BX40" s="1"/>
       <c r="BY40" s="1"/>
       <c r="BZ40" s="1"/>
@@ -6066,9 +6098,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="41" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="41" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>362</v>
@@ -6163,9 +6195,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="42" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="42" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>362</v>
@@ -6194,24 +6226,12 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-      <c r="W42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z42" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB42" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
@@ -6269,12 +6289,12 @@
       <c r="CE42" s="1"/>
       <c r="CF42" s="18"/>
       <c r="CG42" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="43" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="43" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>362</v>
@@ -6309,15 +6329,9 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
-      <c r="AC43" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD43" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="AE43" s="1" t="s">
-        <v>384</v>
-      </c>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
@@ -6372,12 +6386,12 @@
       <c r="CE43" s="1"/>
       <c r="CF43" s="18"/>
       <c r="CG43" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="44" spans="1:85" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="44" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>362</v>
@@ -6406,12 +6420,24 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
+      <c r="W44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -6472,9 +6498,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="45" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="45" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>362</v>
@@ -6509,9 +6535,15 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="1"/>
+      <c r="AC45" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD45" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AE45" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
@@ -6569,19 +6601,15 @@
         <v>361</v>
       </c>
     </row>
-    <row r="46" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="46" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C46" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
@@ -6670,19 +6698,15 @@
         <v>361</v>
       </c>
     </row>
-    <row r="47" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="47" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C47" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
@@ -6768,22 +6792,30 @@
       <c r="CE47" s="1"/>
       <c r="CF47" s="18"/>
       <c r="CG47" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="48" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>83</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="48" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="1"/>
+      <c r="C48" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -6860,24 +6892,30 @@
       <c r="CD48" s="1"/>
       <c r="CE48" s="1"/>
       <c r="CF48" s="18"/>
-      <c r="CG48" s="2"/>
-    </row>
-    <row r="49" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG48" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="49" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="1"/>
+      <c r="C49" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>432</v>
+        <v>58</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -6956,30 +6994,22 @@
       <c r="CE49" s="1"/>
       <c r="CF49" s="18"/>
       <c r="CG49" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="50" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>85</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="50" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C50" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>432</v>
-      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -7056,23 +7086,17 @@
       <c r="CD50" s="1"/>
       <c r="CE50" s="1"/>
       <c r="CF50" s="18"/>
-      <c r="CG50" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="51" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG50" s="2"/>
+    </row>
+    <row customFormat="1" r="51" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C51" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
@@ -7161,9 +7185,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="52" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="52" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>344</v>
+        <v>85</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>362</v>
@@ -7258,20 +7282,22 @@
       <c r="CD52" s="1"/>
       <c r="CE52" s="1"/>
       <c r="CF52" s="18"/>
-      <c r="CG52" s="2"/>
-    </row>
-    <row r="53" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG52" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="53" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>5</v>
+      <c r="C53" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>2</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -7361,9 +7387,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="54" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="54" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>88</v>
+        <v>344</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>362</v>
@@ -7458,19 +7484,21 @@
       <c r="CD54" s="1"/>
       <c r="CE54" s="1"/>
       <c r="CF54" s="18"/>
-      <c r="CG54" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="55" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG54" s="2"/>
+    </row>
+    <row customFormat="1" r="55" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="1"/>
+      <c r="C55" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
@@ -7559,9 +7587,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="56" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="56" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>345</v>
+        <v>88</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>362</v>
@@ -7656,21 +7684,19 @@
       <c r="CD56" s="1"/>
       <c r="CE56" s="1"/>
       <c r="CF56" s="18"/>
-      <c r="CG56" s="2"/>
-    </row>
-    <row r="57" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG56" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="57" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C57" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
@@ -7734,14 +7760,10 @@
       <c r="BI57" s="11"/>
       <c r="BJ57" s="1"/>
       <c r="BK57" s="1"/>
-      <c r="BL57" s="11" t="s">
-        <v>271</v>
-      </c>
+      <c r="BL57" s="1"/>
       <c r="BM57" s="1"/>
       <c r="BN57" s="1"/>
-      <c r="BO57" s="11" t="s">
-        <v>272</v>
-      </c>
+      <c r="BO57" s="1"/>
       <c r="BP57" s="1"/>
       <c r="BQ57" s="1"/>
       <c r="BR57" s="1"/>
@@ -7760,12 +7782,12 @@
       <c r="CE57" s="1"/>
       <c r="CF57" s="18"/>
       <c r="CG57" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="58" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="58" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>91</v>
+        <v>345</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>362</v>
@@ -7795,9 +7817,7 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
-      <c r="T58" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
@@ -7862,19 +7882,21 @@
       <c r="CD58" s="1"/>
       <c r="CE58" s="1"/>
       <c r="CF58" s="18"/>
-      <c r="CG58" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="59" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG58" s="2"/>
+    </row>
+    <row customFormat="1" r="59" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="1"/>
+      <c r="C59" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
@@ -7884,9 +7906,7 @@
         <v>432</v>
       </c>
       <c r="I59" s="1"/>
-      <c r="J59" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -7909,9 +7929,7 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
-      <c r="AG59" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
@@ -7942,25 +7960,21 @@
       <c r="BI59" s="11"/>
       <c r="BJ59" s="1"/>
       <c r="BK59" s="1"/>
-      <c r="BL59" s="1"/>
+      <c r="BL59" s="11" t="s">
+        <v>271</v>
+      </c>
       <c r="BM59" s="1"/>
       <c r="BN59" s="1"/>
-      <c r="BO59" s="1"/>
+      <c r="BO59" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="BP59" s="1"/>
       <c r="BQ59" s="1"/>
       <c r="BR59" s="1"/>
-      <c r="BS59" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BT59" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="BU59" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="BV59" s="1" t="s">
-        <v>227</v>
-      </c>
+      <c r="BS59" s="1"/>
+      <c r="BT59" s="1"/>
+      <c r="BU59" s="1"/>
+      <c r="BV59" s="1"/>
       <c r="BW59" s="1"/>
       <c r="BX59" s="1"/>
       <c r="BY59" s="1"/>
@@ -7972,18 +7986,22 @@
       <c r="CE59" s="1"/>
       <c r="CF59" s="18"/>
       <c r="CG59" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="60" spans="1:85" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="60" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="1"/>
+      <c r="C60" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
@@ -7993,9 +8011,7 @@
         <v>432</v>
       </c>
       <c r="I60" s="1"/>
-      <c r="J60" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -8005,7 +8021,9 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
+      <c r="T60" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
@@ -8018,9 +8036,7 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
-      <c r="AG60" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
@@ -8058,18 +8074,10 @@
       <c r="BP60" s="1"/>
       <c r="BQ60" s="1"/>
       <c r="BR60" s="1"/>
-      <c r="BS60" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BT60" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="BU60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BV60" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="BS60" s="1"/>
+      <c r="BT60" s="1"/>
+      <c r="BU60" s="1"/>
+      <c r="BV60" s="1"/>
       <c r="BW60" s="1"/>
       <c r="BX60" s="1"/>
       <c r="BY60" s="1"/>
@@ -8081,22 +8089,18 @@
       <c r="CE60" s="1"/>
       <c r="CF60" s="18"/>
       <c r="CG60" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="61" spans="1:85" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="61" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C61" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
@@ -8106,15 +8110,15 @@
         <v>432</v>
       </c>
       <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="J61" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
-      <c r="P61" s="1" t="s">
-        <v>268</v>
-      </c>
+      <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
@@ -8131,10 +8135,10 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
-      <c r="AG61" s="1"/>
-      <c r="AH61" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="AG61" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH61" s="1"/>
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
       <c r="AK61" s="1"/>
@@ -8166,17 +8170,23 @@
       <c r="BK61" s="1"/>
       <c r="BL61" s="1"/>
       <c r="BM61" s="1"/>
-      <c r="BN61" s="1" t="s">
-        <v>270</v>
-      </c>
+      <c r="BN61" s="1"/>
       <c r="BO61" s="1"/>
       <c r="BP61" s="1"/>
       <c r="BQ61" s="1"/>
       <c r="BR61" s="1"/>
-      <c r="BS61" s="1"/>
-      <c r="BT61" s="1"/>
-      <c r="BU61" s="1"/>
-      <c r="BV61" s="1"/>
+      <c r="BS61" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BT61" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="BU61" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="BV61" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="BW61" s="1"/>
       <c r="BX61" s="1"/>
       <c r="BY61" s="1"/>
@@ -8191,19 +8201,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="62" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="62" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C62" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
@@ -8213,7 +8219,9 @@
         <v>432</v>
       </c>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="J62" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -8236,7 +8244,9 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
-      <c r="AG62" s="1"/>
+      <c r="AG62" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
@@ -8270,16 +8280,22 @@
       <c r="BL62" s="1"/>
       <c r="BM62" s="1"/>
       <c r="BN62" s="1"/>
-      <c r="BO62" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="BO62" s="1"/>
       <c r="BP62" s="1"/>
       <c r="BQ62" s="1"/>
       <c r="BR62" s="1"/>
-      <c r="BS62" s="1"/>
-      <c r="BT62" s="1"/>
-      <c r="BU62" s="1"/>
-      <c r="BV62" s="1"/>
+      <c r="BS62" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BT62" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="BU62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV62" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="BW62" s="1"/>
       <c r="BX62" s="1"/>
       <c r="BY62" s="1"/>
@@ -8294,19 +8310,27 @@
         <v>361</v>
       </c>
     </row>
-    <row r="63" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>230</v>
+    <row customFormat="1" r="63" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="C63" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -8314,7 +8338,9 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
+      <c r="P63" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
@@ -8332,7 +8358,9 @@
       <c r="AE63" s="1"/>
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
-      <c r="AH63" s="1"/>
+      <c r="AH63" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="AI63" s="1"/>
       <c r="AJ63" s="1"/>
       <c r="AK63" s="1"/>
@@ -8359,12 +8387,14 @@
       <c r="BF63" s="1"/>
       <c r="BG63" s="1"/>
       <c r="BH63" s="1"/>
-      <c r="BI63" s="1"/>
+      <c r="BI63" s="11"/>
       <c r="BJ63" s="1"/>
       <c r="BK63" s="1"/>
       <c r="BL63" s="1"/>
       <c r="BM63" s="1"/>
-      <c r="BN63" s="1"/>
+      <c r="BN63" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="BO63" s="1"/>
       <c r="BP63" s="1"/>
       <c r="BQ63" s="1"/>
@@ -8382,12 +8412,14 @@
       <c r="CC63" s="1"/>
       <c r="CD63" s="1"/>
       <c r="CE63" s="1"/>
-      <c r="CF63" s="1"/>
-      <c r="CG63" s="1"/>
-    </row>
-    <row r="64" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CF63" s="18"/>
+      <c r="CG63" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="64" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>362</v>
@@ -8398,12 +8430,14 @@
       <c r="D64" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -8456,13 +8490,15 @@
       <c r="BF64" s="1"/>
       <c r="BG64" s="1"/>
       <c r="BH64" s="1"/>
-      <c r="BI64" s="1"/>
+      <c r="BI64" s="11"/>
       <c r="BJ64" s="1"/>
       <c r="BK64" s="1"/>
       <c r="BL64" s="1"/>
       <c r="BM64" s="1"/>
       <c r="BN64" s="1"/>
-      <c r="BO64" s="1"/>
+      <c r="BO64" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="BP64" s="1"/>
       <c r="BQ64" s="1"/>
       <c r="BR64" s="1"/>
@@ -8479,40 +8515,28 @@
       <c r="CC64" s="1"/>
       <c r="CD64" s="1"/>
       <c r="CE64" s="1"/>
-      <c r="CF64" s="1"/>
+      <c r="CF64" s="18"/>
       <c r="CG64" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="65" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>7</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="65" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C65" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>359</v>
-      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1" t="s">
-        <v>359</v>
-      </c>
+      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>360</v>
-      </c>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -8522,9 +8546,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
-      <c r="V65" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="V65" s="1"/>
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
@@ -8587,13 +8609,11 @@
       <c r="CD65" s="1"/>
       <c r="CE65" s="1"/>
       <c r="CF65" s="1"/>
-      <c r="CG65" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="66" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG65" s="1"/>
+    </row>
+    <row customFormat="1" r="66" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>294</v>
+        <v>6</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>362</v>
@@ -8604,22 +8624,16 @@
       <c r="D66" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="E66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>295</v>
-      </c>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
@@ -8629,9 +8643,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="V66" s="1"/>
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
@@ -8684,11 +8696,12 @@
       <c r="BT66" s="1"/>
       <c r="BU66" s="1"/>
       <c r="BV66" s="1"/>
-      <c r="BW66" s="12"/>
-      <c r="BX66" s="12"/>
-      <c r="BY66" s="12"/>
-      <c r="BZ66" s="12"/>
-      <c r="CA66" s="12"/>
+      <c r="BW66" s="1"/>
+      <c r="BX66" s="1"/>
+      <c r="BY66" s="1"/>
+      <c r="BZ66" s="1"/>
+      <c r="CA66" s="1"/>
+      <c r="CB66" s="1"/>
       <c r="CC66" s="1"/>
       <c r="CD66" s="1"/>
       <c r="CE66" s="1"/>
@@ -8697,27 +8710,35 @@
         <v>363</v>
       </c>
     </row>
-    <row r="67" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="67" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>2</v>
+      <c r="C67" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>359</v>
+      </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
+      <c r="J67" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -8727,7 +8748,9 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
+      <c r="V67" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
@@ -8785,9 +8808,7 @@
       <c r="BY67" s="1"/>
       <c r="BZ67" s="1"/>
       <c r="CA67" s="1"/>
-      <c r="CB67" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="CB67" s="1"/>
       <c r="CC67" s="1"/>
       <c r="CD67" s="1"/>
       <c r="CE67" s="1"/>
@@ -8796,9 +8817,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="68" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="68" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>11</v>
+        <v>294</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>362</v>
@@ -8806,17 +8827,25 @@
       <c r="C68" s="28" t="s">
         <v>434</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>5</v>
+      <c r="D68" s="27" t="s">
+        <v>2</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="F68" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
+      <c r="J68" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -8826,7 +8855,9 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
+      <c r="V68" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
@@ -8879,14 +8910,11 @@
       <c r="BT68" s="1"/>
       <c r="BU68" s="1"/>
       <c r="BV68" s="1"/>
-      <c r="BW68" s="1"/>
-      <c r="BX68" s="1"/>
-      <c r="BY68" s="1"/>
-      <c r="BZ68" s="1"/>
-      <c r="CA68" s="1"/>
-      <c r="CB68" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="BW68" s="12"/>
+      <c r="BX68" s="12"/>
+      <c r="BY68" s="12"/>
+      <c r="BZ68" s="12"/>
+      <c r="CA68" s="12"/>
       <c r="CC68" s="1"/>
       <c r="CD68" s="1"/>
       <c r="CE68" s="1"/>
@@ -8895,18 +8923,18 @@
         <v>363</v>
       </c>
     </row>
-    <row ht="30" r="69" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="69" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C69" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>426</v>
+      <c r="C69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>2</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -8983,8 +9011,8 @@
       <c r="BY69" s="1"/>
       <c r="BZ69" s="1"/>
       <c r="CA69" s="1"/>
-      <c r="CB69" s="1" t="s">
-        <v>296</v>
+      <c r="CB69" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="CC69" s="1"/>
       <c r="CD69" s="1"/>
@@ -8994,9 +9022,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="70" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="70" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>362</v>
@@ -9004,8 +9032,8 @@
       <c r="C70" s="28" t="s">
         <v>434</v>
       </c>
-      <c r="D70" s="27" t="s">
-        <v>2</v>
+      <c r="D70" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -9082,7 +9110,9 @@
       <c r="BY70" s="1"/>
       <c r="BZ70" s="1"/>
       <c r="CA70" s="1"/>
-      <c r="CB70" s="1"/>
+      <c r="CB70" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="CC70" s="1"/>
       <c r="CD70" s="1"/>
       <c r="CE70" s="1"/>
@@ -9091,9 +9121,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="71" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="71" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>362</v>
@@ -9101,8 +9131,8 @@
       <c r="C71" s="28" t="s">
         <v>434</v>
       </c>
-      <c r="D71" s="27" t="s">
-        <v>2</v>
+      <c r="D71" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -9179,7 +9209,9 @@
       <c r="BY71" s="1"/>
       <c r="BZ71" s="1"/>
       <c r="CA71" s="1"/>
-      <c r="CB71" s="1"/>
+      <c r="CB71" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="CC71" s="1"/>
       <c r="CD71" s="1"/>
       <c r="CE71" s="1"/>
@@ -9188,17 +9220,19 @@
         <v>363</v>
       </c>
     </row>
-    <row r="72" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="72" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C72" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="D72" s="1"/>
+      <c r="C72" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -9283,15 +9317,19 @@
         <v>363</v>
       </c>
     </row>
-    <row r="73" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="73" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="C73" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -9376,14 +9414,16 @@
         <v>363</v>
       </c>
     </row>
-    <row r="74" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="74" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C74" s="1"/>
+      <c r="C74" s="26" t="s">
+        <v>297</v>
+      </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -9469,9 +9509,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="75" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>231</v>
+    <row customFormat="1" r="75" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>362</v>
@@ -9558,21 +9598,19 @@
       <c r="CD75" s="1"/>
       <c r="CE75" s="1"/>
       <c r="CF75" s="1"/>
-      <c r="CG75" s="1"/>
-    </row>
-    <row r="76" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>14</v>
+      <c r="CG75" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="76" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C76" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -9657,19 +9695,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="77" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>12</v>
+    <row customFormat="1" r="77" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C77" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -9750,22 +9784,20 @@
       <c r="CD77" s="1"/>
       <c r="CE77" s="1"/>
       <c r="CF77" s="1"/>
-      <c r="CG77" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row ht="30" r="78" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG77" s="1"/>
+    </row>
+    <row customFormat="1" r="78" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C78" s="26" t="s">
-        <v>433</v>
+      <c r="C78" s="28" t="s">
+        <v>434</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>435</v>
+        <v>2</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -9809,9 +9841,7 @@
       <c r="AR78" s="1"/>
       <c r="AS78" s="1"/>
       <c r="AT78" s="1"/>
-      <c r="AU78" s="27" t="s">
-        <v>444</v>
-      </c>
+      <c r="AU78" s="1"/>
       <c r="AV78" s="1"/>
       <c r="AW78" s="1"/>
       <c r="AX78" s="1"/>
@@ -9844,9 +9874,7 @@
       <c r="BY78" s="1"/>
       <c r="BZ78" s="1"/>
       <c r="CA78" s="1"/>
-      <c r="CB78" s="1" t="s">
-        <v>298</v>
-      </c>
+      <c r="CB78" s="1"/>
       <c r="CC78" s="1"/>
       <c r="CD78" s="1"/>
       <c r="CE78" s="1"/>
@@ -9855,9 +9883,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="79" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="79" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>362</v>
@@ -9868,9 +9896,7 @@
       <c r="D79" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -9954,22 +9980,20 @@
         <v>363</v>
       </c>
     </row>
-    <row r="80" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="80" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C80" s="28" t="s">
-        <v>434</v>
+      <c r="C80" s="26" t="s">
+        <v>433</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -10011,7 +10035,9 @@
       <c r="AR80" s="1"/>
       <c r="AS80" s="1"/>
       <c r="AT80" s="1"/>
-      <c r="AU80" s="1"/>
+      <c r="AU80" s="27" t="s">
+        <v>438</v>
+      </c>
       <c r="AV80" s="1"/>
       <c r="AW80" s="1"/>
       <c r="AX80" s="1"/>
@@ -10044,18 +10070,20 @@
       <c r="BY80" s="1"/>
       <c r="BZ80" s="1"/>
       <c r="CA80" s="1"/>
-      <c r="CB80" s="1"/>
+      <c r="CB80" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="CC80" s="1"/>
       <c r="CD80" s="1"/>
       <c r="CE80" s="1"/>
       <c r="CF80" s="1"/>
       <c r="CG80" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="81" spans="1:85" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="81" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>362</v>
@@ -10152,9 +10180,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="82" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="82" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>362</v>
@@ -10169,12 +10197,8 @@
         <v>0</v>
       </c>
       <c r="F82" s="1"/>
-      <c r="G82" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -10255,17 +10279,17 @@
         <v>363</v>
       </c>
     </row>
-    <row r="83" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="83" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D83" s="26" t="s">
+      <c r="C83" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D83" s="27" t="s">
         <v>2</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -10354,9 +10378,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="84" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="84" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>362</v>
@@ -10371,8 +10395,12 @@
         <v>0</v>
       </c>
       <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -10450,32 +10478,28 @@
       <c r="CE84" s="1"/>
       <c r="CF84" s="1"/>
       <c r="CG84" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="85" spans="1:85" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="85" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C85" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D85" s="27" t="s">
+      <c r="C85" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D85" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F85" s="1"/>
-      <c r="G85" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>317</v>
-      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -10556,9 +10580,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="86" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>362</v>
@@ -10573,12 +10597,8 @@
         <v>0</v>
       </c>
       <c r="F86" s="1"/>
-      <c r="G86" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>318</v>
-      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -10659,9 +10679,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="87" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="87" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>301</v>
+        <v>21</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>362</v>
@@ -10680,7 +10700,7 @@
         <v>52</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -10762,9 +10782,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="88" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="88" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>302</v>
+        <v>22</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>362</v>
@@ -10779,8 +10799,12 @@
         <v>0</v>
       </c>
       <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
+      <c r="G88" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>318</v>
+      </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -10858,12 +10882,12 @@
       <c r="CE88" s="1"/>
       <c r="CF88" s="1"/>
       <c r="CG88" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="89" spans="1:85" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="89" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>362</v>
@@ -10878,8 +10902,12 @@
         <v>0</v>
       </c>
       <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
+      <c r="G89" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>321</v>
+      </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -10957,12 +10985,12 @@
       <c r="CE89" s="1"/>
       <c r="CF89" s="1"/>
       <c r="CG89" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="90" spans="1:85" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="90" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>24</v>
+        <v>302</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>362</v>
@@ -11010,6 +11038,7 @@
       <c r="AK90" s="1"/>
       <c r="AL90" s="1"/>
       <c r="AM90" s="1"/>
+      <c r="AN90" s="1"/>
       <c r="AO90" s="1"/>
       <c r="AP90" s="1"/>
       <c r="AQ90" s="1"/>
@@ -11019,6 +11048,9 @@
       <c r="AU90" s="1"/>
       <c r="AV90" s="1"/>
       <c r="AW90" s="1"/>
+      <c r="AX90" s="1"/>
+      <c r="AY90" s="1"/>
+      <c r="AZ90" s="1"/>
       <c r="BA90" s="1"/>
       <c r="BB90" s="1"/>
       <c r="BC90" s="1"/>
@@ -11055,9 +11087,9 @@
         <v>363</v>
       </c>
     </row>
-    <row ht="30" r="91" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="91" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>23</v>
+        <v>303</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>362</v>
@@ -11105,13 +11137,9 @@
       <c r="AK91" s="1"/>
       <c r="AL91" s="1"/>
       <c r="AM91" s="1"/>
-      <c r="AN91" s="1" t="s">
-        <v>353</v>
-      </c>
+      <c r="AN91" s="1"/>
       <c r="AO91" s="1"/>
-      <c r="AP91" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AP91" s="1"/>
       <c r="AQ91" s="1"/>
       <c r="AR91" s="1"/>
       <c r="AS91" s="1"/>
@@ -11149,9 +11177,7 @@
       <c r="BY91" s="1"/>
       <c r="BZ91" s="1"/>
       <c r="CA91" s="1"/>
-      <c r="CB91" s="1" t="s">
-        <v>304</v>
-      </c>
+      <c r="CB91" s="1"/>
       <c r="CC91" s="1"/>
       <c r="CD91" s="1"/>
       <c r="CE91" s="1"/>
@@ -11160,9 +11186,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="92" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="92" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>362</v>
@@ -11180,27 +11206,13 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K92" t="s">
-        <v>375</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P92" s="1" t="s">
-        <v>307</v>
-      </c>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
@@ -11224,7 +11236,6 @@
       <c r="AK92" s="1"/>
       <c r="AL92" s="1"/>
       <c r="AM92" s="1"/>
-      <c r="AN92" s="1"/>
       <c r="AO92" s="1"/>
       <c r="AP92" s="1"/>
       <c r="AQ92" s="1"/>
@@ -11234,9 +11245,6 @@
       <c r="AU92" s="1"/>
       <c r="AV92" s="1"/>
       <c r="AW92" s="1"/>
-      <c r="AX92" s="1"/>
-      <c r="AY92" s="1"/>
-      <c r="AZ92" s="1"/>
       <c r="BA92" s="1"/>
       <c r="BB92" s="1"/>
       <c r="BC92" s="1"/>
@@ -11273,9 +11281,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="93" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>97</v>
+    <row customFormat="1" ht="30" r="93" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>362</v>
@@ -11293,27 +11301,13 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K93" t="s">
-        <v>375</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>307</v>
-      </c>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
@@ -11338,14 +11332,14 @@
       <c r="AL93" s="1"/>
       <c r="AM93" s="1"/>
       <c r="AN93" s="1" t="s">
-        <v>98</v>
+        <v>353</v>
       </c>
       <c r="AO93" s="1"/>
-      <c r="AP93" s="1"/>
+      <c r="AP93" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AQ93" s="1"/>
-      <c r="AR93" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="AR93" s="1"/>
       <c r="AS93" s="1"/>
       <c r="AT93" s="1"/>
       <c r="AU93" s="1"/>
@@ -11381,7 +11375,9 @@
       <c r="BY93" s="1"/>
       <c r="BZ93" s="1"/>
       <c r="CA93" s="1"/>
-      <c r="CB93" s="1"/>
+      <c r="CB93" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="CC93" s="1"/>
       <c r="CD93" s="1"/>
       <c r="CE93" s="1"/>
@@ -11390,9 +11386,9 @@
         <v>363</v>
       </c>
     </row>
-    <row ht="30" r="94" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>99</v>
+    <row customFormat="1" r="94" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>362</v>
@@ -11410,7 +11406,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="2" t="s">
+      <c r="J94" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K94" t="s">
@@ -11419,7 +11415,7 @@
       <c r="L94" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N94" s="1" t="s">
@@ -11447,27 +11443,13 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
       <c r="AF94" s="1"/>
-      <c r="AG94" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AH94" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AI94" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AJ94" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK94" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL94" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AM94" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="AG94" s="1"/>
+      <c r="AH94" s="1"/>
+      <c r="AI94" s="1"/>
+      <c r="AJ94" s="1"/>
+      <c r="AK94" s="1"/>
+      <c r="AL94" s="1"/>
+      <c r="AM94" s="1"/>
       <c r="AN94" s="1"/>
       <c r="AO94" s="1"/>
       <c r="AP94" s="1"/>
@@ -11508,9 +11490,7 @@
       <c r="BY94" s="1"/>
       <c r="BZ94" s="1"/>
       <c r="CA94" s="1"/>
-      <c r="CB94" s="1" t="s">
-        <v>305</v>
-      </c>
+      <c r="CB94" s="1"/>
       <c r="CC94" s="1"/>
       <c r="CD94" s="1"/>
       <c r="CE94" s="1"/>
@@ -11519,9 +11499,9 @@
         <v>363</v>
       </c>
     </row>
-    <row ht="30" r="95" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="95" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>362</v>
@@ -11583,11 +11563,15 @@
       <c r="AK95" s="1"/>
       <c r="AL95" s="1"/>
       <c r="AM95" s="1"/>
-      <c r="AN95" s="1"/>
+      <c r="AN95" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="AO95" s="1"/>
       <c r="AP95" s="1"/>
       <c r="AQ95" s="1"/>
-      <c r="AR95" s="1"/>
+      <c r="AR95" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="AS95" s="1"/>
       <c r="AT95" s="1"/>
       <c r="AU95" s="1"/>
@@ -11623,9 +11607,7 @@
       <c r="BY95" s="1"/>
       <c r="BZ95" s="1"/>
       <c r="CA95" s="1"/>
-      <c r="CB95" s="1" t="s">
-        <v>306</v>
-      </c>
+      <c r="CB95" s="1"/>
       <c r="CC95" s="1"/>
       <c r="CD95" s="1"/>
       <c r="CE95" s="1"/>
@@ -11634,9 +11616,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="96" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="96" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>362</v>
@@ -11692,13 +11674,13 @@
       <c r="AE96" s="1"/>
       <c r="AF96" s="1"/>
       <c r="AG96" s="1" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="AH96" s="1" t="s">
         <v>307</v>
       </c>
       <c r="AI96" s="1" t="s">
-        <v>1</v>
+        <v>374</v>
       </c>
       <c r="AJ96" s="1" t="s">
         <v>28</v>
@@ -11752,7 +11734,9 @@
       <c r="BY96" s="1"/>
       <c r="BZ96" s="1"/>
       <c r="CA96" s="1"/>
-      <c r="CB96" s="1"/>
+      <c r="CB96" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="CC96" s="1"/>
       <c r="CD96" s="1"/>
       <c r="CE96" s="1"/>
@@ -11761,9 +11745,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="97" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="97" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>362</v>
@@ -11818,27 +11802,13 @@
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
       <c r="AF97" s="1"/>
-      <c r="AG97" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="AH97" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AI97" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ97" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK97" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL97" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AM97" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="AG97" s="1"/>
+      <c r="AH97" s="1"/>
+      <c r="AI97" s="1"/>
+      <c r="AJ97" s="1"/>
+      <c r="AK97" s="1"/>
+      <c r="AL97" s="1"/>
+      <c r="AM97" s="1"/>
       <c r="AN97" s="1"/>
       <c r="AO97" s="1"/>
       <c r="AP97" s="1"/>
@@ -11879,7 +11849,9 @@
       <c r="BY97" s="1"/>
       <c r="BZ97" s="1"/>
       <c r="CA97" s="1"/>
-      <c r="CB97" s="1"/>
+      <c r="CB97" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="CC97" s="1"/>
       <c r="CD97" s="1"/>
       <c r="CE97" s="1"/>
@@ -11888,27 +11860,47 @@
         <v>363</v>
       </c>
     </row>
-    <row r="98" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
-        <v>235</v>
+    <row customFormat="1" r="98" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+      <c r="C98" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D98" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
+      <c r="J98" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K98" t="s">
+        <v>375</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
@@ -11925,13 +11917,27 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
       <c r="AF98" s="1"/>
-      <c r="AG98" s="1"/>
-      <c r="AH98" s="1"/>
-      <c r="AI98" s="1"/>
-      <c r="AJ98" s="1"/>
-      <c r="AK98" s="1"/>
-      <c r="AL98" s="1"/>
-      <c r="AM98" s="1"/>
+      <c r="AG98" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AH98" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AI98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK98" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL98" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM98" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AN98" s="1"/>
       <c r="AO98" s="1"/>
       <c r="AP98" s="1"/>
@@ -11977,33 +11983,51 @@
       <c r="CD98" s="1"/>
       <c r="CE98" s="1"/>
       <c r="CF98" s="1"/>
-      <c r="CG98" s="1"/>
-    </row>
-    <row r="99" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG98" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="99" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="C99" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D99" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="F99" s="1"/>
-      <c r="G99" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>322</v>
-      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
+      <c r="J99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K99" t="s">
+        <v>375</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
@@ -12020,13 +12044,27 @@
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
       <c r="AF99" s="1"/>
-      <c r="AG99" s="1"/>
-      <c r="AH99" s="1"/>
-      <c r="AI99" s="1"/>
-      <c r="AJ99" s="1"/>
-      <c r="AK99" s="1"/>
-      <c r="AL99" s="1"/>
-      <c r="AM99" s="1"/>
+      <c r="AG99" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AH99" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AI99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL99" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM99" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AN99" s="1"/>
       <c r="AO99" s="1"/>
       <c r="AP99" s="1"/>
@@ -12076,9 +12114,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="100" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>105</v>
+    <row customFormat="1" r="100" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>235</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>362</v>
@@ -12087,12 +12125,8 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>322</v>
-      </c>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -12169,13 +12203,11 @@
       <c r="CD100" s="1"/>
       <c r="CE100" s="1"/>
       <c r="CF100" s="1"/>
-      <c r="CG100" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="101" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG100" s="1"/>
+    </row>
+    <row customFormat="1" r="101" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>362</v>
@@ -12270,9 +12302,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="102" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="102" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>362</v>
@@ -12367,9 +12399,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="103" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="103" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>362</v>
@@ -12391,9 +12423,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
-      <c r="P103" s="1" t="s">
-        <v>307</v>
-      </c>
+      <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
@@ -12463,12 +12493,12 @@
       <c r="CE103" s="1"/>
       <c r="CF103" s="1"/>
       <c r="CG103" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="104" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="104" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>362</v>
@@ -12478,10 +12508,10 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="2" t="s">
-        <v>354</v>
+        <v>52</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -12563,9 +12593,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="105" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="105" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>362</v>
@@ -12607,9 +12637,7 @@
       <c r="AE105" s="1"/>
       <c r="AF105" s="1"/>
       <c r="AG105" s="1"/>
-      <c r="AH105" s="1" t="s">
-        <v>323</v>
-      </c>
+      <c r="AH105" s="1"/>
       <c r="AI105" s="1"/>
       <c r="AJ105" s="1"/>
       <c r="AK105" s="1"/>
@@ -12661,29 +12689,25 @@
       <c r="CE105" s="1"/>
       <c r="CF105" s="1"/>
       <c r="CG105" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="106" spans="1:85" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="106" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C106" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D106" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="2" t="s">
-        <v>52</v>
+        <v>354</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -12765,9 +12789,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="107" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="107" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>362</v>
@@ -12777,10 +12801,10 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="2" t="s">
-        <v>354</v>
+        <v>52</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -12789,7 +12813,9 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
+      <c r="P107" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
@@ -12807,7 +12833,9 @@
       <c r="AE107" s="1"/>
       <c r="AF107" s="1"/>
       <c r="AG107" s="1"/>
-      <c r="AH107" s="1"/>
+      <c r="AH107" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="AI107" s="1"/>
       <c r="AJ107" s="1"/>
       <c r="AK107" s="1"/>
@@ -12862,15 +12890,19 @@
         <v>363</v>
       </c>
     </row>
-    <row r="108" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="108" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+      <c r="C108" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D108" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="2" t="s">
@@ -12959,9 +12991,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="109" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="109" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>362</v>
@@ -12971,10 +13003,10 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="2" t="s">
-        <v>52</v>
+        <v>354</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -13056,26 +13088,22 @@
         <v>363</v>
       </c>
     </row>
-    <row r="110" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="110" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C110" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D110" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>410</v>
+        <v>322</v>
       </c>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -13154,22 +13182,18 @@
       <c r="CE110" s="1"/>
       <c r="CF110" s="1"/>
       <c r="CG110" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="111" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="111" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C111" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D111" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="2" t="s">
@@ -13258,9 +13282,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="112" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="112" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>362</v>
@@ -13277,7 +13301,7 @@
         <v>52</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>322</v>
+        <v>410</v>
       </c>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -13340,44 +13364,46 @@
       <c r="BO112" s="1"/>
       <c r="BP112" s="1"/>
       <c r="BQ112" s="1"/>
-      <c r="BR112" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BS112" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="BR112" s="1"/>
+      <c r="BS112" s="1"/>
       <c r="BT112" s="1"/>
       <c r="BU112" s="1"/>
       <c r="BV112" s="1"/>
-      <c r="BW112" s="12"/>
-      <c r="BX112" s="12"/>
-      <c r="BY112" s="12"/>
-      <c r="BZ112" s="12"/>
-      <c r="CA112" s="12"/>
-      <c r="CB112" t="s">
-        <v>308</v>
-      </c>
+      <c r="BW112" s="1"/>
+      <c r="BX112" s="1"/>
+      <c r="BY112" s="1"/>
+      <c r="BZ112" s="1"/>
+      <c r="CA112" s="1"/>
+      <c r="CB112" s="1"/>
       <c r="CC112" s="1"/>
       <c r="CD112" s="1"/>
       <c r="CE112" s="1"/>
       <c r="CF112" s="1"/>
       <c r="CG112" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="113" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
-        <v>236</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="113" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
+      <c r="C113" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D113" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
+      <c r="G113" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -13454,11 +13480,13 @@
       <c r="CD113" s="1"/>
       <c r="CE113" s="1"/>
       <c r="CF113" s="1"/>
-      <c r="CG113" s="1"/>
-    </row>
-    <row r="114" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG113" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="114" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>362</v>
@@ -13538,17 +13566,23 @@
       <c r="BO114" s="1"/>
       <c r="BP114" s="1"/>
       <c r="BQ114" s="1"/>
-      <c r="BR114" s="1"/>
-      <c r="BS114" s="1"/>
+      <c r="BR114" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BS114" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="BT114" s="1"/>
       <c r="BU114" s="1"/>
       <c r="BV114" s="1"/>
-      <c r="BW114" s="1"/>
-      <c r="BX114" s="1"/>
-      <c r="BY114" s="1"/>
-      <c r="BZ114" s="1"/>
-      <c r="CA114" s="1"/>
-      <c r="CB114" s="1"/>
+      <c r="BW114" s="12"/>
+      <c r="BX114" s="12"/>
+      <c r="BY114" s="12"/>
+      <c r="BZ114" s="12"/>
+      <c r="CA114" s="12"/>
+      <c r="CB114" t="s">
+        <v>308</v>
+      </c>
       <c r="CC114" s="1"/>
       <c r="CD114" s="1"/>
       <c r="CE114" s="1"/>
@@ -13557,47 +13591,27 @@
         <v>363</v>
       </c>
     </row>
-    <row r="115" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>121</v>
+    <row customFormat="1" r="115" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C115" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D115" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>322</v>
-      </c>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-      <c r="J115" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="K115" t="s">
-        <v>1</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>232</v>
-      </c>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
       <c r="O115" s="1"/>
-      <c r="P115" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
@@ -13666,51 +13680,37 @@
       <c r="CD115" s="1"/>
       <c r="CE115" s="1"/>
       <c r="CF115" s="1"/>
-      <c r="CG115" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="116" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG115" s="1"/>
+    </row>
+    <row customFormat="1" r="116" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>472</v>
+        <v>120</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="28" t="s">
         <v>434</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="27" t="s">
         <v>2</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="2" t="s">
-        <v>473</v>
+        <v>52</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="I116" s="1"/>
-      <c r="J116" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K116" t="s">
-        <v>1</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N116" s="1" t="s">
-        <v>232</v>
-      </c>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
       <c r="O116" s="1"/>
-      <c r="P116" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
@@ -13783,9 +13783,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="117" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="117" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>362</v>
@@ -13860,21 +13860,12 @@
       <c r="AX117" s="1"/>
       <c r="AY117" s="1"/>
       <c r="AZ117" s="1"/>
-      <c r="BA117" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BB117" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD117" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE117" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF117" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="BA117" s="1"/>
+      <c r="BB117" s="1"/>
+      <c r="BC117" s="1"/>
+      <c r="BD117" s="1"/>
+      <c r="BE117" s="1"/>
+      <c r="BF117" s="1"/>
       <c r="BG117" s="1"/>
       <c r="BH117" s="1"/>
       <c r="BI117" s="1"/>
@@ -13905,30 +13896,30 @@
         <v>363</v>
       </c>
     </row>
-    <row r="118" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="118" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>129</v>
+        <v>465</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C118" s="28" t="s">
+      <c r="C118" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D118" s="27" t="s">
+      <c r="D118" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="2" t="s">
-        <v>52</v>
+        <v>466</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>322</v>
+        <v>5</v>
       </c>
       <c r="I118" s="1"/>
       <c r="J118" s="2" t="s">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="K118" t="s">
         <v>1</v>
@@ -13982,19 +13973,13 @@
       <c r="AX118" s="1"/>
       <c r="AY118" s="1"/>
       <c r="AZ118" s="1"/>
-      <c r="BA118" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="BA118" s="1"/>
       <c r="BB118" s="1"/>
       <c r="BC118" s="1"/>
       <c r="BD118" s="1"/>
       <c r="BE118" s="1"/>
-      <c r="BF118" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG118" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="BF118" s="1"/>
+      <c r="BG118" s="1"/>
       <c r="BH118" s="1"/>
       <c r="BI118" s="1"/>
       <c r="BJ118" s="1"/>
@@ -14024,9 +14009,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="119" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="119" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>387</v>
+        <v>123</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>362</v>
@@ -14102,18 +14087,21 @@
       <c r="AY119" s="1"/>
       <c r="AZ119" s="1"/>
       <c r="BA119" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BB119" s="1"/>
-      <c r="BC119" s="1"/>
-      <c r="BD119" s="1"/>
-      <c r="BE119" s="1"/>
-      <c r="BF119" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG119" s="4" t="s">
-        <v>131</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="BB119" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD119" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE119" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF119" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG119" s="1"/>
       <c r="BH119" s="1"/>
       <c r="BI119" s="1"/>
       <c r="BJ119" s="1"/>
@@ -14143,9 +14131,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="120" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="120" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>388</v>
+        <v>129</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>362</v>
@@ -14207,12 +14195,8 @@
       <c r="AK120" s="1"/>
       <c r="AL120" s="1"/>
       <c r="AM120" s="1"/>
-      <c r="AN120" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AO120" s="1" t="s">
-        <v>390</v>
-      </c>
+      <c r="AN120" s="1"/>
+      <c r="AO120" s="1"/>
       <c r="AP120" s="1"/>
       <c r="AQ120" s="1"/>
       <c r="AR120" s="1"/>
@@ -14241,14 +14225,10 @@
       <c r="BI120" s="1"/>
       <c r="BJ120" s="1"/>
       <c r="BK120" s="1"/>
-      <c r="BL120" s="1" t="s">
-        <v>393</v>
-      </c>
+      <c r="BL120" s="1"/>
       <c r="BM120" s="1"/>
       <c r="BN120" s="1"/>
-      <c r="BO120" s="1" t="s">
-        <v>394</v>
-      </c>
+      <c r="BO120" s="1"/>
       <c r="BP120" s="1"/>
       <c r="BQ120" s="1"/>
       <c r="BR120" s="1"/>
@@ -14267,12 +14247,12 @@
       <c r="CE120" s="1"/>
       <c r="CF120" s="1"/>
       <c r="CG120" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="121" spans="1:85" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="121" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>362</v>
@@ -14334,12 +14314,8 @@
       <c r="AK121" s="1"/>
       <c r="AL121" s="1"/>
       <c r="AM121" s="1"/>
-      <c r="AN121" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AO121" s="1" t="s">
-        <v>390</v>
-      </c>
+      <c r="AN121" s="1"/>
+      <c r="AO121" s="1"/>
       <c r="AP121" s="1"/>
       <c r="AQ121" s="1"/>
       <c r="AR121" s="1"/>
@@ -14368,14 +14344,10 @@
       <c r="BI121" s="1"/>
       <c r="BJ121" s="1"/>
       <c r="BK121" s="1"/>
-      <c r="BL121" s="1" t="s">
-        <v>393</v>
-      </c>
+      <c r="BL121" s="1"/>
       <c r="BM121" s="1"/>
       <c r="BN121" s="1"/>
-      <c r="BO121" s="1" t="s">
-        <v>394</v>
-      </c>
+      <c r="BO121" s="1"/>
       <c r="BP121" s="1"/>
       <c r="BQ121" s="1"/>
       <c r="BR121" s="1"/>
@@ -14397,9 +14369,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="122" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="122" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>362</v>
@@ -14524,18 +14496,18 @@
         <v>363</v>
       </c>
     </row>
-    <row r="123" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="123" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>359</v>
+      <c r="C123" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D123" s="27" t="s">
+        <v>2</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -14543,7 +14515,7 @@
         <v>52</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>410</v>
+        <v>322</v>
       </c>
       <c r="I123" s="1"/>
       <c r="J123" s="2" t="s">
@@ -14651,9 +14623,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="124" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="124" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>362</v>
@@ -14778,18 +14750,18 @@
         <v>363</v>
       </c>
     </row>
-    <row r="125" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="125" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C125" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D125" s="27" t="s">
-        <v>2</v>
+      <c r="C125" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -14797,7 +14769,7 @@
         <v>52</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>322</v>
+        <v>410</v>
       </c>
       <c r="I125" s="1"/>
       <c r="J125" s="2" t="s">
@@ -14905,9 +14877,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="126" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="126" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>362</v>
@@ -15032,9 +15004,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="127" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="127" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>362</v>
@@ -15159,9 +15131,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="128" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="128" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>362</v>
@@ -15286,9 +15258,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="129" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="129" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>362</v>
@@ -15343,10 +15315,9 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
       <c r="AF129" s="1"/>
-      <c r="AG129" s="1">
-        <v>324353454</v>
-      </c>
+      <c r="AG129" s="1"/>
       <c r="AH129" s="1"/>
+      <c r="AI129" s="1"/>
       <c r="AJ129" s="1"/>
       <c r="AK129" s="1"/>
       <c r="AL129" s="1"/>
@@ -15414,9 +15385,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="130" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="130" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>362</v>
@@ -15473,9 +15444,7 @@
       <c r="AF130" s="1"/>
       <c r="AG130" s="1"/>
       <c r="AH130" s="1"/>
-      <c r="AI130" s="1" t="s">
-        <v>421</v>
-      </c>
+      <c r="AI130" s="1"/>
       <c r="AJ130" s="1"/>
       <c r="AK130" s="1"/>
       <c r="AL130" s="1"/>
@@ -15543,9 +15512,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="131" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="131" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>362</v>
@@ -15600,15 +15569,14 @@
       <c r="AD131" s="1"/>
       <c r="AE131" s="1"/>
       <c r="AF131" s="1"/>
-      <c r="AG131" s="1"/>
+      <c r="AG131" s="1">
+        <v>324353454</v>
+      </c>
       <c r="AH131" s="1"/>
-      <c r="AI131" s="1"/>
       <c r="AJ131" s="1"/>
       <c r="AK131" s="1"/>
       <c r="AL131" s="1"/>
-      <c r="AM131" s="26" t="s">
-        <v>420</v>
-      </c>
+      <c r="AM131" s="1"/>
       <c r="AN131" s="1" t="s">
         <v>389</v>
       </c>
@@ -15669,12 +15637,12 @@
       <c r="CE131" s="1"/>
       <c r="CF131" s="1"/>
       <c r="CG131" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="132" spans="1:85" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="132" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>362</v>
@@ -15731,11 +15699,11 @@
       <c r="AF132" s="1"/>
       <c r="AG132" s="1"/>
       <c r="AH132" s="1"/>
-      <c r="AI132" s="1"/>
+      <c r="AI132" s="1" t="s">
+        <v>421</v>
+      </c>
       <c r="AJ132" s="1"/>
-      <c r="AK132" s="1" t="s">
-        <v>419</v>
-      </c>
+      <c r="AK132" s="1"/>
       <c r="AL132" s="1"/>
       <c r="AM132" s="1"/>
       <c r="AN132" s="1" t="s">
@@ -15801,9 +15769,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="133" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="133" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>362</v>
@@ -15864,7 +15832,9 @@
       <c r="AJ133" s="1"/>
       <c r="AK133" s="1"/>
       <c r="AL133" s="1"/>
-      <c r="AM133" s="1"/>
+      <c r="AM133" s="26" t="s">
+        <v>420</v>
+      </c>
       <c r="AN133" s="1" t="s">
         <v>389</v>
       </c>
@@ -15928,9 +15898,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="134" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="134" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>362</v>
@@ -15989,7 +15959,9 @@
       <c r="AH134" s="1"/>
       <c r="AI134" s="1"/>
       <c r="AJ134" s="1"/>
-      <c r="AK134" s="1"/>
+      <c r="AK134" s="1" t="s">
+        <v>419</v>
+      </c>
       <c r="AL134" s="1"/>
       <c r="AM134" s="1"/>
       <c r="AN134" s="1" t="s">
@@ -16055,9 +16027,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="135" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="135" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>362</v>
@@ -16182,9 +16154,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="136" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="136" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>362</v>
@@ -16309,9 +16281,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="137" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="137" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>362</v>
@@ -16436,9 +16408,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="138" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="138" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>362</v>
@@ -16563,9 +16535,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="139" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="139" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>362</v>
@@ -16690,9 +16662,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="140" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="140" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>362</v>
@@ -16817,15 +16789,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="141" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="141" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C141" s="26" t="s">
-        <v>403</v>
+      <c r="C141" s="28" t="s">
+        <v>434</v>
       </c>
       <c r="D141" s="27" t="s">
         <v>2</v>
@@ -16944,15 +16916,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="142" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="142" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C142" s="26" t="s">
-        <v>403</v>
+      <c r="C142" s="28" t="s">
+        <v>434</v>
       </c>
       <c r="D142" s="27" t="s">
         <v>2</v>
@@ -16963,7 +16935,7 @@
         <v>52</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>410</v>
+        <v>322</v>
       </c>
       <c r="I142" s="1"/>
       <c r="J142" s="2" t="s">
@@ -17071,15 +17043,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="143" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="143" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C143" s="28" t="s">
-        <v>434</v>
+      <c r="C143" s="26" t="s">
+        <v>403</v>
       </c>
       <c r="D143" s="27" t="s">
         <v>2</v>
@@ -17198,15 +17170,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="144" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="144" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C144" s="28" t="s">
-        <v>434</v>
+      <c r="C144" s="26" t="s">
+        <v>403</v>
       </c>
       <c r="D144" s="27" t="s">
         <v>2</v>
@@ -17217,7 +17189,7 @@
         <v>52</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>322</v>
+        <v>410</v>
       </c>
       <c r="I144" s="1"/>
       <c r="J144" s="2" t="s">
@@ -17325,9 +17297,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="145" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="145" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>133</v>
+        <v>397</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>362</v>
@@ -17389,8 +17361,12 @@
       <c r="AK145" s="1"/>
       <c r="AL145" s="1"/>
       <c r="AM145" s="1"/>
-      <c r="AN145" s="1"/>
-      <c r="AO145" s="1"/>
+      <c r="AN145" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AO145" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="AP145" s="1"/>
       <c r="AQ145" s="1"/>
       <c r="AR145" s="1"/>
@@ -17403,30 +17379,30 @@
       <c r="AY145" s="1"/>
       <c r="AZ145" s="1"/>
       <c r="BA145" s="1" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="BB145" s="1"/>
       <c r="BC145" s="1"/>
       <c r="BD145" s="1"/>
       <c r="BE145" s="1"/>
-      <c r="BF145" s="1"/>
-      <c r="BG145" s="1"/>
-      <c r="BH145" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BI145" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BJ145" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK145" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="BL145" s="1"/>
+      <c r="BF145" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG145" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH145" s="1"/>
+      <c r="BI145" s="1"/>
+      <c r="BJ145" s="1"/>
+      <c r="BK145" s="1"/>
+      <c r="BL145" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="BM145" s="1"/>
       <c r="BN145" s="1"/>
-      <c r="BO145" s="1"/>
+      <c r="BO145" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="BP145" s="1"/>
       <c r="BQ145" s="1"/>
       <c r="BR145" s="1"/>
@@ -17448,18 +17424,18 @@
         <v>363</v>
       </c>
     </row>
-    <row r="146" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="146" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>334</v>
+        <v>392</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C146" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="D146" s="26" t="s">
-        <v>359</v>
+      <c r="C146" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D146" s="27" t="s">
+        <v>2</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -17512,8 +17488,12 @@
       <c r="AK146" s="1"/>
       <c r="AL146" s="1"/>
       <c r="AM146" s="1"/>
-      <c r="AN146" s="1"/>
-      <c r="AO146" s="1"/>
+      <c r="AN146" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AO146" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="AP146" s="1"/>
       <c r="AQ146" s="1"/>
       <c r="AR146" s="1"/>
@@ -17526,30 +17506,30 @@
       <c r="AY146" s="1"/>
       <c r="AZ146" s="1"/>
       <c r="BA146" s="1" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="BB146" s="1"/>
       <c r="BC146" s="1"/>
       <c r="BD146" s="1"/>
       <c r="BE146" s="1"/>
-      <c r="BF146" s="1"/>
-      <c r="BG146" s="1"/>
-      <c r="BH146" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BI146" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="BJ146" t="s">
-        <v>338</v>
-      </c>
-      <c r="BK146" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="BL146" s="1"/>
+      <c r="BF146" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG146" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH146" s="1"/>
+      <c r="BI146" s="1"/>
+      <c r="BJ146" s="1"/>
+      <c r="BK146" s="1"/>
+      <c r="BL146" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="BM146" s="1"/>
       <c r="BN146" s="1"/>
-      <c r="BO146" s="1"/>
+      <c r="BO146" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="BP146" s="1"/>
       <c r="BQ146" s="1"/>
       <c r="BR146" s="1"/>
@@ -17558,30 +17538,22 @@
       <c r="BU146" s="1"/>
       <c r="BV146" s="1"/>
       <c r="BW146" s="1"/>
-      <c r="BX146" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BY146" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="BZ146" t="s">
-        <v>340</v>
-      </c>
-      <c r="CA146" s="1" t="s">
-        <v>341</v>
-      </c>
+      <c r="BX146" s="1"/>
+      <c r="BY146" s="1"/>
+      <c r="BZ146" s="1"/>
+      <c r="CA146" s="1"/>
       <c r="CB146" s="1"/>
       <c r="CC146" s="1"/>
       <c r="CD146" s="1"/>
       <c r="CE146" s="1"/>
       <c r="CF146" s="1"/>
       <c r="CG146" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="147" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="147" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>362</v>
@@ -17657,25 +17629,26 @@
       <c r="AY147" s="1"/>
       <c r="AZ147" s="1"/>
       <c r="BA147" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BB147" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB147" s="1"/>
+      <c r="BC147" s="1"/>
+      <c r="BD147" s="1"/>
+      <c r="BE147" s="1"/>
+      <c r="BF147" s="1"/>
+      <c r="BG147" s="1"/>
+      <c r="BH147" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BI147" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="BD147" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE147" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF147" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="BG147" s="1"/>
-      <c r="BH147" s="1"/>
-      <c r="BI147" s="1"/>
-      <c r="BJ147" s="1"/>
-      <c r="BK147" s="1"/>
+      <c r="BJ147" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="BK147" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="BL147" s="1"/>
       <c r="BM147" s="1"/>
       <c r="BN147" s="1"/>
@@ -17698,21 +17671,21 @@
       <c r="CE147" s="1"/>
       <c r="CF147" s="1"/>
       <c r="CG147" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="148" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="148" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>138</v>
+        <v>334</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C148" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D148" s="27" t="s">
-        <v>2</v>
+      <c r="C148" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="D148" s="26" t="s">
+        <v>359</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -17779,22 +17752,26 @@
       <c r="AY148" s="1"/>
       <c r="AZ148" s="1"/>
       <c r="BA148" s="1" t="s">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="BB148" s="1"/>
       <c r="BC148" s="1"/>
       <c r="BD148" s="1"/>
       <c r="BE148" s="1"/>
-      <c r="BF148" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG148" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="BH148" s="1"/>
-      <c r="BI148" s="1"/>
-      <c r="BJ148" s="1"/>
-      <c r="BK148" s="1"/>
+      <c r="BF148" s="1"/>
+      <c r="BG148" s="1"/>
+      <c r="BH148" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI148" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="BJ148" t="s">
+        <v>338</v>
+      </c>
+      <c r="BK148" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="BL148" s="1"/>
       <c r="BM148" s="1"/>
       <c r="BN148" s="1"/>
@@ -17807,22 +17784,30 @@
       <c r="BU148" s="1"/>
       <c r="BV148" s="1"/>
       <c r="BW148" s="1"/>
-      <c r="BX148" s="1"/>
-      <c r="BY148" s="1"/>
-      <c r="BZ148" s="1"/>
-      <c r="CA148" s="1"/>
+      <c r="BX148" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BY148" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="BZ148" t="s">
+        <v>340</v>
+      </c>
+      <c r="CA148" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="CB148" s="1"/>
       <c r="CC148" s="1"/>
       <c r="CD148" s="1"/>
       <c r="CE148" s="1"/>
       <c r="CF148" s="1"/>
       <c r="CG148" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="149" spans="1:85" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="149" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>362</v>
@@ -17897,25 +17882,26 @@
       <c r="AX149" s="1"/>
       <c r="AY149" s="1"/>
       <c r="AZ149" s="1"/>
-      <c r="BA149" s="1"/>
-      <c r="BB149" s="1"/>
-      <c r="BC149" s="1"/>
-      <c r="BD149" s="1"/>
-      <c r="BE149" s="1"/>
-      <c r="BF149" s="1"/>
+      <c r="BA149" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BB149" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD149" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE149" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF149" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="BG149" s="1"/>
-      <c r="BH149" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BI149" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BJ149" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK149" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="BH149" s="1"/>
+      <c r="BI149" s="1"/>
+      <c r="BJ149" s="1"/>
+      <c r="BK149" s="1"/>
       <c r="BL149" s="1"/>
       <c r="BM149" s="1"/>
       <c r="BN149" s="1"/>
@@ -17938,18 +17924,18 @@
       <c r="CE149" s="1"/>
       <c r="CF149" s="1"/>
       <c r="CG149" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="150" spans="1:85" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="150" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>326</v>
+      <c r="C150" s="28" t="s">
+        <v>434</v>
       </c>
       <c r="D150" s="27" t="s">
         <v>2</v>
@@ -18019,21 +18005,18 @@
       <c r="AY150" s="1"/>
       <c r="AZ150" s="1"/>
       <c r="BA150" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BB150" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD150" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE150" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF150" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="BG150" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="BB150" s="1"/>
+      <c r="BC150" s="1"/>
+      <c r="BD150" s="1"/>
+      <c r="BE150" s="1"/>
+      <c r="BF150" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG150" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="BH150" s="1"/>
       <c r="BI150" s="1"/>
       <c r="BJ150" s="1"/>
@@ -18063,17 +18046,19 @@
         <v>363</v>
       </c>
     </row>
-    <row r="151" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="151" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D151" s="1"/>
+      <c r="C151" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D151" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="2" t="s">
@@ -18138,23 +18123,25 @@
       <c r="AX151" s="1"/>
       <c r="AY151" s="1"/>
       <c r="AZ151" s="1"/>
-      <c r="BA151" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="BA151" s="1"/>
       <c r="BB151" s="1"/>
       <c r="BC151" s="1"/>
       <c r="BD151" s="1"/>
       <c r="BE151" s="1"/>
-      <c r="BF151" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG151" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="BH151" s="1"/>
-      <c r="BI151" s="1"/>
-      <c r="BJ151" s="1"/>
-      <c r="BK151" s="1"/>
+      <c r="BF151" s="1"/>
+      <c r="BG151" s="1"/>
+      <c r="BH151" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI151" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ151" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="BK151" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="BL151" s="1"/>
       <c r="BM151" s="1"/>
       <c r="BN151" s="1"/>
@@ -18180,18 +18167,18 @@
         <v>363</v>
       </c>
     </row>
-    <row r="152" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="152" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>385</v>
+        <v>141</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C152" s="26" t="s">
-        <v>386</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>5</v>
+      <c r="C152" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D152" s="27" t="s">
+        <v>2</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -18258,18 +18245,21 @@
       <c r="AY152" s="1"/>
       <c r="AZ152" s="1"/>
       <c r="BA152" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BB152" s="1"/>
-      <c r="BC152" s="1"/>
-      <c r="BD152" s="1"/>
-      <c r="BE152" s="1"/>
-      <c r="BF152" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG152" s="4" t="s">
-        <v>131</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="BB152" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD152" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE152" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF152" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG152" s="1"/>
       <c r="BH152" s="1"/>
       <c r="BI152" s="1"/>
       <c r="BJ152" s="1"/>
@@ -18277,9 +18267,7 @@
       <c r="BL152" s="1"/>
       <c r="BM152" s="1"/>
       <c r="BN152" s="1"/>
-      <c r="BO152" s="1" t="s">
-        <v>394</v>
-      </c>
+      <c r="BO152" s="1"/>
       <c r="BP152" s="1"/>
       <c r="BQ152" s="1"/>
       <c r="BR152" s="1"/>
@@ -18298,22 +18286,20 @@
       <c r="CE152" s="1"/>
       <c r="CF152" s="1"/>
       <c r="CG152" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="153" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="153" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>396</v>
+        <v>142</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C153" s="26" t="s">
-        <v>386</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="C153" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="2" t="s">
@@ -18395,14 +18381,10 @@
       <c r="BI153" s="1"/>
       <c r="BJ153" s="1"/>
       <c r="BK153" s="1"/>
-      <c r="BL153" s="1" t="s">
-        <v>393</v>
-      </c>
+      <c r="BL153" s="1"/>
       <c r="BM153" s="1"/>
       <c r="BN153" s="1"/>
-      <c r="BO153" s="1" t="s">
-        <v>394</v>
-      </c>
+      <c r="BO153" s="1"/>
       <c r="BP153" s="1"/>
       <c r="BQ153" s="1"/>
       <c r="BR153" s="1"/>
@@ -18421,12 +18403,12 @@
       <c r="CE153" s="1"/>
       <c r="CF153" s="1"/>
       <c r="CG153" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="154" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="154" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>362</v>
@@ -18518,12 +18500,12 @@
       <c r="BI154" s="1"/>
       <c r="BJ154" s="1"/>
       <c r="BK154" s="1"/>
-      <c r="BL154" s="1" t="s">
-        <v>393</v>
-      </c>
+      <c r="BL154" s="1"/>
       <c r="BM154" s="1"/>
       <c r="BN154" s="1"/>
-      <c r="BO154" s="1"/>
+      <c r="BO154" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="BP154" s="1"/>
       <c r="BQ154" s="1"/>
       <c r="BR154" s="1"/>
@@ -18545,18 +18527,18 @@
         <v>361</v>
       </c>
     </row>
-    <row r="155" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="155" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>143</v>
+        <v>396</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D155" s="27" t="s">
-        <v>2</v>
+      <c r="C155" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -18622,29 +18604,31 @@
       <c r="AX155" s="1"/>
       <c r="AY155" s="1"/>
       <c r="AZ155" s="1"/>
-      <c r="BA155" s="1"/>
+      <c r="BA155" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="BB155" s="1"/>
       <c r="BC155" s="1"/>
       <c r="BD155" s="1"/>
       <c r="BE155" s="1"/>
-      <c r="BF155" s="1"/>
-      <c r="BG155" s="1"/>
-      <c r="BH155" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BI155" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BJ155" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK155" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="BL155" s="1"/>
+      <c r="BF155" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG155" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH155" s="1"/>
+      <c r="BI155" s="1"/>
+      <c r="BJ155" s="1"/>
+      <c r="BK155" s="1"/>
+      <c r="BL155" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="BM155" s="1"/>
       <c r="BN155" s="1"/>
-      <c r="BO155" s="1"/>
+      <c r="BO155" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="BP155" s="1"/>
       <c r="BQ155" s="1"/>
       <c r="BR155" s="1"/>
@@ -18663,26 +18647,24 @@
       <c r="CE155" s="1"/>
       <c r="CF155" s="1"/>
       <c r="CG155" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="156" spans="1:85" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="156" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>144</v>
+        <v>397</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>440</v>
-      </c>
-      <c r="D156" s="27" t="s">
-        <v>2</v>
+        <v>386</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E156" s="1"/>
-      <c r="F156" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="F156" s="1"/>
       <c r="G156" s="2" t="s">
         <v>52</v>
       </c>
@@ -18714,9 +18696,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
-      <c r="V156" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="V156" s="1"/>
       <c r="W156" s="1"/>
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
@@ -18727,19 +18707,13 @@
       <c r="AD156" s="1"/>
       <c r="AE156" s="1"/>
       <c r="AF156" s="1"/>
-      <c r="AG156" s="1" t="s">
-        <v>424</v>
-      </c>
+      <c r="AG156" s="1"/>
       <c r="AH156" s="1"/>
-      <c r="AI156" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AI156" s="1"/>
       <c r="AJ156" s="1"/>
       <c r="AK156" s="1"/>
       <c r="AL156" s="1"/>
-      <c r="AM156" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="AM156" s="1"/>
       <c r="AN156" s="1"/>
       <c r="AO156" s="1"/>
       <c r="AP156" s="1"/>
@@ -18754,26 +18728,25 @@
       <c r="AY156" s="1"/>
       <c r="AZ156" s="1"/>
       <c r="BA156" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BB156" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD156" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE156" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF156" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BG156" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="BB156" s="1"/>
+      <c r="BC156" s="1"/>
+      <c r="BD156" s="1"/>
+      <c r="BE156" s="1"/>
+      <c r="BF156" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG156" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="BH156" s="1"/>
       <c r="BI156" s="1"/>
       <c r="BJ156" s="1"/>
       <c r="BK156" s="1"/>
-      <c r="BL156" s="1"/>
+      <c r="BL156" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="BM156" s="1"/>
       <c r="BN156" s="1"/>
       <c r="BO156" s="1"/>
@@ -18795,26 +18768,24 @@
       <c r="CE156" s="1"/>
       <c r="CF156" s="1"/>
       <c r="CG156" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="157" spans="1:85" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="157" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C157" s="26" t="s">
-        <v>441</v>
+      <c r="C157" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="D157" s="27" t="s">
         <v>2</v>
       </c>
       <c r="E157" s="1"/>
-      <c r="F157" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="F157" s="1"/>
       <c r="G157" s="2" t="s">
         <v>52</v>
       </c>
@@ -18846,9 +18817,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
-      <c r="V157" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="V157" s="1"/>
       <c r="W157" s="1"/>
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
@@ -18859,19 +18828,13 @@
       <c r="AD157" s="1"/>
       <c r="AE157" s="1"/>
       <c r="AF157" s="1"/>
-      <c r="AG157" s="1" t="s">
-        <v>424</v>
-      </c>
+      <c r="AG157" s="1"/>
       <c r="AH157" s="1"/>
-      <c r="AI157" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AI157" s="1"/>
       <c r="AJ157" s="1"/>
       <c r="AK157" s="1"/>
       <c r="AL157" s="1"/>
-      <c r="AM157" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="AM157" s="1"/>
       <c r="AN157" s="1"/>
       <c r="AO157" s="1"/>
       <c r="AP157" s="1"/>
@@ -18885,23 +18848,25 @@
       <c r="AX157" s="1"/>
       <c r="AY157" s="1"/>
       <c r="AZ157" s="1"/>
-      <c r="BA157" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="BA157" s="1"/>
       <c r="BB157" s="1"/>
       <c r="BC157" s="1"/>
       <c r="BD157" s="1"/>
       <c r="BE157" s="1"/>
-      <c r="BF157" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG157" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="BH157" s="1"/>
-      <c r="BI157" s="1"/>
-      <c r="BJ157" s="1"/>
-      <c r="BK157" s="1"/>
+      <c r="BF157" s="1"/>
+      <c r="BG157" s="1"/>
+      <c r="BH157" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI157" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ157" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="BK157" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="BL157" s="1"/>
       <c r="BM157" s="1"/>
       <c r="BN157" s="1"/>
@@ -18924,18 +18889,18 @@
       <c r="CE157" s="1"/>
       <c r="CF157" s="1"/>
       <c r="CG157" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="158" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="158" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="D158" s="27" t="s">
         <v>2</v>
@@ -19014,25 +18979,26 @@
       <c r="AX158" s="1"/>
       <c r="AY158" s="1"/>
       <c r="AZ158" s="1"/>
-      <c r="BA158" s="1"/>
-      <c r="BB158" s="1"/>
-      <c r="BC158" s="1"/>
-      <c r="BD158" s="1"/>
-      <c r="BE158" s="1"/>
-      <c r="BF158" s="1"/>
+      <c r="BA158" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BB158" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD158" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE158" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF158" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="BG158" s="1"/>
-      <c r="BH158" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BI158" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BJ158" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK158" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="BH158" s="1"/>
+      <c r="BI158" s="1"/>
+      <c r="BJ158" s="1"/>
+      <c r="BK158" s="1"/>
       <c r="BL158" s="1"/>
       <c r="BM158" s="1"/>
       <c r="BN158" s="1"/>
@@ -19055,18 +19021,18 @@
       <c r="CE158" s="1"/>
       <c r="CF158" s="1"/>
       <c r="CG158" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="159" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="159" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>309</v>
+        <v>145</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="D159" s="27" t="s">
         <v>2</v>
@@ -19145,12 +19111,19 @@
       <c r="AX159" s="1"/>
       <c r="AY159" s="1"/>
       <c r="AZ159" s="1"/>
-      <c r="BA159" s="1"/>
-      <c r="BB159" s="4"/>
-      <c r="BD159" s="2"/>
-      <c r="BE159" s="3"/>
-      <c r="BF159" s="2"/>
-      <c r="BG159" s="1"/>
+      <c r="BA159" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BB159" s="1"/>
+      <c r="BC159" s="1"/>
+      <c r="BD159" s="1"/>
+      <c r="BE159" s="1"/>
+      <c r="BF159" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG159" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="BH159" s="1"/>
       <c r="BI159" s="1"/>
       <c r="BJ159" s="1"/>
@@ -19177,36 +19150,60 @@
       <c r="CE159" s="1"/>
       <c r="CF159" s="1"/>
       <c r="CG159" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="160" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A160" s="9" t="s">
-        <v>237</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="160" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
+      <c r="C160" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="D160" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
+      <c r="F160" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
+      <c r="J160" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="K160" t="s">
+        <v>1</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M160" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
+      <c r="P160" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
-      <c r="V160" s="1"/>
+      <c r="V160" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
@@ -19217,13 +19214,19 @@
       <c r="AD160" s="1"/>
       <c r="AE160" s="1"/>
       <c r="AF160" s="1"/>
-      <c r="AG160" s="1"/>
+      <c r="AG160" s="1" t="s">
+        <v>424</v>
+      </c>
       <c r="AH160" s="1"/>
-      <c r="AI160" s="1"/>
+      <c r="AI160" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ160" s="1"/>
       <c r="AK160" s="1"/>
       <c r="AL160" s="1"/>
-      <c r="AM160" s="1"/>
+      <c r="AM160" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AN160" s="1"/>
       <c r="AO160" s="1"/>
       <c r="AP160" s="1"/>
@@ -19244,10 +19247,18 @@
       <c r="BE160" s="1"/>
       <c r="BF160" s="1"/>
       <c r="BG160" s="1"/>
-      <c r="BH160" s="1"/>
-      <c r="BI160" s="11"/>
-      <c r="BJ160" s="1"/>
-      <c r="BK160" s="1"/>
+      <c r="BH160" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BI160" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ160" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="BK160" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="BL160" s="1"/>
       <c r="BM160" s="1"/>
       <c r="BN160" s="1"/>
@@ -19269,40 +19280,42 @@
       <c r="CD160" s="1"/>
       <c r="CE160" s="1"/>
       <c r="CF160" s="1"/>
-      <c r="CG160" s="1"/>
-    </row>
-    <row r="161" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG160" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="161" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C161" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="J161" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="K161" s="2" t="s">
-        <v>346</v>
+      <c r="C161" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="D161" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E161" s="1"/>
+      <c r="F161" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="I161" s="1"/>
+      <c r="J161" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="K161" t="s">
+        <v>1</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>347</v>
+        <v>4</v>
       </c>
       <c r="M161" s="2" t="s">
         <v>27</v>
@@ -19314,22 +19327,14 @@
       <c r="P161" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q161" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="R161" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="S161" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="T161" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="U161" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="V161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
+      <c r="T161" s="1"/>
+      <c r="U161" s="1"/>
+      <c r="V161" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
@@ -19341,14 +19346,18 @@
       <c r="AE161" s="1"/>
       <c r="AF161" s="1"/>
       <c r="AG161" s="1" t="s">
-        <v>348</v>
+        <v>424</v>
       </c>
       <c r="AH161" s="1"/>
-      <c r="AI161" s="1"/>
+      <c r="AI161" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ161" s="1"/>
       <c r="AK161" s="1"/>
       <c r="AL161" s="1"/>
-      <c r="AM161" s="1"/>
+      <c r="AM161" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AN161" s="1"/>
       <c r="AO161" s="1"/>
       <c r="AP161" s="1"/>
@@ -19362,24 +19371,14 @@
       <c r="AX161" s="1"/>
       <c r="AY161" s="1"/>
       <c r="AZ161" s="1"/>
-      <c r="BA161" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BB161" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD161" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE161" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF161" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="BA161" s="1"/>
+      <c r="BB161" s="4"/>
+      <c r="BD161" s="2"/>
+      <c r="BE161" s="3"/>
+      <c r="BF161" s="2"/>
       <c r="BG161" s="1"/>
       <c r="BH161" s="1"/>
-      <c r="BI161" s="11"/>
+      <c r="BI161" s="1"/>
       <c r="BJ161" s="1"/>
       <c r="BK161" s="1"/>
       <c r="BL161" s="1"/>
@@ -19402,69 +19401,37 @@
       <c r="CC161" s="1"/>
       <c r="CD161" s="1"/>
       <c r="CE161" s="1"/>
-      <c r="CF161" s="18"/>
+      <c r="CF161" s="1"/>
       <c r="CG161" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="162" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>246</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="162" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>237</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C162" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="D162" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="K162" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="L162" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="M162" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N162" s="1" t="s">
-        <v>232</v>
-      </c>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
       <c r="O162" s="1"/>
-      <c r="P162" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q162" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="R162" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="S162" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="T162" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="U162" s="1" t="s">
-        <v>243</v>
-      </c>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+      <c r="T162" s="1"/>
+      <c r="U162" s="1"/>
       <c r="V162" s="1"/>
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
@@ -19476,9 +19443,7 @@
       <c r="AD162" s="1"/>
       <c r="AE162" s="1"/>
       <c r="AF162" s="1"/>
-      <c r="AG162" s="1" t="s">
-        <v>379</v>
-      </c>
+      <c r="AG162" s="1"/>
       <c r="AH162" s="1"/>
       <c r="AI162" s="1"/>
       <c r="AJ162" s="1"/>
@@ -19498,21 +19463,12 @@
       <c r="AX162" s="1"/>
       <c r="AY162" s="1"/>
       <c r="AZ162" s="1"/>
-      <c r="BA162" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BB162" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD162" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE162" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF162" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="BA162" s="1"/>
+      <c r="BB162" s="1"/>
+      <c r="BC162" s="1"/>
+      <c r="BD162" s="1"/>
+      <c r="BE162" s="1"/>
+      <c r="BF162" s="1"/>
       <c r="BG162" s="1"/>
       <c r="BH162" s="1"/>
       <c r="BI162" s="11"/>
@@ -19538,28 +19494,30 @@
       <c r="CC162" s="1"/>
       <c r="CD162" s="1"/>
       <c r="CE162" s="1"/>
-      <c r="CF162" s="18"/>
-      <c r="CG162" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="163" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CF162" s="1"/>
+      <c r="CG162" s="1"/>
+    </row>
+    <row customFormat="1" r="163" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C163" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D163" s="11" t="s">
         <v>359</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="1"/>
+      <c r="G163" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="I163" s="1" t="s">
         <v>285</v>
       </c>
@@ -19570,7 +19528,7 @@
         <v>346</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="M163" s="2" t="s">
         <v>27</v>
@@ -19630,12 +19588,21 @@
       <c r="AX163" s="1"/>
       <c r="AY163" s="1"/>
       <c r="AZ163" s="1"/>
-      <c r="BA163" s="1"/>
-      <c r="BB163" s="1"/>
-      <c r="BC163" s="12"/>
-      <c r="BD163" s="1"/>
-      <c r="BE163" s="1"/>
-      <c r="BF163" s="1"/>
+      <c r="BA163" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BB163" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD163" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE163" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF163" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="BG163" s="1"/>
       <c r="BH163" s="1"/>
       <c r="BI163" s="11"/>
@@ -19663,49 +19630,47 @@
       <c r="CE163" s="1"/>
       <c r="CF163" s="18"/>
       <c r="CG163" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="164" spans="1:85" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="164" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C164" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="D164" s="27" t="s">
-        <v>2</v>
+      <c r="C164" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>359</v>
       </c>
       <c r="E164" s="3"/>
-      <c r="F164" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="F164" s="3"/>
       <c r="G164" s="3" t="s">
-        <v>238</v>
+        <v>5</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>239</v>
+        <v>5</v>
       </c>
       <c r="I164" s="1" t="s">
         <v>285</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>367</v>
+        <v>27</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>368</v>
+        <v>232</v>
       </c>
       <c r="O164" s="1"/>
       <c r="P164" s="1" t="s">
@@ -19738,7 +19703,7 @@
       <c r="AE164" s="1"/>
       <c r="AF164" s="1"/>
       <c r="AG164" s="1" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="AH164" s="1"/>
       <c r="AI164" s="1"/>
@@ -19759,12 +19724,21 @@
       <c r="AX164" s="1"/>
       <c r="AY164" s="1"/>
       <c r="AZ164" s="1"/>
-      <c r="BA164" s="1"/>
-      <c r="BB164" s="1"/>
-      <c r="BC164" s="12"/>
-      <c r="BD164" s="1"/>
-      <c r="BE164" s="1"/>
-      <c r="BF164" s="1"/>
+      <c r="BA164" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BB164" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD164" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE164" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF164" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="BG164" s="1"/>
       <c r="BH164" s="1"/>
       <c r="BI164" s="11"/>
@@ -19795,27 +19769,23 @@
         <v>363</v>
       </c>
     </row>
-    <row r="165" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A165" s="7" t="s">
-        <v>249</v>
+    <row customFormat="1" r="165" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C165" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>359</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
-      <c r="G165" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="G165" s="3"/>
+      <c r="H165" s="1"/>
       <c r="I165" s="1" t="s">
         <v>285</v>
       </c>
@@ -19886,21 +19856,12 @@
       <c r="AX165" s="1"/>
       <c r="AY165" s="1"/>
       <c r="AZ165" s="1"/>
-      <c r="BA165" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BB165" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD165" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE165" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF165" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="BA165" s="1"/>
+      <c r="BB165" s="1"/>
+      <c r="BC165" s="12"/>
+      <c r="BD165" s="1"/>
+      <c r="BE165" s="1"/>
+      <c r="BF165" s="1"/>
       <c r="BG165" s="1"/>
       <c r="BH165" s="1"/>
       <c r="BI165" s="11"/>
@@ -19931,40 +19892,46 @@
         <v>363</v>
       </c>
     </row>
-    <row r="166" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A166" s="7" t="s">
-        <v>250</v>
+    <row customFormat="1" r="166" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C166" s="28" t="s">
-        <v>430</v>
-      </c>
-      <c r="D166" s="11" t="s">
-        <v>359</v>
+      <c r="C166" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="D166" s="27" t="s">
+        <v>2</v>
       </c>
       <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="1"/>
+      <c r="F166" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="I166" s="1" t="s">
         <v>285</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>313</v>
+        <v>370</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>27</v>
+        <v>367</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>232</v>
+        <v>368</v>
       </c>
       <c r="O166" s="1"/>
       <c r="P166" s="1" t="s">
@@ -19997,7 +19964,7 @@
       <c r="AE166" s="1"/>
       <c r="AF166" s="1"/>
       <c r="AG166" s="1" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="AH166" s="1"/>
       <c r="AI166" s="1"/>
@@ -20018,21 +19985,12 @@
       <c r="AX166" s="1"/>
       <c r="AY166" s="1"/>
       <c r="AZ166" s="1"/>
-      <c r="BA166" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BB166" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD166" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE166" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF166" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="BA166" s="1"/>
+      <c r="BB166" s="1"/>
+      <c r="BC166" s="12"/>
+      <c r="BD166" s="1"/>
+      <c r="BE166" s="1"/>
+      <c r="BF166" s="1"/>
       <c r="BG166" s="1"/>
       <c r="BH166" s="1"/>
       <c r="BI166" s="11"/>
@@ -20063,23 +20021,27 @@
         <v>363</v>
       </c>
     </row>
-    <row r="167" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="167" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C167" s="28" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D167" s="11" t="s">
         <v>359</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
-      <c r="H167" s="1"/>
+      <c r="G167" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="I167" s="1" t="s">
         <v>285</v>
       </c>
@@ -20195,40 +20157,34 @@
         <v>363</v>
       </c>
     </row>
-    <row r="168" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="168" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C168" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="D168" s="27" t="s">
-        <v>2</v>
+      <c r="C168" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>359</v>
       </c>
       <c r="E168" s="3"/>
-      <c r="F168" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="1"/>
       <c r="I168" s="1" t="s">
         <v>285</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>241</v>
+        <v>313</v>
       </c>
       <c r="M168" s="2" t="s">
         <v>27</v>
@@ -20267,7 +20223,7 @@
       <c r="AE168" s="1"/>
       <c r="AF168" s="1"/>
       <c r="AG168" s="1" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="AH168" s="1"/>
       <c r="AI168" s="1"/>
@@ -20319,54 +20275,74 @@
       <c r="BT168" s="1"/>
       <c r="BU168" s="1"/>
       <c r="BV168" s="1"/>
-      <c r="BW168" s="12"/>
-      <c r="BX168" s="12"/>
-      <c r="BY168" s="12"/>
-      <c r="BZ168" s="12"/>
-      <c r="CA168" s="12"/>
-      <c r="CB168" s="12"/>
-      <c r="CC168" s="12"/>
-      <c r="CD168" s="12"/>
+      <c r="BW168" s="1"/>
+      <c r="BX168" s="1"/>
+      <c r="BY168" s="1"/>
+      <c r="BZ168" s="1"/>
+      <c r="CA168" s="1"/>
+      <c r="CB168" s="1"/>
+      <c r="CC168" s="1"/>
+      <c r="CD168" s="1"/>
       <c r="CE168" s="1"/>
       <c r="CF168" s="18"/>
       <c r="CG168" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="169" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="169" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C169" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D169" s="27" t="s">
-        <v>2</v>
+        <v>431</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>359</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
-      <c r="G169" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H169" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
-      <c r="K169" s="2"/>
-      <c r="L169" s="1"/>
-      <c r="M169" s="2"/>
-      <c r="N169" s="1"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="M169" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="O169" s="1"/>
-      <c r="P169" s="1"/>
-      <c r="Q169" s="11"/>
-      <c r="R169" s="10"/>
-      <c r="S169" s="10"/>
-      <c r="T169" s="1"/>
-      <c r="U169" s="1"/>
+      <c r="P169" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q169" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="R169" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="S169" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="T169" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="U169" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
       <c r="X169" s="1"/>
@@ -20378,7 +20354,9 @@
       <c r="AD169" s="1"/>
       <c r="AE169" s="1"/>
       <c r="AF169" s="1"/>
-      <c r="AG169" s="1"/>
+      <c r="AG169" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="AH169" s="1"/>
       <c r="AI169" s="1"/>
       <c r="AJ169" s="1"/>
@@ -20398,18 +20376,24 @@
       <c r="AX169" s="1"/>
       <c r="AY169" s="1"/>
       <c r="AZ169" s="1"/>
-      <c r="BA169" s="1"/>
-      <c r="BB169" s="4"/>
-      <c r="BD169" s="2"/>
-      <c r="BE169" s="3"/>
-      <c r="BF169" s="2"/>
+      <c r="BA169" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BB169" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD169" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE169" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF169" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="BG169" s="1"/>
-      <c r="BH169" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="BI169" s="11" t="s">
-        <v>349</v>
-      </c>
+      <c r="BH169" s="1"/>
+      <c r="BI169" s="11"/>
       <c r="BJ169" s="1"/>
       <c r="BK169" s="1"/>
       <c r="BL169" s="1"/>
@@ -20423,50 +20407,54 @@
       <c r="BT169" s="1"/>
       <c r="BU169" s="1"/>
       <c r="BV169" s="1"/>
-      <c r="BW169" s="12"/>
-      <c r="BX169" s="12"/>
-      <c r="BY169" s="12"/>
-      <c r="BZ169" s="12"/>
-      <c r="CA169" s="12"/>
-      <c r="CB169" s="12"/>
-      <c r="CC169" s="12"/>
-      <c r="CD169" s="12"/>
+      <c r="BW169" s="1"/>
+      <c r="BX169" s="1"/>
+      <c r="BY169" s="1"/>
+      <c r="BZ169" s="1"/>
+      <c r="CA169" s="1"/>
+      <c r="CB169" s="1"/>
+      <c r="CC169" s="1"/>
+      <c r="CD169" s="1"/>
       <c r="CE169" s="1"/>
       <c r="CF169" s="18"/>
       <c r="CG169" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="170" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="170" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>326</v>
+      <c r="C170" s="26" t="s">
+        <v>473</v>
       </c>
       <c r="D170" s="27" t="s">
         <v>2</v>
       </c>
       <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
+      <c r="F170" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="G170" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H170" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I170" s="1"/>
-      <c r="J170" s="2" t="s">
-        <v>424</v>
+        <v>238</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>1</v>
+        <v>381</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>4</v>
+        <v>241</v>
       </c>
       <c r="M170" s="2" t="s">
         <v>27</v>
@@ -20478,11 +20466,21 @@
       <c r="P170" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q170" s="11"/>
-      <c r="R170" s="1"/>
-      <c r="S170" s="1"/>
-      <c r="T170" s="1"/>
-      <c r="U170" s="1"/>
+      <c r="Q170" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="R170" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="S170" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="T170" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="U170" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
@@ -20494,7 +20492,9 @@
       <c r="AD170" s="1"/>
       <c r="AE170" s="1"/>
       <c r="AF170" s="1"/>
-      <c r="AG170" s="1"/>
+      <c r="AG170" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AH170" s="1"/>
       <c r="AI170" s="1"/>
       <c r="AJ170" s="1"/>
@@ -20515,25 +20515,25 @@
       <c r="AY170" s="1"/>
       <c r="AZ170" s="1"/>
       <c r="BA170" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BB170" s="4"/>
-      <c r="BD170" s="2"/>
-      <c r="BE170" s="3"/>
-      <c r="BF170" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="BB170" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD170" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE170" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF170" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="BG170" s="1"/>
-      <c r="BH170" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="BI170" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="BJ170" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="BK170" s="1" t="s">
-        <v>350</v>
-      </c>
+      <c r="BH170" s="1"/>
+      <c r="BI170" s="11"/>
+      <c r="BJ170" s="1"/>
+      <c r="BK170" s="1"/>
       <c r="BL170" s="1"/>
       <c r="BM170" s="1"/>
       <c r="BN170" s="1"/>
@@ -20556,57 +20556,43 @@
       <c r="CE170" s="1"/>
       <c r="CF170" s="18"/>
       <c r="CG170" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row ht="30" r="171" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="171" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>326</v>
+      <c r="C171" s="28" t="s">
+        <v>434</v>
       </c>
       <c r="D171" s="27" t="s">
         <v>2</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
-      <c r="I171" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="J171" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="K171" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="L171" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="G171" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="2"/>
+      <c r="L171" s="1"/>
       <c r="M171" s="2"/>
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
-      <c r="Q171" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="R171" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="S171" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="T171" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="U171" s="1" t="s">
-        <v>293</v>
-      </c>
+      <c r="Q171" s="11"/>
+      <c r="R171" s="10"/>
+      <c r="S171" s="10"/>
+      <c r="T171" s="1"/>
+      <c r="U171" s="1"/>
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
@@ -20618,9 +20604,7 @@
       <c r="AD171" s="1"/>
       <c r="AE171" s="1"/>
       <c r="AF171" s="1"/>
-      <c r="AG171" s="1" t="s">
-        <v>286</v>
-      </c>
+      <c r="AG171" s="1"/>
       <c r="AH171" s="1"/>
       <c r="AI171" s="1"/>
       <c r="AJ171" s="1"/>
@@ -20646,14 +20630,16 @@
       <c r="BE171" s="3"/>
       <c r="BF171" s="2"/>
       <c r="BG171" s="1"/>
-      <c r="BH171" s="1"/>
-      <c r="BI171" s="11"/>
+      <c r="BH171" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BI171" s="11" t="s">
+        <v>349</v>
+      </c>
       <c r="BJ171" s="1"/>
       <c r="BK171" s="1"/>
       <c r="BL171" s="1"/>
-      <c r="BM171" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="BM171" s="1"/>
       <c r="BN171" s="1"/>
       <c r="BO171" s="1"/>
       <c r="BP171" s="1"/>
@@ -20677,32 +20663,32 @@
         <v>361</v>
       </c>
     </row>
-    <row ht="30" r="172" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>446</v>
+    <row customFormat="1" r="172" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
+        <v>280</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D172" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D172" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="2" t="s">
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>322</v>
+        <v>58</v>
       </c>
       <c r="I172" s="1"/>
       <c r="J172" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K172" t="s">
+        <v>424</v>
+      </c>
+      <c r="K172" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L172" s="1" t="s">
@@ -20718,7 +20704,7 @@
       <c r="P172" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q172" s="1"/>
+      <c r="Q172" s="11"/>
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
@@ -20755,22 +20741,25 @@
       <c r="AY172" s="1"/>
       <c r="AZ172" s="1"/>
       <c r="BA172" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="BB172" s="1"/>
-      <c r="BC172" s="1"/>
-      <c r="BD172" s="1"/>
-      <c r="BE172" s="1"/>
-      <c r="BF172" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="BG172" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="BH172" s="1"/>
-      <c r="BI172" s="1"/>
-      <c r="BJ172" s="1"/>
-      <c r="BK172" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="BB172" s="4"/>
+      <c r="BD172" s="2"/>
+      <c r="BE172" s="3"/>
+      <c r="BF172" s="2"/>
+      <c r="BG172" s="1"/>
+      <c r="BH172" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BI172" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="BJ172" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="BK172" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="BL172" s="1"/>
       <c r="BM172" s="1"/>
       <c r="BN172" s="1"/>
@@ -20782,66 +20771,68 @@
       <c r="BT172" s="1"/>
       <c r="BU172" s="1"/>
       <c r="BV172" s="1"/>
-      <c r="BW172" s="1"/>
-      <c r="BX172" s="1"/>
-      <c r="BY172" s="1"/>
-      <c r="BZ172" s="1"/>
-      <c r="CA172" s="1"/>
-      <c r="CB172" s="1"/>
-      <c r="CC172" s="1"/>
-      <c r="CD172" s="1"/>
+      <c r="BW172" s="12"/>
+      <c r="BX172" s="12"/>
+      <c r="BY172" s="12"/>
+      <c r="BZ172" s="12"/>
+      <c r="CA172" s="12"/>
+      <c r="CB172" s="12"/>
+      <c r="CC172" s="12"/>
+      <c r="CD172" s="12"/>
       <c r="CE172" s="1"/>
-      <c r="CF172" s="1"/>
+      <c r="CF172" s="18"/>
       <c r="CG172" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row ht="30" r="173" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>450</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="173" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A173" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D173" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D173" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H173" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="I173" s="1"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="J173" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K173" t="s">
-        <v>1</v>
+        <v>289</v>
+      </c>
+      <c r="K173" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M173" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>232</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M173" s="2"/>
+      <c r="N173" s="1"/>
       <c r="O173" s="1"/>
-      <c r="P173" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q173" s="1"/>
-      <c r="R173" s="1"/>
-      <c r="S173" s="1"/>
-      <c r="T173" s="1"/>
-      <c r="U173" s="1"/>
+      <c r="P173" s="1"/>
+      <c r="Q173" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="R173" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="S173" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="T173" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="U173" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="V173" s="1"/>
       <c r="W173" s="1"/>
       <c r="X173" s="1"/>
@@ -20853,7 +20844,9 @@
       <c r="AD173" s="1"/>
       <c r="AE173" s="1"/>
       <c r="AF173" s="1"/>
-      <c r="AG173" s="1"/>
+      <c r="AG173" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="AH173" s="1"/>
       <c r="AI173" s="1"/>
       <c r="AJ173" s="1"/>
@@ -20873,25 +20866,20 @@
       <c r="AX173" s="1"/>
       <c r="AY173" s="1"/>
       <c r="AZ173" s="1"/>
-      <c r="BA173" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="BB173" s="1"/>
-      <c r="BC173" s="1"/>
-      <c r="BD173" s="1"/>
-      <c r="BE173" s="1"/>
-      <c r="BF173" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="BG173" s="4" t="s">
-        <v>449</v>
-      </c>
+      <c r="BA173" s="1"/>
+      <c r="BB173" s="4"/>
+      <c r="BD173" s="2"/>
+      <c r="BE173" s="3"/>
+      <c r="BF173" s="2"/>
+      <c r="BG173" s="1"/>
       <c r="BH173" s="1"/>
-      <c r="BI173" s="1"/>
+      <c r="BI173" s="11"/>
       <c r="BJ173" s="1"/>
       <c r="BK173" s="1"/>
       <c r="BL173" s="1"/>
-      <c r="BM173" s="1"/>
+      <c r="BM173" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="BN173" s="1"/>
       <c r="BO173" s="1"/>
       <c r="BP173" s="1"/>
@@ -20901,23 +20889,23 @@
       <c r="BT173" s="1"/>
       <c r="BU173" s="1"/>
       <c r="BV173" s="1"/>
-      <c r="BW173" s="1"/>
-      <c r="BX173" s="1"/>
-      <c r="BY173" s="1"/>
-      <c r="BZ173" s="1"/>
-      <c r="CA173" s="1"/>
-      <c r="CB173" s="1"/>
-      <c r="CC173" s="1"/>
-      <c r="CD173" s="1"/>
+      <c r="BW173" s="12"/>
+      <c r="BX173" s="12"/>
+      <c r="BY173" s="12"/>
+      <c r="BZ173" s="12"/>
+      <c r="CA173" s="12"/>
+      <c r="CB173" s="12"/>
+      <c r="CC173" s="12"/>
+      <c r="CD173" s="12"/>
       <c r="CE173" s="1"/>
-      <c r="CF173" s="1"/>
+      <c r="CF173" s="18"/>
       <c r="CG173" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row ht="30" r="174" spans="1:85" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="174" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>362</v>
@@ -20993,17 +20981,17 @@
       <c r="AY174" s="1"/>
       <c r="AZ174" s="1"/>
       <c r="BA174" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="BB174" s="1"/>
       <c r="BC174" s="1"/>
       <c r="BD174" s="1"/>
       <c r="BE174" s="1"/>
       <c r="BF174" s="1" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="BG174" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="BH174" s="1"/>
       <c r="BI174" s="1"/>
@@ -21034,9 +21022,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="175" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="175" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>362</v>
@@ -21112,17 +21100,17 @@
       <c r="AY175" s="1"/>
       <c r="AZ175" s="1"/>
       <c r="BA175" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="BB175" s="1"/>
       <c r="BC175" s="1"/>
       <c r="BD175" s="1"/>
       <c r="BE175" s="1"/>
       <c r="BF175" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="BG175" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="BH175" s="1"/>
       <c r="BI175" s="1"/>
@@ -21153,9 +21141,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="176" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="176" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>362</v>
@@ -21231,17 +21219,17 @@
       <c r="AY176" s="1"/>
       <c r="AZ176" s="1"/>
       <c r="BA176" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="BB176" s="1"/>
       <c r="BC176" s="1"/>
       <c r="BD176" s="1"/>
       <c r="BE176" s="1"/>
       <c r="BF176" s="1" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="BG176" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="BH176" s="1"/>
       <c r="BI176" s="1"/>
@@ -21272,9 +21260,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="177" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="177" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>362</v>
@@ -21350,17 +21338,17 @@
       <c r="AY177" s="1"/>
       <c r="AZ177" s="1"/>
       <c r="BA177" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="BB177" s="1"/>
       <c r="BC177" s="1"/>
       <c r="BD177" s="1"/>
       <c r="BE177" s="1"/>
       <c r="BF177" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="BG177" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="BH177" s="1"/>
       <c r="BI177" s="1"/>
@@ -21391,17 +21379,19 @@
         <v>363</v>
       </c>
     </row>
-    <row ht="30" r="178" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="178" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D178" s="1"/>
+        <v>434</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="2" t="s">
@@ -21467,17 +21457,17 @@
       <c r="AY178" s="1"/>
       <c r="AZ178" s="1"/>
       <c r="BA178" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="BB178" s="1"/>
       <c r="BC178" s="1"/>
       <c r="BD178" s="1"/>
       <c r="BE178" s="1"/>
       <c r="BF178" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="BG178" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="BH178" s="1"/>
       <c r="BI178" s="1"/>
@@ -21508,17 +21498,19 @@
         <v>363</v>
       </c>
     </row>
-    <row ht="30" r="179" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="179" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D179" s="1"/>
+        <v>434</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="2" t="s">
@@ -21584,17 +21576,17 @@
       <c r="AY179" s="1"/>
       <c r="AZ179" s="1"/>
       <c r="BA179" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="BB179" s="1"/>
       <c r="BC179" s="1"/>
       <c r="BD179" s="1"/>
       <c r="BE179" s="1"/>
       <c r="BF179" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="BG179" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="BH179" s="1"/>
       <c r="BI179" s="1"/>
@@ -21625,9 +21617,9 @@
         <v>363</v>
       </c>
     </row>
-    <row ht="30" r="180" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="180" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>362</v>
@@ -21701,17 +21693,17 @@
       <c r="AY180" s="1"/>
       <c r="AZ180" s="1"/>
       <c r="BA180" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="BB180" s="1"/>
       <c r="BC180" s="1"/>
       <c r="BD180" s="1"/>
       <c r="BE180" s="1"/>
       <c r="BF180" s="1" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="BG180" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="BH180" s="1"/>
       <c r="BI180" s="1"/>
@@ -21742,9 +21734,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="181" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="181" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>362</v>
@@ -21818,17 +21810,17 @@
       <c r="AY181" s="1"/>
       <c r="AZ181" s="1"/>
       <c r="BA181" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="BB181" s="1"/>
       <c r="BC181" s="1"/>
       <c r="BD181" s="1"/>
       <c r="BE181" s="1"/>
       <c r="BF181" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="BG181" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="BH181" s="1"/>
       <c r="BI181" s="1"/>
@@ -21859,9 +21851,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="182" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="182" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>362</v>
@@ -21935,17 +21927,17 @@
       <c r="AY182" s="1"/>
       <c r="AZ182" s="1"/>
       <c r="BA182" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="BB182" s="1"/>
       <c r="BC182" s="1"/>
       <c r="BD182" s="1"/>
       <c r="BE182" s="1"/>
       <c r="BF182" s="1" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="BG182" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="BH182" s="1"/>
       <c r="BI182" s="1"/>
@@ -21976,9 +21968,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="183" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="183" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>362</v>
@@ -22052,17 +22044,17 @@
       <c r="AY183" s="1"/>
       <c r="AZ183" s="1"/>
       <c r="BA183" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="BB183" s="1"/>
       <c r="BC183" s="1"/>
       <c r="BD183" s="1"/>
       <c r="BE183" s="1"/>
       <c r="BF183" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="BG183" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="BH183" s="1"/>
       <c r="BI183" s="1"/>
@@ -22090,22 +22082,20 @@
       <c r="CE183" s="1"/>
       <c r="CF183" s="1"/>
       <c r="CG183" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="184" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="184" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="2" t="s">
@@ -22171,14 +22161,18 @@
       <c r="AY184" s="1"/>
       <c r="AZ184" s="1"/>
       <c r="BA184" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="BB184" s="1"/>
       <c r="BC184" s="1"/>
       <c r="BD184" s="1"/>
       <c r="BE184" s="1"/>
-      <c r="BF184" s="1"/>
-      <c r="BG184" s="4"/>
+      <c r="BF184" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="BG184" s="4" t="s">
+        <v>442</v>
+      </c>
       <c r="BH184" s="1"/>
       <c r="BI184" s="1"/>
       <c r="BJ184" s="1"/>
@@ -22208,9 +22202,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="185" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="185" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>362</v>
@@ -22284,16 +22278,18 @@
       <c r="AY185" s="1"/>
       <c r="AZ185" s="1"/>
       <c r="BA185" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="BB185" s="1"/>
       <c r="BC185" s="1"/>
       <c r="BD185" s="1"/>
       <c r="BE185" s="1"/>
       <c r="BF185" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BG185" s="4"/>
+        <v>452</v>
+      </c>
+      <c r="BG185" s="4" t="s">
+        <v>442</v>
+      </c>
       <c r="BH185" s="1"/>
       <c r="BI185" s="1"/>
       <c r="BJ185" s="1"/>
@@ -22320,20 +22316,22 @@
       <c r="CE185" s="1"/>
       <c r="CF185" s="1"/>
       <c r="CG185" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="186" spans="1:85" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="186" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D186" s="1"/>
+        <v>434</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="2" t="s">
@@ -22399,18 +22397,14 @@
       <c r="AY186" s="1"/>
       <c r="AZ186" s="1"/>
       <c r="BA186" s="1" t="s">
-        <v>130</v>
+        <v>440</v>
       </c>
       <c r="BB186" s="1"/>
       <c r="BC186" s="1"/>
       <c r="BD186" s="1"/>
       <c r="BE186" s="1"/>
-      <c r="BF186" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG186" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="BF186" s="1"/>
+      <c r="BG186" s="4"/>
       <c r="BH186" s="1"/>
       <c r="BI186" s="1"/>
       <c r="BJ186" s="1"/>
@@ -22437,34 +22431,48 @@
       <c r="CE186" s="1"/>
       <c r="CF186" s="1"/>
       <c r="CG186" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="187" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A187" s="7" t="s">
-        <v>469</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="187" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C187" s="11"/>
+      <c r="C187" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
-      <c r="G187" s="1" t="s">
+      <c r="G187" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H187" s="1" t="s">
-        <v>470</v>
+      <c r="H187" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
-      <c r="K187" s="1"/>
-      <c r="L187" s="1"/>
-      <c r="M187" s="1"/>
-      <c r="N187" s="1"/>
+      <c r="J187" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K187" t="s">
+        <v>1</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M187" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N187" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="O187" s="1"/>
-      <c r="P187" s="1"/>
+      <c r="P187" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
@@ -22501,15 +22509,19 @@
       <c r="AX187" s="1"/>
       <c r="AY187" s="1"/>
       <c r="AZ187" s="1"/>
-      <c r="BA187" s="1"/>
+      <c r="BA187" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="BB187" s="1"/>
       <c r="BC187" s="1"/>
       <c r="BD187" s="1"/>
       <c r="BE187" s="1"/>
-      <c r="BF187" s="1"/>
-      <c r="BG187" s="1"/>
+      <c r="BF187" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG187" s="4"/>
       <c r="BH187" s="1"/>
-      <c r="BI187" s="11"/>
+      <c r="BI187" s="1"/>
       <c r="BJ187" s="1"/>
       <c r="BK187" s="1"/>
       <c r="BL187" s="1"/>
@@ -22532,14 +22544,14 @@
       <c r="CC187" s="1"/>
       <c r="CD187" s="1"/>
       <c r="CE187" s="1"/>
-      <c r="CF187" s="18"/>
+      <c r="CF187" s="1"/>
       <c r="CG187" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="188" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="188" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>362</v>
@@ -22554,7 +22566,7 @@
         <v>52</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="I188" s="1"/>
       <c r="J188" s="2" t="s">
@@ -22612,13 +22624,19 @@
       <c r="AX188" s="1"/>
       <c r="AY188" s="1"/>
       <c r="AZ188" s="1"/>
-      <c r="BA188" s="1"/>
+      <c r="BA188" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="BB188" s="1"/>
       <c r="BC188" s="1"/>
       <c r="BD188" s="1"/>
       <c r="BE188" s="1"/>
-      <c r="BF188" s="1"/>
-      <c r="BG188" s="4"/>
+      <c r="BF188" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG188" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="BH188" s="1"/>
       <c r="BI188" s="1"/>
       <c r="BJ188" s="1"/>
@@ -22648,15 +22666,23 @@
         <v>363</v>
       </c>
     </row>
-    <row r="189" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A189" s="7"/>
-      <c r="B189" s="1"/>
+    <row customFormat="1" r="189" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A189" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="C189" s="11"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
+      <c r="G189" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>463</v>
+      </c>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
@@ -22732,26 +22758,50 @@
       <c r="CC189" s="1"/>
       <c r="CD189" s="1"/>
       <c r="CE189" s="1"/>
-      <c r="CF189" s="1"/>
-      <c r="CG189" s="1"/>
-    </row>
-    <row r="190" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A190" s="7"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="11"/>
+      <c r="CF189" s="18"/>
+      <c r="CG189" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row customFormat="1" r="190" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
+      <c r="G190" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>463</v>
+      </c>
       <c r="I190" s="1"/>
-      <c r="J190" s="1"/>
-      <c r="K190" s="1"/>
-      <c r="L190" s="1"/>
-      <c r="M190" s="1"/>
-      <c r="N190" s="1"/>
+      <c r="J190" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K190" t="s">
+        <v>1</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M190" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="O190" s="1"/>
-      <c r="P190" s="1"/>
+      <c r="P190" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
@@ -22794,9 +22844,9 @@
       <c r="BD190" s="1"/>
       <c r="BE190" s="1"/>
       <c r="BF190" s="1"/>
-      <c r="BG190" s="1"/>
+      <c r="BG190" s="4"/>
       <c r="BH190" s="1"/>
-      <c r="BI190" s="11"/>
+      <c r="BI190" s="1"/>
       <c r="BJ190" s="1"/>
       <c r="BK190" s="1"/>
       <c r="BL190" s="1"/>
@@ -22820,9 +22870,11 @@
       <c r="CD190" s="1"/>
       <c r="CE190" s="1"/>
       <c r="CF190" s="1"/>
-      <c r="CG190" s="1"/>
-    </row>
-    <row r="191" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG190" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="191" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
       <c r="B191" s="1"/>
       <c r="C191" s="11"/>
@@ -22909,7 +22961,7 @@
       <c r="CF191" s="1"/>
       <c r="CG191" s="1"/>
     </row>
-    <row r="192" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="192" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A192" s="7"/>
       <c r="B192" s="1"/>
       <c r="C192" s="11"/>
@@ -22996,7 +23048,7 @@
       <c r="CF192" s="1"/>
       <c r="CG192" s="1"/>
     </row>
-    <row r="193" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="193" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A193" s="7"/>
       <c r="B193" s="1"/>
       <c r="C193" s="11"/>
@@ -23083,7 +23135,7 @@
       <c r="CF193" s="1"/>
       <c r="CG193" s="1"/>
     </row>
-    <row r="194" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="194" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A194" s="7"/>
       <c r="B194" s="1"/>
       <c r="C194" s="11"/>
@@ -23170,7 +23222,7 @@
       <c r="CF194" s="1"/>
       <c r="CG194" s="1"/>
     </row>
-    <row r="195" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="195" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A195" s="7"/>
       <c r="B195" s="1"/>
       <c r="C195" s="11"/>
@@ -23257,7 +23309,7 @@
       <c r="CF195" s="1"/>
       <c r="CG195" s="1"/>
     </row>
-    <row r="196" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="196" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A196" s="7"/>
       <c r="B196" s="1"/>
       <c r="C196" s="11"/>
@@ -23344,7 +23396,7 @@
       <c r="CF196" s="1"/>
       <c r="CG196" s="1"/>
     </row>
-    <row r="197" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="197" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A197" s="7"/>
       <c r="B197" s="1"/>
       <c r="C197" s="11"/>
@@ -23431,7 +23483,7 @@
       <c r="CF197" s="1"/>
       <c r="CG197" s="1"/>
     </row>
-    <row r="198" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="198" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
       <c r="B198" s="1"/>
       <c r="C198" s="11"/>
@@ -23518,7 +23570,7 @@
       <c r="CF198" s="1"/>
       <c r="CG198" s="1"/>
     </row>
-    <row r="199" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="199" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A199" s="7"/>
       <c r="B199" s="1"/>
       <c r="C199" s="11"/>
@@ -23605,7 +23657,7 @@
       <c r="CF199" s="1"/>
       <c r="CG199" s="1"/>
     </row>
-    <row r="200" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="200" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A200" s="7"/>
       <c r="B200" s="1"/>
       <c r="C200" s="11"/>
@@ -23692,7 +23744,7 @@
       <c r="CF200" s="1"/>
       <c r="CG200" s="1"/>
     </row>
-    <row r="201" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="201" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A201" s="7"/>
       <c r="B201" s="1"/>
       <c r="C201" s="11"/>
@@ -23779,7 +23831,7 @@
       <c r="CF201" s="1"/>
       <c r="CG201" s="1"/>
     </row>
-    <row r="202" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="202" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
       <c r="B202" s="1"/>
       <c r="C202" s="11"/>
@@ -23866,7 +23918,7 @@
       <c r="CF202" s="1"/>
       <c r="CG202" s="1"/>
     </row>
-    <row r="203" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="203" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A203" s="7"/>
       <c r="B203" s="1"/>
       <c r="C203" s="11"/>
@@ -23953,7 +24005,7 @@
       <c r="CF203" s="1"/>
       <c r="CG203" s="1"/>
     </row>
-    <row r="204" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="204" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A204" s="7"/>
       <c r="B204" s="1"/>
       <c r="C204" s="11"/>
@@ -24040,7 +24092,7 @@
       <c r="CF204" s="1"/>
       <c r="CG204" s="1"/>
     </row>
-    <row r="205" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="205" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A205" s="7"/>
       <c r="B205" s="1"/>
       <c r="C205" s="11"/>
@@ -24127,7 +24179,7 @@
       <c r="CF205" s="1"/>
       <c r="CG205" s="1"/>
     </row>
-    <row r="206" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="206" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A206" s="7"/>
       <c r="B206" s="1"/>
       <c r="C206" s="11"/>
@@ -24214,7 +24266,7 @@
       <c r="CF206" s="1"/>
       <c r="CG206" s="1"/>
     </row>
-    <row r="207" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="207" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A207" s="7"/>
       <c r="B207" s="1"/>
       <c r="C207" s="11"/>
@@ -24301,7 +24353,7 @@
       <c r="CF207" s="1"/>
       <c r="CG207" s="1"/>
     </row>
-    <row r="208" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="208" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A208" s="7"/>
       <c r="B208" s="1"/>
       <c r="C208" s="11"/>
@@ -24388,7 +24440,7 @@
       <c r="CF208" s="1"/>
       <c r="CG208" s="1"/>
     </row>
-    <row r="209" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="209" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A209" s="7"/>
       <c r="B209" s="1"/>
       <c r="C209" s="11"/>
@@ -24475,181 +24527,181 @@
       <c r="CF209" s="1"/>
       <c r="CG209" s="1"/>
     </row>
-    <row r="210" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A210" s="8"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
-      <c r="I210" s="2"/>
-      <c r="J210" s="2"/>
-      <c r="K210" s="2"/>
-      <c r="L210" s="2"/>
-      <c r="M210" s="2"/>
-      <c r="N210" s="2"/>
-      <c r="O210" s="2"/>
-      <c r="P210" s="2"/>
-      <c r="Q210" s="2"/>
-      <c r="R210" s="2"/>
-      <c r="S210" s="2"/>
-      <c r="T210" s="2"/>
-      <c r="U210" s="2"/>
-      <c r="V210" s="2"/>
-      <c r="W210" s="2"/>
-      <c r="X210" s="2"/>
-      <c r="Y210" s="2"/>
-      <c r="Z210" s="2"/>
-      <c r="AA210" s="2"/>
-      <c r="AB210" s="2"/>
-      <c r="AC210" s="2"/>
-      <c r="AD210" s="2"/>
-      <c r="AE210" s="2"/>
-      <c r="AF210" s="2"/>
-      <c r="AG210" s="2"/>
-      <c r="AH210" s="2"/>
-      <c r="AI210" s="2"/>
-      <c r="AJ210" s="2"/>
-      <c r="AK210" s="2"/>
-      <c r="AL210" s="2"/>
-      <c r="AM210" s="2"/>
-      <c r="AN210" s="2"/>
-      <c r="AO210" s="2"/>
-      <c r="AP210" s="2"/>
-      <c r="AQ210" s="2"/>
-      <c r="AR210" s="2"/>
-      <c r="AS210" s="2"/>
-      <c r="AT210" s="2"/>
-      <c r="AU210" s="2"/>
-      <c r="AV210" s="2"/>
-      <c r="AW210" s="2"/>
-      <c r="AX210" s="2"/>
-      <c r="AY210" s="2"/>
-      <c r="AZ210" s="2"/>
-      <c r="BA210" s="2"/>
-      <c r="BB210" s="2"/>
-      <c r="BC210" s="2"/>
-      <c r="BD210" s="2"/>
-      <c r="BE210" s="2"/>
-      <c r="BF210" s="2"/>
-      <c r="BG210" s="2"/>
-      <c r="BH210" s="2"/>
-      <c r="BI210" s="3"/>
-      <c r="BJ210" s="2"/>
-      <c r="BK210" s="2"/>
-      <c r="BL210" s="2"/>
-      <c r="BM210" s="2"/>
-      <c r="BN210" s="2"/>
-      <c r="BO210" s="2"/>
-      <c r="BP210" s="2"/>
-      <c r="BQ210" s="2"/>
-      <c r="BR210" s="2"/>
-      <c r="BS210" s="2"/>
-      <c r="BT210" s="2"/>
-      <c r="BU210" s="2"/>
-      <c r="BV210" s="2"/>
-      <c r="BW210" s="2"/>
-      <c r="BX210" s="2"/>
-      <c r="BY210" s="2"/>
-      <c r="BZ210" s="2"/>
-      <c r="CA210" s="2"/>
-      <c r="CB210" s="2"/>
-      <c r="CC210" s="2"/>
-      <c r="CD210" s="2"/>
-      <c r="CE210" s="2"/>
-      <c r="CF210" s="2"/>
-      <c r="CG210" s="2"/>
-    </row>
-    <row r="211" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A211" s="8"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="2"/>
-      <c r="J211" s="2"/>
-      <c r="K211" s="2"/>
-      <c r="L211" s="2"/>
-      <c r="M211" s="2"/>
-      <c r="N211" s="2"/>
-      <c r="O211" s="2"/>
-      <c r="P211" s="2"/>
-      <c r="Q211" s="2"/>
-      <c r="R211" s="2"/>
-      <c r="S211" s="2"/>
-      <c r="T211" s="2"/>
-      <c r="U211" s="2"/>
-      <c r="V211" s="2"/>
-      <c r="W211" s="2"/>
-      <c r="X211" s="2"/>
-      <c r="Y211" s="2"/>
-      <c r="Z211" s="2"/>
-      <c r="AA211" s="2"/>
-      <c r="AB211" s="2"/>
-      <c r="AC211" s="2"/>
-      <c r="AD211" s="2"/>
-      <c r="AE211" s="2"/>
-      <c r="AF211" s="2"/>
-      <c r="AG211" s="2"/>
-      <c r="AH211" s="2"/>
-      <c r="AI211" s="2"/>
-      <c r="AJ211" s="2"/>
-      <c r="AK211" s="2"/>
-      <c r="AL211" s="2"/>
-      <c r="AM211" s="2"/>
-      <c r="AN211" s="2"/>
-      <c r="AO211" s="2"/>
-      <c r="AP211" s="2"/>
-      <c r="AQ211" s="2"/>
-      <c r="AR211" s="2"/>
-      <c r="AS211" s="2"/>
-      <c r="AT211" s="2"/>
-      <c r="AU211" s="2"/>
-      <c r="AV211" s="2"/>
-      <c r="AW211" s="2"/>
-      <c r="AX211" s="2"/>
-      <c r="AY211" s="2"/>
-      <c r="AZ211" s="2"/>
-      <c r="BA211" s="2"/>
-      <c r="BB211" s="2"/>
-      <c r="BC211" s="2"/>
-      <c r="BD211" s="2"/>
-      <c r="BE211" s="2"/>
-      <c r="BF211" s="2"/>
-      <c r="BG211" s="2"/>
-      <c r="BH211" s="2"/>
-      <c r="BI211" s="3"/>
-      <c r="BJ211" s="2"/>
-      <c r="BK211" s="2"/>
-      <c r="BL211" s="2"/>
-      <c r="BM211" s="2"/>
-      <c r="BN211" s="2"/>
-      <c r="BO211" s="2"/>
-      <c r="BP211" s="2"/>
-      <c r="BQ211" s="2"/>
-      <c r="BR211" s="2"/>
-      <c r="BS211" s="2"/>
-      <c r="BT211" s="2"/>
-      <c r="BU211" s="2"/>
-      <c r="BV211" s="2"/>
-      <c r="BW211" s="2"/>
-      <c r="BX211" s="2"/>
-      <c r="BY211" s="2"/>
-      <c r="BZ211" s="2"/>
-      <c r="CA211" s="2"/>
-      <c r="CB211" s="2"/>
-      <c r="CC211" s="2"/>
-      <c r="CD211" s="2"/>
-      <c r="CE211" s="2"/>
-      <c r="CF211" s="2"/>
-      <c r="CG211" s="2"/>
-    </row>
-    <row r="212" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="210" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A210" s="7"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="11"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
+      <c r="U210" s="1"/>
+      <c r="V210" s="1"/>
+      <c r="W210" s="1"/>
+      <c r="X210" s="1"/>
+      <c r="Y210" s="1"/>
+      <c r="Z210" s="1"/>
+      <c r="AA210" s="1"/>
+      <c r="AB210" s="1"/>
+      <c r="AC210" s="1"/>
+      <c r="AD210" s="1"/>
+      <c r="AE210" s="1"/>
+      <c r="AF210" s="1"/>
+      <c r="AG210" s="1"/>
+      <c r="AH210" s="1"/>
+      <c r="AI210" s="1"/>
+      <c r="AJ210" s="1"/>
+      <c r="AK210" s="1"/>
+      <c r="AL210" s="1"/>
+      <c r="AM210" s="1"/>
+      <c r="AN210" s="1"/>
+      <c r="AO210" s="1"/>
+      <c r="AP210" s="1"/>
+      <c r="AQ210" s="1"/>
+      <c r="AR210" s="1"/>
+      <c r="AS210" s="1"/>
+      <c r="AT210" s="1"/>
+      <c r="AU210" s="1"/>
+      <c r="AV210" s="1"/>
+      <c r="AW210" s="1"/>
+      <c r="AX210" s="1"/>
+      <c r="AY210" s="1"/>
+      <c r="AZ210" s="1"/>
+      <c r="BA210" s="1"/>
+      <c r="BB210" s="1"/>
+      <c r="BC210" s="1"/>
+      <c r="BD210" s="1"/>
+      <c r="BE210" s="1"/>
+      <c r="BF210" s="1"/>
+      <c r="BG210" s="1"/>
+      <c r="BH210" s="1"/>
+      <c r="BI210" s="11"/>
+      <c r="BJ210" s="1"/>
+      <c r="BK210" s="1"/>
+      <c r="BL210" s="1"/>
+      <c r="BM210" s="1"/>
+      <c r="BN210" s="1"/>
+      <c r="BO210" s="1"/>
+      <c r="BP210" s="1"/>
+      <c r="BQ210" s="1"/>
+      <c r="BR210" s="1"/>
+      <c r="BS210" s="1"/>
+      <c r="BT210" s="1"/>
+      <c r="BU210" s="1"/>
+      <c r="BV210" s="1"/>
+      <c r="BW210" s="1"/>
+      <c r="BX210" s="1"/>
+      <c r="BY210" s="1"/>
+      <c r="BZ210" s="1"/>
+      <c r="CA210" s="1"/>
+      <c r="CB210" s="1"/>
+      <c r="CC210" s="1"/>
+      <c r="CD210" s="1"/>
+      <c r="CE210" s="1"/>
+      <c r="CF210" s="1"/>
+      <c r="CG210" s="1"/>
+    </row>
+    <row customFormat="1" r="211" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A211" s="7"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="11"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="S211" s="1"/>
+      <c r="T211" s="1"/>
+      <c r="U211" s="1"/>
+      <c r="V211" s="1"/>
+      <c r="W211" s="1"/>
+      <c r="X211" s="1"/>
+      <c r="Y211" s="1"/>
+      <c r="Z211" s="1"/>
+      <c r="AA211" s="1"/>
+      <c r="AB211" s="1"/>
+      <c r="AC211" s="1"/>
+      <c r="AD211" s="1"/>
+      <c r="AE211" s="1"/>
+      <c r="AF211" s="1"/>
+      <c r="AG211" s="1"/>
+      <c r="AH211" s="1"/>
+      <c r="AI211" s="1"/>
+      <c r="AJ211" s="1"/>
+      <c r="AK211" s="1"/>
+      <c r="AL211" s="1"/>
+      <c r="AM211" s="1"/>
+      <c r="AN211" s="1"/>
+      <c r="AO211" s="1"/>
+      <c r="AP211" s="1"/>
+      <c r="AQ211" s="1"/>
+      <c r="AR211" s="1"/>
+      <c r="AS211" s="1"/>
+      <c r="AT211" s="1"/>
+      <c r="AU211" s="1"/>
+      <c r="AV211" s="1"/>
+      <c r="AW211" s="1"/>
+      <c r="AX211" s="1"/>
+      <c r="AY211" s="1"/>
+      <c r="AZ211" s="1"/>
+      <c r="BA211" s="1"/>
+      <c r="BB211" s="1"/>
+      <c r="BC211" s="1"/>
+      <c r="BD211" s="1"/>
+      <c r="BE211" s="1"/>
+      <c r="BF211" s="1"/>
+      <c r="BG211" s="1"/>
+      <c r="BH211" s="1"/>
+      <c r="BI211" s="11"/>
+      <c r="BJ211" s="1"/>
+      <c r="BK211" s="1"/>
+      <c r="BL211" s="1"/>
+      <c r="BM211" s="1"/>
+      <c r="BN211" s="1"/>
+      <c r="BO211" s="1"/>
+      <c r="BP211" s="1"/>
+      <c r="BQ211" s="1"/>
+      <c r="BR211" s="1"/>
+      <c r="BS211" s="1"/>
+      <c r="BT211" s="1"/>
+      <c r="BU211" s="1"/>
+      <c r="BV211" s="1"/>
+      <c r="BW211" s="1"/>
+      <c r="BX211" s="1"/>
+      <c r="BY211" s="1"/>
+      <c r="BZ211" s="1"/>
+      <c r="CA211" s="1"/>
+      <c r="CB211" s="1"/>
+      <c r="CC211" s="1"/>
+      <c r="CD211" s="1"/>
+      <c r="CE211" s="1"/>
+      <c r="CF211" s="1"/>
+      <c r="CG211" s="1"/>
+    </row>
+    <row customFormat="1" r="212" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A212" s="8"/>
       <c r="B212" s="2"/>
       <c r="C212" s="3"/>
@@ -24736,7 +24788,7 @@
       <c r="CF212" s="2"/>
       <c r="CG212" s="2"/>
     </row>
-    <row r="213" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="213" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A213" s="8"/>
       <c r="B213" s="2"/>
       <c r="C213" s="3"/>
@@ -24823,7 +24875,7 @@
       <c r="CF213" s="2"/>
       <c r="CG213" s="2"/>
     </row>
-    <row r="214" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="214" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A214" s="8"/>
       <c r="B214" s="2"/>
       <c r="C214" s="3"/>
@@ -24910,7 +24962,7 @@
       <c r="CF214" s="2"/>
       <c r="CG214" s="2"/>
     </row>
-    <row r="215" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="215" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A215" s="8"/>
       <c r="B215" s="2"/>
       <c r="C215" s="3"/>
@@ -24997,7 +25049,7 @@
       <c r="CF215" s="2"/>
       <c r="CG215" s="2"/>
     </row>
-    <row r="216" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="216" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A216" s="8"/>
       <c r="B216" s="2"/>
       <c r="C216" s="3"/>
@@ -25084,7 +25136,7 @@
       <c r="CF216" s="2"/>
       <c r="CG216" s="2"/>
     </row>
-    <row r="217" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="217" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A217" s="8"/>
       <c r="B217" s="2"/>
       <c r="C217" s="3"/>
@@ -25171,7 +25223,7 @@
       <c r="CF217" s="2"/>
       <c r="CG217" s="2"/>
     </row>
-    <row r="218" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="218" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A218" s="8"/>
       <c r="B218" s="2"/>
       <c r="C218" s="3"/>
@@ -25258,7 +25310,7 @@
       <c r="CF218" s="2"/>
       <c r="CG218" s="2"/>
     </row>
-    <row r="219" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="219" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A219" s="8"/>
       <c r="B219" s="2"/>
       <c r="C219" s="3"/>
@@ -25345,7 +25397,7 @@
       <c r="CF219" s="2"/>
       <c r="CG219" s="2"/>
     </row>
-    <row r="220" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="220" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A220" s="8"/>
       <c r="B220" s="2"/>
       <c r="C220" s="3"/>
@@ -25432,7 +25484,7 @@
       <c r="CF220" s="2"/>
       <c r="CG220" s="2"/>
     </row>
-    <row r="221" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="221" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A221" s="8"/>
       <c r="B221" s="2"/>
       <c r="C221" s="3"/>
@@ -25519,7 +25571,7 @@
       <c r="CF221" s="2"/>
       <c r="CG221" s="2"/>
     </row>
-    <row r="222" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="222" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A222" s="8"/>
       <c r="B222" s="2"/>
       <c r="C222" s="3"/>
@@ -25606,7 +25658,7 @@
       <c r="CF222" s="2"/>
       <c r="CG222" s="2"/>
     </row>
-    <row r="223" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="223" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A223" s="8"/>
       <c r="B223" s="2"/>
       <c r="C223" s="3"/>
@@ -25693,7 +25745,7 @@
       <c r="CF223" s="2"/>
       <c r="CG223" s="2"/>
     </row>
-    <row r="224" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="224" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A224" s="8"/>
       <c r="B224" s="2"/>
       <c r="C224" s="3"/>
@@ -25780,7 +25832,7 @@
       <c r="CF224" s="2"/>
       <c r="CG224" s="2"/>
     </row>
-    <row r="225" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="225" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A225" s="8"/>
       <c r="B225" s="2"/>
       <c r="C225" s="3"/>
@@ -25867,7 +25919,7 @@
       <c r="CF225" s="2"/>
       <c r="CG225" s="2"/>
     </row>
-    <row r="226" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="226" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A226" s="8"/>
       <c r="B226" s="2"/>
       <c r="C226" s="3"/>
@@ -25954,7 +26006,7 @@
       <c r="CF226" s="2"/>
       <c r="CG226" s="2"/>
     </row>
-    <row r="227" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="227" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A227" s="8"/>
       <c r="B227" s="2"/>
       <c r="C227" s="3"/>
@@ -26041,7 +26093,7 @@
       <c r="CF227" s="2"/>
       <c r="CG227" s="2"/>
     </row>
-    <row r="228" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="228" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A228" s="8"/>
       <c r="B228" s="2"/>
       <c r="C228" s="3"/>
@@ -26128,7 +26180,7 @@
       <c r="CF228" s="2"/>
       <c r="CG228" s="2"/>
     </row>
-    <row r="229" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="229" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A229" s="8"/>
       <c r="B229" s="2"/>
       <c r="C229" s="3"/>
@@ -26215,7 +26267,7 @@
       <c r="CF229" s="2"/>
       <c r="CG229" s="2"/>
     </row>
-    <row r="230" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="230" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A230" s="8"/>
       <c r="B230" s="2"/>
       <c r="C230" s="3"/>
@@ -26302,7 +26354,7 @@
       <c r="CF230" s="2"/>
       <c r="CG230" s="2"/>
     </row>
-    <row r="231" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="231" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A231" s="8"/>
       <c r="B231" s="2"/>
       <c r="C231" s="3"/>
@@ -26389,7 +26441,7 @@
       <c r="CF231" s="2"/>
       <c r="CG231" s="2"/>
     </row>
-    <row r="232" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="232" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A232" s="8"/>
       <c r="B232" s="2"/>
       <c r="C232" s="3"/>
@@ -26476,7 +26528,7 @@
       <c r="CF232" s="2"/>
       <c r="CG232" s="2"/>
     </row>
-    <row r="233" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="233" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A233" s="8"/>
       <c r="B233" s="2"/>
       <c r="C233" s="3"/>
@@ -26563,7 +26615,7 @@
       <c r="CF233" s="2"/>
       <c r="CG233" s="2"/>
     </row>
-    <row r="234" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="234" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A234" s="8"/>
       <c r="B234" s="2"/>
       <c r="C234" s="3"/>
@@ -26650,7 +26702,7 @@
       <c r="CF234" s="2"/>
       <c r="CG234" s="2"/>
     </row>
-    <row r="235" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="235" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A235" s="8"/>
       <c r="B235" s="2"/>
       <c r="C235" s="3"/>
@@ -26737,7 +26789,7 @@
       <c r="CF235" s="2"/>
       <c r="CG235" s="2"/>
     </row>
-    <row r="236" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="236" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A236" s="8"/>
       <c r="B236" s="2"/>
       <c r="C236" s="3"/>
@@ -26824,7 +26876,7 @@
       <c r="CF236" s="2"/>
       <c r="CG236" s="2"/>
     </row>
-    <row r="237" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="237" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A237" s="8"/>
       <c r="B237" s="2"/>
       <c r="C237" s="3"/>
@@ -26911,7 +26963,7 @@
       <c r="CF237" s="2"/>
       <c r="CG237" s="2"/>
     </row>
-    <row r="238" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="238" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A238" s="8"/>
       <c r="B238" s="2"/>
       <c r="C238" s="3"/>
@@ -26998,7 +27050,7 @@
       <c r="CF238" s="2"/>
       <c r="CG238" s="2"/>
     </row>
-    <row r="239" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="239" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A239" s="8"/>
       <c r="B239" s="2"/>
       <c r="C239" s="3"/>
@@ -27085,7 +27137,7 @@
       <c r="CF239" s="2"/>
       <c r="CG239" s="2"/>
     </row>
-    <row r="240" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="240" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A240" s="8"/>
       <c r="B240" s="2"/>
       <c r="C240" s="3"/>
@@ -27172,7 +27224,7 @@
       <c r="CF240" s="2"/>
       <c r="CG240" s="2"/>
     </row>
-    <row r="241" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="241" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A241" s="8"/>
       <c r="B241" s="2"/>
       <c r="C241" s="3"/>
@@ -27259,7 +27311,7 @@
       <c r="CF241" s="2"/>
       <c r="CG241" s="2"/>
     </row>
-    <row r="242" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="242" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
       <c r="B242" s="2"/>
       <c r="C242" s="3"/>
@@ -27346,7 +27398,7 @@
       <c r="CF242" s="2"/>
       <c r="CG242" s="2"/>
     </row>
-    <row r="243" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="243" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A243" s="8"/>
       <c r="B243" s="2"/>
       <c r="C243" s="3"/>
@@ -27433,7 +27485,7 @@
       <c r="CF243" s="2"/>
       <c r="CG243" s="2"/>
     </row>
-    <row r="244" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="244" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A244" s="8"/>
       <c r="B244" s="2"/>
       <c r="C244" s="3"/>
@@ -27520,7 +27572,7 @@
       <c r="CF244" s="2"/>
       <c r="CG244" s="2"/>
     </row>
-    <row r="245" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="245" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A245" s="8"/>
       <c r="B245" s="2"/>
       <c r="C245" s="3"/>
@@ -27607,7 +27659,7 @@
       <c r="CF245" s="2"/>
       <c r="CG245" s="2"/>
     </row>
-    <row r="246" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="246" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A246" s="8"/>
       <c r="B246" s="2"/>
       <c r="C246" s="3"/>
@@ -27694,7 +27746,7 @@
       <c r="CF246" s="2"/>
       <c r="CG246" s="2"/>
     </row>
-    <row r="247" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="247" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A247" s="8"/>
       <c r="B247" s="2"/>
       <c r="C247" s="3"/>
@@ -27781,7 +27833,7 @@
       <c r="CF247" s="2"/>
       <c r="CG247" s="2"/>
     </row>
-    <row r="248" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="248" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A248" s="8"/>
       <c r="B248" s="2"/>
       <c r="C248" s="3"/>
@@ -27868,7 +27920,7 @@
       <c r="CF248" s="2"/>
       <c r="CG248" s="2"/>
     </row>
-    <row r="249" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="249" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A249" s="8"/>
       <c r="B249" s="2"/>
       <c r="C249" s="3"/>
@@ -27955,7 +28007,7 @@
       <c r="CF249" s="2"/>
       <c r="CG249" s="2"/>
     </row>
-    <row r="250" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="250" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A250" s="8"/>
       <c r="B250" s="2"/>
       <c r="C250" s="3"/>
@@ -28042,7 +28094,7 @@
       <c r="CF250" s="2"/>
       <c r="CG250" s="2"/>
     </row>
-    <row r="251" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="251" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A251" s="8"/>
       <c r="B251" s="2"/>
       <c r="C251" s="3"/>
@@ -28129,7 +28181,7 @@
       <c r="CF251" s="2"/>
       <c r="CG251" s="2"/>
     </row>
-    <row r="252" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="252" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A252" s="8"/>
       <c r="B252" s="2"/>
       <c r="C252" s="3"/>
@@ -28216,7 +28268,7 @@
       <c r="CF252" s="2"/>
       <c r="CG252" s="2"/>
     </row>
-    <row r="253" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="253" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A253" s="8"/>
       <c r="B253" s="2"/>
       <c r="C253" s="3"/>
@@ -28303,7 +28355,7 @@
       <c r="CF253" s="2"/>
       <c r="CG253" s="2"/>
     </row>
-    <row r="254" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="254" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A254" s="8"/>
       <c r="B254" s="2"/>
       <c r="C254" s="3"/>
@@ -28390,7 +28442,7 @@
       <c r="CF254" s="2"/>
       <c r="CG254" s="2"/>
     </row>
-    <row r="255" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="255" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A255" s="8"/>
       <c r="B255" s="2"/>
       <c r="C255" s="3"/>
@@ -28477,7 +28529,7 @@
       <c r="CF255" s="2"/>
       <c r="CG255" s="2"/>
     </row>
-    <row r="256" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="256" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A256" s="8"/>
       <c r="B256" s="2"/>
       <c r="C256" s="3"/>
@@ -28564,7 +28616,7 @@
       <c r="CF256" s="2"/>
       <c r="CG256" s="2"/>
     </row>
-    <row r="257" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="257" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A257" s="8"/>
       <c r="B257" s="2"/>
       <c r="C257" s="3"/>
@@ -28651,7 +28703,7 @@
       <c r="CF257" s="2"/>
       <c r="CG257" s="2"/>
     </row>
-    <row r="258" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="258" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A258" s="8"/>
       <c r="B258" s="2"/>
       <c r="C258" s="3"/>
@@ -28738,7 +28790,7 @@
       <c r="CF258" s="2"/>
       <c r="CG258" s="2"/>
     </row>
-    <row r="259" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="259" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A259" s="8"/>
       <c r="B259" s="2"/>
       <c r="C259" s="3"/>
@@ -28825,7 +28877,7 @@
       <c r="CF259" s="2"/>
       <c r="CG259" s="2"/>
     </row>
-    <row r="260" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="260" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A260" s="8"/>
       <c r="B260" s="2"/>
       <c r="C260" s="3"/>
@@ -28912,7 +28964,7 @@
       <c r="CF260" s="2"/>
       <c r="CG260" s="2"/>
     </row>
-    <row r="261" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="261" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A261" s="8"/>
       <c r="B261" s="2"/>
       <c r="C261" s="3"/>
@@ -28999,7 +29051,7 @@
       <c r="CF261" s="2"/>
       <c r="CG261" s="2"/>
     </row>
-    <row r="262" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="262" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A262" s="8"/>
       <c r="B262" s="2"/>
       <c r="C262" s="3"/>
@@ -29086,7 +29138,7 @@
       <c r="CF262" s="2"/>
       <c r="CG262" s="2"/>
     </row>
-    <row r="263" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="263" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A263" s="8"/>
       <c r="B263" s="2"/>
       <c r="C263" s="3"/>
@@ -29173,7 +29225,7 @@
       <c r="CF263" s="2"/>
       <c r="CG263" s="2"/>
     </row>
-    <row r="264" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="264" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A264" s="8"/>
       <c r="B264" s="2"/>
       <c r="C264" s="3"/>
@@ -29260,7 +29312,7 @@
       <c r="CF264" s="2"/>
       <c r="CG264" s="2"/>
     </row>
-    <row r="265" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="265" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A265" s="8"/>
       <c r="B265" s="2"/>
       <c r="C265" s="3"/>
@@ -29347,7 +29399,7 @@
       <c r="CF265" s="2"/>
       <c r="CG265" s="2"/>
     </row>
-    <row r="266" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="266" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A266" s="8"/>
       <c r="B266" s="2"/>
       <c r="C266" s="3"/>
@@ -29434,7 +29486,7 @@
       <c r="CF266" s="2"/>
       <c r="CG266" s="2"/>
     </row>
-    <row r="267" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="267" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A267" s="8"/>
       <c r="B267" s="2"/>
       <c r="C267" s="3"/>
@@ -29521,7 +29573,7 @@
       <c r="CF267" s="2"/>
       <c r="CG267" s="2"/>
     </row>
-    <row r="268" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="268" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A268" s="8"/>
       <c r="B268" s="2"/>
       <c r="C268" s="3"/>
@@ -29608,7 +29660,7 @@
       <c r="CF268" s="2"/>
       <c r="CG268" s="2"/>
     </row>
-    <row r="269" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="269" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A269" s="8"/>
       <c r="B269" s="2"/>
       <c r="C269" s="3"/>
@@ -29695,7 +29747,7 @@
       <c r="CF269" s="2"/>
       <c r="CG269" s="2"/>
     </row>
-    <row r="270" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="270" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A270" s="8"/>
       <c r="B270" s="2"/>
       <c r="C270" s="3"/>
@@ -29782,7 +29834,7 @@
       <c r="CF270" s="2"/>
       <c r="CG270" s="2"/>
     </row>
-    <row r="271" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="271" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A271" s="8"/>
       <c r="B271" s="2"/>
       <c r="C271" s="3"/>
@@ -29869,7 +29921,7 @@
       <c r="CF271" s="2"/>
       <c r="CG271" s="2"/>
     </row>
-    <row r="272" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="272" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A272" s="8"/>
       <c r="B272" s="2"/>
       <c r="C272" s="3"/>
@@ -29956,8 +30008,8 @@
       <c r="CF272" s="2"/>
       <c r="CG272" s="2"/>
     </row>
-    <row r="273" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A273" s="2"/>
+    <row customFormat="1" r="273" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A273" s="8"/>
       <c r="B273" s="2"/>
       <c r="C273" s="3"/>
       <c r="D273" s="2"/>
@@ -30043,8 +30095,8 @@
       <c r="CF273" s="2"/>
       <c r="CG273" s="2"/>
     </row>
-    <row r="274" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A274" s="2"/>
+    <row customFormat="1" r="274" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A274" s="8"/>
       <c r="B274" s="2"/>
       <c r="C274" s="3"/>
       <c r="D274" s="2"/>
@@ -30130,7 +30182,7 @@
       <c r="CF274" s="2"/>
       <c r="CG274" s="2"/>
     </row>
-    <row r="275" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="275" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="3"/>
@@ -30217,7 +30269,7 @@
       <c r="CF275" s="2"/>
       <c r="CG275" s="2"/>
     </row>
-    <row r="276" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="276" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="3"/>
@@ -30304,7 +30356,7 @@
       <c r="CF276" s="2"/>
       <c r="CG276" s="2"/>
     </row>
-    <row r="277" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="277" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="3"/>
@@ -30391,7 +30443,7 @@
       <c r="CF277" s="2"/>
       <c r="CG277" s="2"/>
     </row>
-    <row r="278" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="278" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="3"/>
@@ -30478,7 +30530,7 @@
       <c r="CF278" s="2"/>
       <c r="CG278" s="2"/>
     </row>
-    <row r="279" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="279" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="3"/>
@@ -30565,7 +30617,7 @@
       <c r="CF279" s="2"/>
       <c r="CG279" s="2"/>
     </row>
-    <row r="280" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="280" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="3"/>
@@ -30652,7 +30704,7 @@
       <c r="CF280" s="2"/>
       <c r="CG280" s="2"/>
     </row>
-    <row r="281" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="281" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="3"/>
@@ -30739,7 +30791,7 @@
       <c r="CF281" s="2"/>
       <c r="CG281" s="2"/>
     </row>
-    <row r="282" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="282" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="3"/>
@@ -30826,61 +30878,235 @@
       <c r="CF282" s="2"/>
       <c r="CG282" s="2"/>
     </row>
+    <row customFormat="1" r="283" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A283" s="2"/>
+      <c r="B283" s="2"/>
+      <c r="C283" s="3"/>
+      <c r="D283" s="2"/>
+      <c r="E283" s="2"/>
+      <c r="F283" s="2"/>
+      <c r="G283" s="2"/>
+      <c r="H283" s="2"/>
+      <c r="I283" s="2"/>
+      <c r="J283" s="2"/>
+      <c r="K283" s="2"/>
+      <c r="L283" s="2"/>
+      <c r="M283" s="2"/>
+      <c r="N283" s="2"/>
+      <c r="O283" s="2"/>
+      <c r="P283" s="2"/>
+      <c r="Q283" s="2"/>
+      <c r="R283" s="2"/>
+      <c r="S283" s="2"/>
+      <c r="T283" s="2"/>
+      <c r="U283" s="2"/>
+      <c r="V283" s="2"/>
+      <c r="W283" s="2"/>
+      <c r="X283" s="2"/>
+      <c r="Y283" s="2"/>
+      <c r="Z283" s="2"/>
+      <c r="AA283" s="2"/>
+      <c r="AB283" s="2"/>
+      <c r="AC283" s="2"/>
+      <c r="AD283" s="2"/>
+      <c r="AE283" s="2"/>
+      <c r="AF283" s="2"/>
+      <c r="AG283" s="2"/>
+      <c r="AH283" s="2"/>
+      <c r="AI283" s="2"/>
+      <c r="AJ283" s="2"/>
+      <c r="AK283" s="2"/>
+      <c r="AL283" s="2"/>
+      <c r="AM283" s="2"/>
+      <c r="AN283" s="2"/>
+      <c r="AO283" s="2"/>
+      <c r="AP283" s="2"/>
+      <c r="AQ283" s="2"/>
+      <c r="AR283" s="2"/>
+      <c r="AS283" s="2"/>
+      <c r="AT283" s="2"/>
+      <c r="AU283" s="2"/>
+      <c r="AV283" s="2"/>
+      <c r="AW283" s="2"/>
+      <c r="AX283" s="2"/>
+      <c r="AY283" s="2"/>
+      <c r="AZ283" s="2"/>
+      <c r="BA283" s="2"/>
+      <c r="BB283" s="2"/>
+      <c r="BC283" s="2"/>
+      <c r="BD283" s="2"/>
+      <c r="BE283" s="2"/>
+      <c r="BF283" s="2"/>
+      <c r="BG283" s="2"/>
+      <c r="BH283" s="2"/>
+      <c r="BI283" s="3"/>
+      <c r="BJ283" s="2"/>
+      <c r="BK283" s="2"/>
+      <c r="BL283" s="2"/>
+      <c r="BM283" s="2"/>
+      <c r="BN283" s="2"/>
+      <c r="BO283" s="2"/>
+      <c r="BP283" s="2"/>
+      <c r="BQ283" s="2"/>
+      <c r="BR283" s="2"/>
+      <c r="BS283" s="2"/>
+      <c r="BT283" s="2"/>
+      <c r="BU283" s="2"/>
+      <c r="BV283" s="2"/>
+      <c r="BW283" s="2"/>
+      <c r="BX283" s="2"/>
+      <c r="BY283" s="2"/>
+      <c r="BZ283" s="2"/>
+      <c r="CA283" s="2"/>
+      <c r="CB283" s="2"/>
+      <c r="CC283" s="2"/>
+      <c r="CD283" s="2"/>
+      <c r="CE283" s="2"/>
+      <c r="CF283" s="2"/>
+      <c r="CG283" s="2"/>
+    </row>
+    <row customFormat="1" r="284" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A284" s="2"/>
+      <c r="B284" s="2"/>
+      <c r="C284" s="3"/>
+      <c r="D284" s="2"/>
+      <c r="E284" s="2"/>
+      <c r="F284" s="2"/>
+      <c r="G284" s="2"/>
+      <c r="H284" s="2"/>
+      <c r="I284" s="2"/>
+      <c r="J284" s="2"/>
+      <c r="K284" s="2"/>
+      <c r="L284" s="2"/>
+      <c r="M284" s="2"/>
+      <c r="N284" s="2"/>
+      <c r="O284" s="2"/>
+      <c r="P284" s="2"/>
+      <c r="Q284" s="2"/>
+      <c r="R284" s="2"/>
+      <c r="S284" s="2"/>
+      <c r="T284" s="2"/>
+      <c r="U284" s="2"/>
+      <c r="V284" s="2"/>
+      <c r="W284" s="2"/>
+      <c r="X284" s="2"/>
+      <c r="Y284" s="2"/>
+      <c r="Z284" s="2"/>
+      <c r="AA284" s="2"/>
+      <c r="AB284" s="2"/>
+      <c r="AC284" s="2"/>
+      <c r="AD284" s="2"/>
+      <c r="AE284" s="2"/>
+      <c r="AF284" s="2"/>
+      <c r="AG284" s="2"/>
+      <c r="AH284" s="2"/>
+      <c r="AI284" s="2"/>
+      <c r="AJ284" s="2"/>
+      <c r="AK284" s="2"/>
+      <c r="AL284" s="2"/>
+      <c r="AM284" s="2"/>
+      <c r="AN284" s="2"/>
+      <c r="AO284" s="2"/>
+      <c r="AP284" s="2"/>
+      <c r="AQ284" s="2"/>
+      <c r="AR284" s="2"/>
+      <c r="AS284" s="2"/>
+      <c r="AT284" s="2"/>
+      <c r="AU284" s="2"/>
+      <c r="AV284" s="2"/>
+      <c r="AW284" s="2"/>
+      <c r="AX284" s="2"/>
+      <c r="AY284" s="2"/>
+      <c r="AZ284" s="2"/>
+      <c r="BA284" s="2"/>
+      <c r="BB284" s="2"/>
+      <c r="BC284" s="2"/>
+      <c r="BD284" s="2"/>
+      <c r="BE284" s="2"/>
+      <c r="BF284" s="2"/>
+      <c r="BG284" s="2"/>
+      <c r="BH284" s="2"/>
+      <c r="BI284" s="3"/>
+      <c r="BJ284" s="2"/>
+      <c r="BK284" s="2"/>
+      <c r="BL284" s="2"/>
+      <c r="BM284" s="2"/>
+      <c r="BN284" s="2"/>
+      <c r="BO284" s="2"/>
+      <c r="BP284" s="2"/>
+      <c r="BQ284" s="2"/>
+      <c r="BR284" s="2"/>
+      <c r="BS284" s="2"/>
+      <c r="BT284" s="2"/>
+      <c r="BU284" s="2"/>
+      <c r="BV284" s="2"/>
+      <c r="BW284" s="2"/>
+      <c r="BX284" s="2"/>
+      <c r="BY284" s="2"/>
+      <c r="BZ284" s="2"/>
+      <c r="CA284" s="2"/>
+      <c r="CB284" s="2"/>
+      <c r="CC284" s="2"/>
+      <c r="CD284" s="2"/>
+      <c r="CE284" s="2"/>
+      <c r="CF284" s="2"/>
+      <c r="CG284" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink display="abc@test.com" r:id="rId1" ref="BM25"/>
-    <hyperlink r:id="rId2" ref="C65"/>
-    <hyperlink r:id="rId3" ref="C72"/>
+    <hyperlink r:id="rId2" ref="C67"/>
+    <hyperlink r:id="rId3" ref="C74"/>
     <hyperlink r:id="rId4" ref="C25"/>
-    <hyperlink r:id="rId5" ref="C78"/>
-    <hyperlink display="Ankit@12345" r:id="rId6" ref="AU78"/>
-    <hyperlink r:id="rId7" ref="C146"/>
-    <hyperlink display="Deepika@1234" r:id="rId8" ref="D146"/>
-    <hyperlink r:id="rId9" ref="C156"/>
-    <hyperlink r:id="rId10" ref="C157"/>
-    <hyperlink r:id="rId11" ref="C158"/>
-    <hyperlink r:id="rId12" ref="C159"/>
-    <hyperlink r:id="rId13" ref="C161"/>
-    <hyperlink r:id="rId14" ref="C152"/>
-    <hyperlink r:id="rId15" ref="C153"/>
-    <hyperlink r:id="rId16" ref="C154"/>
-    <hyperlink r:id="rId17" ref="C141"/>
-    <hyperlink r:id="rId18" ref="C142"/>
-    <hyperlink r:id="rId19" ref="AM131"/>
+    <hyperlink r:id="rId5" ref="C80"/>
+    <hyperlink display="Ankit@12345" r:id="rId6" ref="AU80"/>
+    <hyperlink r:id="rId7" ref="C148"/>
+    <hyperlink display="Deepika@1234" r:id="rId8" ref="D148"/>
+    <hyperlink r:id="rId9" ref="C158"/>
+    <hyperlink r:id="rId10" ref="C159"/>
+    <hyperlink r:id="rId11" ref="C160"/>
+    <hyperlink r:id="rId12" ref="C161"/>
+    <hyperlink r:id="rId13" ref="C163"/>
+    <hyperlink r:id="rId14" ref="C154"/>
+    <hyperlink r:id="rId15" ref="C155"/>
+    <hyperlink r:id="rId16" ref="C156"/>
+    <hyperlink r:id="rId17" ref="C143"/>
+    <hyperlink r:id="rId18" ref="C144"/>
+    <hyperlink r:id="rId19" ref="AM133"/>
     <hyperlink r:id="rId20" ref="D11"/>
-    <hyperlink r:id="rId21" ref="D83"/>
-    <hyperlink r:id="rId22" ref="C162"/>
-    <hyperlink r:id="rId23" ref="C163"/>
-    <hyperlink r:id="rId24" ref="C165"/>
-    <hyperlink r:id="rId25" ref="C166"/>
-    <hyperlink r:id="rId26" ref="C167"/>
-    <hyperlink r:id="rId27" ref="C164"/>
-    <hyperlink r:id="rId28" ref="C168"/>
-    <hyperlink display="Ankit@123" r:id="rId29" ref="D46:D47"/>
-    <hyperlink display="Ankit@123" r:id="rId30" ref="D50:D52"/>
-    <hyperlink r:id="rId31" ref="D54"/>
-    <hyperlink display="Ankit@123" r:id="rId32" ref="D56:D58"/>
-    <hyperlink display="Ankit@123" r:id="rId33" ref="D61:D62"/>
-    <hyperlink r:id="rId34" ref="D64"/>
-    <hyperlink display="Ankit@123" r:id="rId35" ref="D66:D67"/>
-    <hyperlink display="Ankit@123" r:id="rId36" ref="D70:D71"/>
-    <hyperlink r:id="rId37" ref="D76"/>
-    <hyperlink r:id="rId38" ref="D77"/>
-    <hyperlink display="Ankit@123" r:id="rId39" ref="D79:D82"/>
-    <hyperlink display="Ankit@123" r:id="rId40" ref="D84:D97"/>
-    <hyperlink r:id="rId41" ref="D106"/>
-    <hyperlink display="Ankit@123" r:id="rId42" ref="D110:D112"/>
-    <hyperlink display="Ankit@123" r:id="rId43" ref="D114:D122"/>
-    <hyperlink display="Ankit@123" r:id="rId44" ref="D124:D145"/>
-    <hyperlink display="Ankit@123" r:id="rId45" ref="D147:D150"/>
-    <hyperlink display="Ankit@123" r:id="rId46" ref="D155:D159"/>
-    <hyperlink r:id="rId47" ref="D164"/>
-    <hyperlink display="Ankit@123" r:id="rId48" ref="D168:D171"/>
-    <hyperlink display="Ankit@123" r:id="rId49" ref="F156:F159"/>
-    <hyperlink r:id="rId50" ref="F164"/>
-    <hyperlink r:id="rId51" ref="F168"/>
-    <hyperlink r:id="rId52" ref="F66"/>
-    <hyperlink display="Ankit@12345" r:id="rId53" ref="D78"/>
+    <hyperlink r:id="rId21" ref="D85"/>
+    <hyperlink r:id="rId22" ref="C164"/>
+    <hyperlink r:id="rId23" ref="C165"/>
+    <hyperlink r:id="rId24" ref="C167"/>
+    <hyperlink r:id="rId25" ref="C168"/>
+    <hyperlink r:id="rId26" ref="C169"/>
+    <hyperlink r:id="rId27" ref="C166"/>
+    <hyperlink r:id="rId28" ref="C170"/>
+    <hyperlink display="Ankit@123" r:id="rId29" ref="D48:D49"/>
+    <hyperlink display="Ankit@123" r:id="rId30" ref="D52:D54"/>
+    <hyperlink r:id="rId31" ref="D56"/>
+    <hyperlink display="Ankit@123" r:id="rId32" ref="D58:D60"/>
+    <hyperlink display="Ankit@123" r:id="rId33" ref="D63:D64"/>
+    <hyperlink r:id="rId34" ref="D66"/>
+    <hyperlink display="Ankit@123" r:id="rId35" ref="D68:D69"/>
+    <hyperlink display="Ankit@123" r:id="rId36" ref="D72:D73"/>
+    <hyperlink r:id="rId37" ref="D78"/>
+    <hyperlink r:id="rId38" ref="D79"/>
+    <hyperlink display="Ankit@123" r:id="rId39" ref="D81:D84"/>
+    <hyperlink display="Ankit@123" r:id="rId40" ref="D86:D99"/>
+    <hyperlink r:id="rId41" ref="D108"/>
+    <hyperlink display="Ankit@123" r:id="rId42" ref="D112:D114"/>
+    <hyperlink display="Ankit@123" r:id="rId43" ref="D116:D124"/>
+    <hyperlink display="Ankit@123" r:id="rId44" ref="D126:D147"/>
+    <hyperlink display="Ankit@123" r:id="rId45" ref="D149:D152"/>
+    <hyperlink display="Ankit@123" r:id="rId46" ref="D157:D161"/>
+    <hyperlink r:id="rId47" ref="D166"/>
+    <hyperlink display="Ankit@123" r:id="rId48" ref="D170:D173"/>
+    <hyperlink display="Ankit@123" r:id="rId49" ref="F158:F161"/>
+    <hyperlink r:id="rId50" ref="F166"/>
+    <hyperlink r:id="rId51" ref="F170"/>
+    <hyperlink r:id="rId52" ref="F68"/>
+    <hyperlink display="Ankit@12345" r:id="rId53" ref="D80"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId54"/>
